--- a/InputData/elec/ELF/Equipment Load Factors.xlsx
+++ b/InputData/elec/ELF/Equipment Load Factors.xlsx
@@ -2,9 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="21280" windowHeight="9900" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
-  </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ELF-bldg-winter" sheetId="2" state="visible" r:id="rId2"/>
@@ -13,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ELF-sectors" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -22,66 +19,50 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="10">
     <font>
       <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF1D1C1D"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="4"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <color theme="1"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <color rgb="FF0563C1"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF1D1C1D"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
@@ -89,22 +70,22 @@
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,90 +97,56 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color theme="0" tint="-0.249946592608417"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Table title" xfId="2"/>
-    <cellStyle name="Body: normal cell" xfId="3"/>
-    <cellStyle name="Parent row" xfId="4"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -223,79 +170,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,13 +323,6 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -454,328 +334,1304 @@
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C61" sqref="B54:C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="44.83203125" customWidth="1" min="2" max="2"/>
+    <col width="7.75" customWidth="1" style="13" min="1" max="1"/>
+    <col width="39.25" customWidth="1" style="13" min="2" max="2"/>
+    <col width="7.75" customWidth="1" style="13" min="3" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ELF Electricity Load Factors</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Sources:</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Hourly Load Data</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>NREL</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="5" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Electrification Futures Study Load Profiles</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>https://data.nrel.gov/submissions/126</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>EFSLoadProfile_Reference_Moderate and EFSLoadProfile_High_Rapid</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Notes:</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>This variable calculates the incremental peak load contribution from each shifted</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>unit of energy from non-electric sources to electric sources. The concept behind</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>this variable is to incremental peak demand from electriification of highly seasonal</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>loads, principally heating. End uses that are not highly-seasonal already have their</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>contribution to increased peak demand accounted for through the existing system</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">load factor calculations. Since it is not expected that services other than heating </t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>would be highly seasonal, this varialbe focuses on heating</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="1" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
+      <c r="B20" s="7" t="n"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="13">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">We take aggregated national hourly load data based on local times from NREL's </t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
+    <row r="22" ht="15.75" customHeight="1" s="13">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Electrification Futures Study as a starting point. We then identify the peak </t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
+    <row r="23" ht="15.75" customHeight="1" s="13">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>winter demand hour in the 2050 reference case and the 2050 high electrification</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
+    <row r="24" ht="15.75" customHeight="1" s="13">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>case, which are only one hour different. We then calculate the ratio of the peak</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
+    <row r="25" ht="15.75" customHeight="1" s="13">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">heating demand in that hour for residential and commercial buildings relative </t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
+    <row r="26" ht="15.75" customHeight="1" s="13">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>to the average heating demand across the year. Lastly, we subtract the peak ratio</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
+    <row r="27" ht="15.75" customHeight="1" s="13">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>in the reference scenario from the peak ratio in the electrification scenario, because</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
+    <row r="28" ht="15.75" customHeight="1" s="13">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>the increase in peak demand in the reference scenario should already be covered by</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
+    <row r="29" ht="15.75" customHeight="1" s="13">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>the model's existing seasonal load factor calculations. The final value we derive</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
+    <row r="30" ht="15.75" customHeight="1" s="13">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">is the incremental peak load from each unit of energy shifted for heating in </t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
+    <row r="31" ht="15.75" customHeight="1" s="13">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>residential and commercial buildings, expressed as kW per kW shifted</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
+    <row r="32" ht="15.75" customHeight="1" s="13">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>(dividing shifted kWh by 8760 gives the average kW shifted).</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="4" t="inlineStr">
+    <row r="33" ht="15.75" customHeight="1" s="13"/>
+    <row r="34" ht="15.75" customHeight="1" s="13"/>
+    <row r="35" ht="15.75" customHeight="1" s="13">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Seasons</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
+    <row r="36" ht="15.75" customHeight="1" s="13">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Winter: November, December, January</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="13">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Summer: July, August, September</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="4" t="inlineStr">
+    <row r="38" ht="15.75" customHeight="1" s="13"/>
+    <row r="39" ht="15.75" customHeight="1" s="13">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Component Mapping</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
+    <row r="40" ht="15.75" customHeight="1" s="13">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>We have to make a few simplifications to map the source data onto</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
+    <row r="41" ht="15.75" customHeight="1" s="13">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>the EPS component categories. For heating and cooling we manually</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="13">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>map these with values of 1 and 0 depending on the season.</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="13">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Lighting is mapped onto the other category. Applianes, which</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
+    <row r="44" ht="15.75" customHeight="1" s="13">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">in the EPS are predominately water heating, map onto the water </t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
+    <row r="45" ht="15.75" customHeight="1" s="13">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>heating category from the source data. In residential buildings</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="13">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>the other category is mapped on to clothes drying/dish washing.</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="13">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>In commercial buildings, the other category is mapped on to others.</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" s="6" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="7" t="n"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="7" t="n"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="7" t="n"/>
-    </row>
-    <row r="58">
-      <c r="B58" s="7" t="n"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="7" t="n"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="7" t="n"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="7" t="n"/>
-    </row>
+    <row r="48" ht="15.75" customHeight="1" s="13"/>
+    <row r="49" ht="15.75" customHeight="1" s="13">
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>State Calculations</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" s="13">
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To downscale data for a given state, we used the following script to populate this </t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" s="13">
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>sheet with data from the Electrification Future study hourly data</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" s="13">
+      <c r="B52" s="10" t="inlineStr">
+        <is>
+          <t>https://github.com/RMI-Web/state-policy-simulator/blob/master/derive_metrics/elec/ELF.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="13"/>
+    <row r="54" ht="15.75" customHeight="1" s="13">
+      <c r="B54" s="11" t="n"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" s="13">
+      <c r="B55" s="11" t="n"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" s="13">
+      <c r="B56" s="11" t="n"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" s="13">
+      <c r="B57" s="11" t="n"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" s="13">
+      <c r="B58" s="11" t="n"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" s="13">
+      <c r="B59" s="11" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="13">
+      <c r="B60" s="11" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="13">
+      <c r="B61" s="11" t="n"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1" s="13"/>
+    <row r="63" ht="15.75" customHeight="1" s="13"/>
+    <row r="64" ht="15.75" customHeight="1" s="13"/>
+    <row r="65" ht="15.75" customHeight="1" s="13"/>
+    <row r="66" ht="15.75" customHeight="1" s="13"/>
+    <row r="67" ht="15.75" customHeight="1" s="13"/>
+    <row r="68" ht="15.75" customHeight="1" s="13"/>
+    <row r="69" ht="15.75" customHeight="1" s="13"/>
+    <row r="70" ht="15.75" customHeight="1" s="13"/>
+    <row r="71" ht="15.75" customHeight="1" s="13"/>
+    <row r="72" ht="15.75" customHeight="1" s="13"/>
+    <row r="73" ht="15.75" customHeight="1" s="13"/>
+    <row r="74" ht="15.75" customHeight="1" s="13"/>
+    <row r="75" ht="15.75" customHeight="1" s="13"/>
+    <row r="76" ht="15.75" customHeight="1" s="13"/>
+    <row r="77" ht="15.75" customHeight="1" s="13"/>
+    <row r="78" ht="15.75" customHeight="1" s="13"/>
+    <row r="79" ht="15.75" customHeight="1" s="13"/>
+    <row r="80" ht="15.75" customHeight="1" s="13"/>
+    <row r="81" ht="15.75" customHeight="1" s="13"/>
+    <row r="82" ht="15.75" customHeight="1" s="13"/>
+    <row r="83" ht="15.75" customHeight="1" s="13"/>
+    <row r="84" ht="15.75" customHeight="1" s="13"/>
+    <row r="85" ht="15.75" customHeight="1" s="13"/>
+    <row r="86" ht="15.75" customHeight="1" s="13"/>
+    <row r="87" ht="15.75" customHeight="1" s="13"/>
+    <row r="88" ht="15.75" customHeight="1" s="13"/>
+    <row r="89" ht="15.75" customHeight="1" s="13"/>
+    <row r="90" ht="15.75" customHeight="1" s="13"/>
+    <row r="91" ht="15.75" customHeight="1" s="13"/>
+    <row r="92" ht="15.75" customHeight="1" s="13"/>
+    <row r="93" ht="15.75" customHeight="1" s="13"/>
+    <row r="94" ht="15.75" customHeight="1" s="13"/>
+    <row r="95" ht="15.75" customHeight="1" s="13"/>
+    <row r="96" ht="15.75" customHeight="1" s="13"/>
+    <row r="97" ht="15.75" customHeight="1" s="13"/>
+    <row r="98" ht="15.75" customHeight="1" s="13"/>
+    <row r="99" ht="15.75" customHeight="1" s="13"/>
+    <row r="100" ht="15.75" customHeight="1" s="13"/>
+    <row r="101" ht="15.75" customHeight="1" s="13"/>
+    <row r="102" ht="15.75" customHeight="1" s="13"/>
+    <row r="103" ht="15.75" customHeight="1" s="13"/>
+    <row r="104" ht="15.75" customHeight="1" s="13"/>
+    <row r="105" ht="15.75" customHeight="1" s="13"/>
+    <row r="106" ht="15.75" customHeight="1" s="13"/>
+    <row r="107" ht="15.75" customHeight="1" s="13"/>
+    <row r="108" ht="15.75" customHeight="1" s="13"/>
+    <row r="109" ht="15.75" customHeight="1" s="13"/>
+    <row r="110" ht="15.75" customHeight="1" s="13"/>
+    <row r="111" ht="15.75" customHeight="1" s="13"/>
+    <row r="112" ht="15.75" customHeight="1" s="13"/>
+    <row r="113" ht="15.75" customHeight="1" s="13"/>
+    <row r="114" ht="15.75" customHeight="1" s="13"/>
+    <row r="115" ht="15.75" customHeight="1" s="13"/>
+    <row r="116" ht="15.75" customHeight="1" s="13"/>
+    <row r="117" ht="15.75" customHeight="1" s="13"/>
+    <row r="118" ht="15.75" customHeight="1" s="13"/>
+    <row r="119" ht="15.75" customHeight="1" s="13"/>
+    <row r="120" ht="15.75" customHeight="1" s="13"/>
+    <row r="121" ht="15.75" customHeight="1" s="13"/>
+    <row r="122" ht="15.75" customHeight="1" s="13"/>
+    <row r="123" ht="15.75" customHeight="1" s="13"/>
+    <row r="124" ht="15.75" customHeight="1" s="13"/>
+    <row r="125" ht="15.75" customHeight="1" s="13"/>
+    <row r="126" ht="15.75" customHeight="1" s="13"/>
+    <row r="127" ht="15.75" customHeight="1" s="13"/>
+    <row r="128" ht="15.75" customHeight="1" s="13"/>
+    <row r="129" ht="15.75" customHeight="1" s="13"/>
+    <row r="130" ht="15.75" customHeight="1" s="13"/>
+    <row r="131" ht="15.75" customHeight="1" s="13"/>
+    <row r="132" ht="15.75" customHeight="1" s="13"/>
+    <row r="133" ht="15.75" customHeight="1" s="13"/>
+    <row r="134" ht="15.75" customHeight="1" s="13"/>
+    <row r="135" ht="15.75" customHeight="1" s="13"/>
+    <row r="136" ht="15.75" customHeight="1" s="13"/>
+    <row r="137" ht="15.75" customHeight="1" s="13"/>
+    <row r="138" ht="15.75" customHeight="1" s="13"/>
+    <row r="139" ht="15.75" customHeight="1" s="13"/>
+    <row r="140" ht="15.75" customHeight="1" s="13"/>
+    <row r="141" ht="15.75" customHeight="1" s="13"/>
+    <row r="142" ht="15.75" customHeight="1" s="13"/>
+    <row r="143" ht="15.75" customHeight="1" s="13"/>
+    <row r="144" ht="15.75" customHeight="1" s="13"/>
+    <row r="145" ht="15.75" customHeight="1" s="13"/>
+    <row r="146" ht="15.75" customHeight="1" s="13"/>
+    <row r="147" ht="15.75" customHeight="1" s="13"/>
+    <row r="148" ht="15.75" customHeight="1" s="13"/>
+    <row r="149" ht="15.75" customHeight="1" s="13"/>
+    <row r="150" ht="15.75" customHeight="1" s="13"/>
+    <row r="151" ht="15.75" customHeight="1" s="13"/>
+    <row r="152" ht="15.75" customHeight="1" s="13"/>
+    <row r="153" ht="15.75" customHeight="1" s="13"/>
+    <row r="154" ht="15.75" customHeight="1" s="13"/>
+    <row r="155" ht="15.75" customHeight="1" s="13"/>
+    <row r="156" ht="15.75" customHeight="1" s="13"/>
+    <row r="157" ht="15.75" customHeight="1" s="13"/>
+    <row r="158" ht="15.75" customHeight="1" s="13"/>
+    <row r="159" ht="15.75" customHeight="1" s="13"/>
+    <row r="160" ht="15.75" customHeight="1" s="13"/>
+    <row r="161" ht="15.75" customHeight="1" s="13"/>
+    <row r="162" ht="15.75" customHeight="1" s="13"/>
+    <row r="163" ht="15.75" customHeight="1" s="13"/>
+    <row r="164" ht="15.75" customHeight="1" s="13"/>
+    <row r="165" ht="15.75" customHeight="1" s="13"/>
+    <row r="166" ht="15.75" customHeight="1" s="13"/>
+    <row r="167" ht="15.75" customHeight="1" s="13"/>
+    <row r="168" ht="15.75" customHeight="1" s="13"/>
+    <row r="169" ht="15.75" customHeight="1" s="13"/>
+    <row r="170" ht="15.75" customHeight="1" s="13"/>
+    <row r="171" ht="15.75" customHeight="1" s="13"/>
+    <row r="172" ht="15.75" customHeight="1" s="13"/>
+    <row r="173" ht="15.75" customHeight="1" s="13"/>
+    <row r="174" ht="15.75" customHeight="1" s="13"/>
+    <row r="175" ht="15.75" customHeight="1" s="13"/>
+    <row r="176" ht="15.75" customHeight="1" s="13"/>
+    <row r="177" ht="15.75" customHeight="1" s="13"/>
+    <row r="178" ht="15.75" customHeight="1" s="13"/>
+    <row r="179" ht="15.75" customHeight="1" s="13"/>
+    <row r="180" ht="15.75" customHeight="1" s="13"/>
+    <row r="181" ht="15.75" customHeight="1" s="13"/>
+    <row r="182" ht="15.75" customHeight="1" s="13"/>
+    <row r="183" ht="15.75" customHeight="1" s="13"/>
+    <row r="184" ht="15.75" customHeight="1" s="13"/>
+    <row r="185" ht="15.75" customHeight="1" s="13"/>
+    <row r="186" ht="15.75" customHeight="1" s="13"/>
+    <row r="187" ht="15.75" customHeight="1" s="13"/>
+    <row r="188" ht="15.75" customHeight="1" s="13"/>
+    <row r="189" ht="15.75" customHeight="1" s="13"/>
+    <row r="190" ht="15.75" customHeight="1" s="13"/>
+    <row r="191" ht="15.75" customHeight="1" s="13"/>
+    <row r="192" ht="15.75" customHeight="1" s="13"/>
+    <row r="193" ht="15.75" customHeight="1" s="13"/>
+    <row r="194" ht="15.75" customHeight="1" s="13"/>
+    <row r="195" ht="15.75" customHeight="1" s="13"/>
+    <row r="196" ht="15.75" customHeight="1" s="13"/>
+    <row r="197" ht="15.75" customHeight="1" s="13"/>
+    <row r="198" ht="15.75" customHeight="1" s="13"/>
+    <row r="199" ht="15.75" customHeight="1" s="13"/>
+    <row r="200" ht="15.75" customHeight="1" s="13"/>
+    <row r="201" ht="15.75" customHeight="1" s="13"/>
+    <row r="202" ht="15.75" customHeight="1" s="13"/>
+    <row r="203" ht="15.75" customHeight="1" s="13"/>
+    <row r="204" ht="15.75" customHeight="1" s="13"/>
+    <row r="205" ht="15.75" customHeight="1" s="13"/>
+    <row r="206" ht="15.75" customHeight="1" s="13"/>
+    <row r="207" ht="15.75" customHeight="1" s="13"/>
+    <row r="208" ht="15.75" customHeight="1" s="13"/>
+    <row r="209" ht="15.75" customHeight="1" s="13"/>
+    <row r="210" ht="15.75" customHeight="1" s="13"/>
+    <row r="211" ht="15.75" customHeight="1" s="13"/>
+    <row r="212" ht="15.75" customHeight="1" s="13"/>
+    <row r="213" ht="15.75" customHeight="1" s="13"/>
+    <row r="214" ht="15.75" customHeight="1" s="13"/>
+    <row r="215" ht="15.75" customHeight="1" s="13"/>
+    <row r="216" ht="15.75" customHeight="1" s="13"/>
+    <row r="217" ht="15.75" customHeight="1" s="13"/>
+    <row r="218" ht="15.75" customHeight="1" s="13"/>
+    <row r="219" ht="15.75" customHeight="1" s="13"/>
+    <row r="220" ht="15.75" customHeight="1" s="13"/>
+    <row r="221" ht="15.75" customHeight="1" s="13"/>
+    <row r="222" ht="15.75" customHeight="1" s="13"/>
+    <row r="223" ht="15.75" customHeight="1" s="13"/>
+    <row r="224" ht="15.75" customHeight="1" s="13"/>
+    <row r="225" ht="15.75" customHeight="1" s="13"/>
+    <row r="226" ht="15.75" customHeight="1" s="13"/>
+    <row r="227" ht="15.75" customHeight="1" s="13"/>
+    <row r="228" ht="15.75" customHeight="1" s="13"/>
+    <row r="229" ht="15.75" customHeight="1" s="13"/>
+    <row r="230" ht="15.75" customHeight="1" s="13"/>
+    <row r="231" ht="15.75" customHeight="1" s="13"/>
+    <row r="232" ht="15.75" customHeight="1" s="13"/>
+    <row r="233" ht="15.75" customHeight="1" s="13"/>
+    <row r="234" ht="15.75" customHeight="1" s="13"/>
+    <row r="235" ht="15.75" customHeight="1" s="13"/>
+    <row r="236" ht="15.75" customHeight="1" s="13"/>
+    <row r="237" ht="15.75" customHeight="1" s="13"/>
+    <row r="238" ht="15.75" customHeight="1" s="13"/>
+    <row r="239" ht="15.75" customHeight="1" s="13"/>
+    <row r="240" ht="15.75" customHeight="1" s="13"/>
+    <row r="241" ht="15.75" customHeight="1" s="13"/>
+    <row r="242" ht="15.75" customHeight="1" s="13"/>
+    <row r="243" ht="15.75" customHeight="1" s="13"/>
+    <row r="244" ht="15.75" customHeight="1" s="13"/>
+    <row r="245" ht="15.75" customHeight="1" s="13"/>
+    <row r="246" ht="15.75" customHeight="1" s="13"/>
+    <row r="247" ht="15.75" customHeight="1" s="13"/>
+    <row r="248" ht="15.75" customHeight="1" s="13"/>
+    <row r="249" ht="15.75" customHeight="1" s="13"/>
+    <row r="250" ht="15.75" customHeight="1" s="13"/>
+    <row r="251" ht="15.75" customHeight="1" s="13"/>
+    <row r="252" ht="15.75" customHeight="1" s="13"/>
+    <row r="253" ht="15.75" customHeight="1" s="13"/>
+    <row r="254" ht="15.75" customHeight="1" s="13"/>
+    <row r="255" ht="15.75" customHeight="1" s="13"/>
+    <row r="256" ht="15.75" customHeight="1" s="13"/>
+    <row r="257" ht="15.75" customHeight="1" s="13"/>
+    <row r="258" ht="15.75" customHeight="1" s="13"/>
+    <row r="259" ht="15.75" customHeight="1" s="13"/>
+    <row r="260" ht="15.75" customHeight="1" s="13"/>
+    <row r="261" ht="15.75" customHeight="1" s="13"/>
+    <row r="262" ht="15.75" customHeight="1" s="13"/>
+    <row r="263" ht="15.75" customHeight="1" s="13"/>
+    <row r="264" ht="15.75" customHeight="1" s="13"/>
+    <row r="265" ht="15.75" customHeight="1" s="13"/>
+    <row r="266" ht="15.75" customHeight="1" s="13"/>
+    <row r="267" ht="15.75" customHeight="1" s="13"/>
+    <row r="268" ht="15.75" customHeight="1" s="13"/>
+    <row r="269" ht="15.75" customHeight="1" s="13"/>
+    <row r="270" ht="15.75" customHeight="1" s="13"/>
+    <row r="271" ht="15.75" customHeight="1" s="13"/>
+    <row r="272" ht="15.75" customHeight="1" s="13"/>
+    <row r="273" ht="15.75" customHeight="1" s="13"/>
+    <row r="274" ht="15.75" customHeight="1" s="13"/>
+    <row r="275" ht="15.75" customHeight="1" s="13"/>
+    <row r="276" ht="15.75" customHeight="1" s="13"/>
+    <row r="277" ht="15.75" customHeight="1" s="13"/>
+    <row r="278" ht="15.75" customHeight="1" s="13"/>
+    <row r="279" ht="15.75" customHeight="1" s="13"/>
+    <row r="280" ht="15.75" customHeight="1" s="13"/>
+    <row r="281" ht="15.75" customHeight="1" s="13"/>
+    <row r="282" ht="15.75" customHeight="1" s="13"/>
+    <row r="283" ht="15.75" customHeight="1" s="13"/>
+    <row r="284" ht="15.75" customHeight="1" s="13"/>
+    <row r="285" ht="15.75" customHeight="1" s="13"/>
+    <row r="286" ht="15.75" customHeight="1" s="13"/>
+    <row r="287" ht="15.75" customHeight="1" s="13"/>
+    <row r="288" ht="15.75" customHeight="1" s="13"/>
+    <row r="289" ht="15.75" customHeight="1" s="13"/>
+    <row r="290" ht="15.75" customHeight="1" s="13"/>
+    <row r="291" ht="15.75" customHeight="1" s="13"/>
+    <row r="292" ht="15.75" customHeight="1" s="13"/>
+    <row r="293" ht="15.75" customHeight="1" s="13"/>
+    <row r="294" ht="15.75" customHeight="1" s="13"/>
+    <row r="295" ht="15.75" customHeight="1" s="13"/>
+    <row r="296" ht="15.75" customHeight="1" s="13"/>
+    <row r="297" ht="15.75" customHeight="1" s="13"/>
+    <row r="298" ht="15.75" customHeight="1" s="13"/>
+    <row r="299" ht="15.75" customHeight="1" s="13"/>
+    <row r="300" ht="15.75" customHeight="1" s="13"/>
+    <row r="301" ht="15.75" customHeight="1" s="13"/>
+    <row r="302" ht="15.75" customHeight="1" s="13"/>
+    <row r="303" ht="15.75" customHeight="1" s="13"/>
+    <row r="304" ht="15.75" customHeight="1" s="13"/>
+    <row r="305" ht="15.75" customHeight="1" s="13"/>
+    <row r="306" ht="15.75" customHeight="1" s="13"/>
+    <row r="307" ht="15.75" customHeight="1" s="13"/>
+    <row r="308" ht="15.75" customHeight="1" s="13"/>
+    <row r="309" ht="15.75" customHeight="1" s="13"/>
+    <row r="310" ht="15.75" customHeight="1" s="13"/>
+    <row r="311" ht="15.75" customHeight="1" s="13"/>
+    <row r="312" ht="15.75" customHeight="1" s="13"/>
+    <row r="313" ht="15.75" customHeight="1" s="13"/>
+    <row r="314" ht="15.75" customHeight="1" s="13"/>
+    <row r="315" ht="15.75" customHeight="1" s="13"/>
+    <row r="316" ht="15.75" customHeight="1" s="13"/>
+    <row r="317" ht="15.75" customHeight="1" s="13"/>
+    <row r="318" ht="15.75" customHeight="1" s="13"/>
+    <row r="319" ht="15.75" customHeight="1" s="13"/>
+    <row r="320" ht="15.75" customHeight="1" s="13"/>
+    <row r="321" ht="15.75" customHeight="1" s="13"/>
+    <row r="322" ht="15.75" customHeight="1" s="13"/>
+    <row r="323" ht="15.75" customHeight="1" s="13"/>
+    <row r="324" ht="15.75" customHeight="1" s="13"/>
+    <row r="325" ht="15.75" customHeight="1" s="13"/>
+    <row r="326" ht="15.75" customHeight="1" s="13"/>
+    <row r="327" ht="15.75" customHeight="1" s="13"/>
+    <row r="328" ht="15.75" customHeight="1" s="13"/>
+    <row r="329" ht="15.75" customHeight="1" s="13"/>
+    <row r="330" ht="15.75" customHeight="1" s="13"/>
+    <row r="331" ht="15.75" customHeight="1" s="13"/>
+    <row r="332" ht="15.75" customHeight="1" s="13"/>
+    <row r="333" ht="15.75" customHeight="1" s="13"/>
+    <row r="334" ht="15.75" customHeight="1" s="13"/>
+    <row r="335" ht="15.75" customHeight="1" s="13"/>
+    <row r="336" ht="15.75" customHeight="1" s="13"/>
+    <row r="337" ht="15.75" customHeight="1" s="13"/>
+    <row r="338" ht="15.75" customHeight="1" s="13"/>
+    <row r="339" ht="15.75" customHeight="1" s="13"/>
+    <row r="340" ht="15.75" customHeight="1" s="13"/>
+    <row r="341" ht="15.75" customHeight="1" s="13"/>
+    <row r="342" ht="15.75" customHeight="1" s="13"/>
+    <row r="343" ht="15.75" customHeight="1" s="13"/>
+    <row r="344" ht="15.75" customHeight="1" s="13"/>
+    <row r="345" ht="15.75" customHeight="1" s="13"/>
+    <row r="346" ht="15.75" customHeight="1" s="13"/>
+    <row r="347" ht="15.75" customHeight="1" s="13"/>
+    <row r="348" ht="15.75" customHeight="1" s="13"/>
+    <row r="349" ht="15.75" customHeight="1" s="13"/>
+    <row r="350" ht="15.75" customHeight="1" s="13"/>
+    <row r="351" ht="15.75" customHeight="1" s="13"/>
+    <row r="352" ht="15.75" customHeight="1" s="13"/>
+    <row r="353" ht="15.75" customHeight="1" s="13"/>
+    <row r="354" ht="15.75" customHeight="1" s="13"/>
+    <row r="355" ht="15.75" customHeight="1" s="13"/>
+    <row r="356" ht="15.75" customHeight="1" s="13"/>
+    <row r="357" ht="15.75" customHeight="1" s="13"/>
+    <row r="358" ht="15.75" customHeight="1" s="13"/>
+    <row r="359" ht="15.75" customHeight="1" s="13"/>
+    <row r="360" ht="15.75" customHeight="1" s="13"/>
+    <row r="361" ht="15.75" customHeight="1" s="13"/>
+    <row r="362" ht="15.75" customHeight="1" s="13"/>
+    <row r="363" ht="15.75" customHeight="1" s="13"/>
+    <row r="364" ht="15.75" customHeight="1" s="13"/>
+    <row r="365" ht="15.75" customHeight="1" s="13"/>
+    <row r="366" ht="15.75" customHeight="1" s="13"/>
+    <row r="367" ht="15.75" customHeight="1" s="13"/>
+    <row r="368" ht="15.75" customHeight="1" s="13"/>
+    <row r="369" ht="15.75" customHeight="1" s="13"/>
+    <row r="370" ht="15.75" customHeight="1" s="13"/>
+    <row r="371" ht="15.75" customHeight="1" s="13"/>
+    <row r="372" ht="15.75" customHeight="1" s="13"/>
+    <row r="373" ht="15.75" customHeight="1" s="13"/>
+    <row r="374" ht="15.75" customHeight="1" s="13"/>
+    <row r="375" ht="15.75" customHeight="1" s="13"/>
+    <row r="376" ht="15.75" customHeight="1" s="13"/>
+    <row r="377" ht="15.75" customHeight="1" s="13"/>
+    <row r="378" ht="15.75" customHeight="1" s="13"/>
+    <row r="379" ht="15.75" customHeight="1" s="13"/>
+    <row r="380" ht="15.75" customHeight="1" s="13"/>
+    <row r="381" ht="15.75" customHeight="1" s="13"/>
+    <row r="382" ht="15.75" customHeight="1" s="13"/>
+    <row r="383" ht="15.75" customHeight="1" s="13"/>
+    <row r="384" ht="15.75" customHeight="1" s="13"/>
+    <row r="385" ht="15.75" customHeight="1" s="13"/>
+    <row r="386" ht="15.75" customHeight="1" s="13"/>
+    <row r="387" ht="15.75" customHeight="1" s="13"/>
+    <row r="388" ht="15.75" customHeight="1" s="13"/>
+    <row r="389" ht="15.75" customHeight="1" s="13"/>
+    <row r="390" ht="15.75" customHeight="1" s="13"/>
+    <row r="391" ht="15.75" customHeight="1" s="13"/>
+    <row r="392" ht="15.75" customHeight="1" s="13"/>
+    <row r="393" ht="15.75" customHeight="1" s="13"/>
+    <row r="394" ht="15.75" customHeight="1" s="13"/>
+    <row r="395" ht="15.75" customHeight="1" s="13"/>
+    <row r="396" ht="15.75" customHeight="1" s="13"/>
+    <row r="397" ht="15.75" customHeight="1" s="13"/>
+    <row r="398" ht="15.75" customHeight="1" s="13"/>
+    <row r="399" ht="15.75" customHeight="1" s="13"/>
+    <row r="400" ht="15.75" customHeight="1" s="13"/>
+    <row r="401" ht="15.75" customHeight="1" s="13"/>
+    <row r="402" ht="15.75" customHeight="1" s="13"/>
+    <row r="403" ht="15.75" customHeight="1" s="13"/>
+    <row r="404" ht="15.75" customHeight="1" s="13"/>
+    <row r="405" ht="15.75" customHeight="1" s="13"/>
+    <row r="406" ht="15.75" customHeight="1" s="13"/>
+    <row r="407" ht="15.75" customHeight="1" s="13"/>
+    <row r="408" ht="15.75" customHeight="1" s="13"/>
+    <row r="409" ht="15.75" customHeight="1" s="13"/>
+    <row r="410" ht="15.75" customHeight="1" s="13"/>
+    <row r="411" ht="15.75" customHeight="1" s="13"/>
+    <row r="412" ht="15.75" customHeight="1" s="13"/>
+    <row r="413" ht="15.75" customHeight="1" s="13"/>
+    <row r="414" ht="15.75" customHeight="1" s="13"/>
+    <row r="415" ht="15.75" customHeight="1" s="13"/>
+    <row r="416" ht="15.75" customHeight="1" s="13"/>
+    <row r="417" ht="15.75" customHeight="1" s="13"/>
+    <row r="418" ht="15.75" customHeight="1" s="13"/>
+    <row r="419" ht="15.75" customHeight="1" s="13"/>
+    <row r="420" ht="15.75" customHeight="1" s="13"/>
+    <row r="421" ht="15.75" customHeight="1" s="13"/>
+    <row r="422" ht="15.75" customHeight="1" s="13"/>
+    <row r="423" ht="15.75" customHeight="1" s="13"/>
+    <row r="424" ht="15.75" customHeight="1" s="13"/>
+    <row r="425" ht="15.75" customHeight="1" s="13"/>
+    <row r="426" ht="15.75" customHeight="1" s="13"/>
+    <row r="427" ht="15.75" customHeight="1" s="13"/>
+    <row r="428" ht="15.75" customHeight="1" s="13"/>
+    <row r="429" ht="15.75" customHeight="1" s="13"/>
+    <row r="430" ht="15.75" customHeight="1" s="13"/>
+    <row r="431" ht="15.75" customHeight="1" s="13"/>
+    <row r="432" ht="15.75" customHeight="1" s="13"/>
+    <row r="433" ht="15.75" customHeight="1" s="13"/>
+    <row r="434" ht="15.75" customHeight="1" s="13"/>
+    <row r="435" ht="15.75" customHeight="1" s="13"/>
+    <row r="436" ht="15.75" customHeight="1" s="13"/>
+    <row r="437" ht="15.75" customHeight="1" s="13"/>
+    <row r="438" ht="15.75" customHeight="1" s="13"/>
+    <row r="439" ht="15.75" customHeight="1" s="13"/>
+    <row r="440" ht="15.75" customHeight="1" s="13"/>
+    <row r="441" ht="15.75" customHeight="1" s="13"/>
+    <row r="442" ht="15.75" customHeight="1" s="13"/>
+    <row r="443" ht="15.75" customHeight="1" s="13"/>
+    <row r="444" ht="15.75" customHeight="1" s="13"/>
+    <row r="445" ht="15.75" customHeight="1" s="13"/>
+    <row r="446" ht="15.75" customHeight="1" s="13"/>
+    <row r="447" ht="15.75" customHeight="1" s="13"/>
+    <row r="448" ht="15.75" customHeight="1" s="13"/>
+    <row r="449" ht="15.75" customHeight="1" s="13"/>
+    <row r="450" ht="15.75" customHeight="1" s="13"/>
+    <row r="451" ht="15.75" customHeight="1" s="13"/>
+    <row r="452" ht="15.75" customHeight="1" s="13"/>
+    <row r="453" ht="15.75" customHeight="1" s="13"/>
+    <row r="454" ht="15.75" customHeight="1" s="13"/>
+    <row r="455" ht="15.75" customHeight="1" s="13"/>
+    <row r="456" ht="15.75" customHeight="1" s="13"/>
+    <row r="457" ht="15.75" customHeight="1" s="13"/>
+    <row r="458" ht="15.75" customHeight="1" s="13"/>
+    <row r="459" ht="15.75" customHeight="1" s="13"/>
+    <row r="460" ht="15.75" customHeight="1" s="13"/>
+    <row r="461" ht="15.75" customHeight="1" s="13"/>
+    <row r="462" ht="15.75" customHeight="1" s="13"/>
+    <row r="463" ht="15.75" customHeight="1" s="13"/>
+    <row r="464" ht="15.75" customHeight="1" s="13"/>
+    <row r="465" ht="15.75" customHeight="1" s="13"/>
+    <row r="466" ht="15.75" customHeight="1" s="13"/>
+    <row r="467" ht="15.75" customHeight="1" s="13"/>
+    <row r="468" ht="15.75" customHeight="1" s="13"/>
+    <row r="469" ht="15.75" customHeight="1" s="13"/>
+    <row r="470" ht="15.75" customHeight="1" s="13"/>
+    <row r="471" ht="15.75" customHeight="1" s="13"/>
+    <row r="472" ht="15.75" customHeight="1" s="13"/>
+    <row r="473" ht="15.75" customHeight="1" s="13"/>
+    <row r="474" ht="15.75" customHeight="1" s="13"/>
+    <row r="475" ht="15.75" customHeight="1" s="13"/>
+    <row r="476" ht="15.75" customHeight="1" s="13"/>
+    <row r="477" ht="15.75" customHeight="1" s="13"/>
+    <row r="478" ht="15.75" customHeight="1" s="13"/>
+    <row r="479" ht="15.75" customHeight="1" s="13"/>
+    <row r="480" ht="15.75" customHeight="1" s="13"/>
+    <row r="481" ht="15.75" customHeight="1" s="13"/>
+    <row r="482" ht="15.75" customHeight="1" s="13"/>
+    <row r="483" ht="15.75" customHeight="1" s="13"/>
+    <row r="484" ht="15.75" customHeight="1" s="13"/>
+    <row r="485" ht="15.75" customHeight="1" s="13"/>
+    <row r="486" ht="15.75" customHeight="1" s="13"/>
+    <row r="487" ht="15.75" customHeight="1" s="13"/>
+    <row r="488" ht="15.75" customHeight="1" s="13"/>
+    <row r="489" ht="15.75" customHeight="1" s="13"/>
+    <row r="490" ht="15.75" customHeight="1" s="13"/>
+    <row r="491" ht="15.75" customHeight="1" s="13"/>
+    <row r="492" ht="15.75" customHeight="1" s="13"/>
+    <row r="493" ht="15.75" customHeight="1" s="13"/>
+    <row r="494" ht="15.75" customHeight="1" s="13"/>
+    <row r="495" ht="15.75" customHeight="1" s="13"/>
+    <row r="496" ht="15.75" customHeight="1" s="13"/>
+    <row r="497" ht="15.75" customHeight="1" s="13"/>
+    <row r="498" ht="15.75" customHeight="1" s="13"/>
+    <row r="499" ht="15.75" customHeight="1" s="13"/>
+    <row r="500" ht="15.75" customHeight="1" s="13"/>
+    <row r="501" ht="15.75" customHeight="1" s="13"/>
+    <row r="502" ht="15.75" customHeight="1" s="13"/>
+    <row r="503" ht="15.75" customHeight="1" s="13"/>
+    <row r="504" ht="15.75" customHeight="1" s="13"/>
+    <row r="505" ht="15.75" customHeight="1" s="13"/>
+    <row r="506" ht="15.75" customHeight="1" s="13"/>
+    <row r="507" ht="15.75" customHeight="1" s="13"/>
+    <row r="508" ht="15.75" customHeight="1" s="13"/>
+    <row r="509" ht="15.75" customHeight="1" s="13"/>
+    <row r="510" ht="15.75" customHeight="1" s="13"/>
+    <row r="511" ht="15.75" customHeight="1" s="13"/>
+    <row r="512" ht="15.75" customHeight="1" s="13"/>
+    <row r="513" ht="15.75" customHeight="1" s="13"/>
+    <row r="514" ht="15.75" customHeight="1" s="13"/>
+    <row r="515" ht="15.75" customHeight="1" s="13"/>
+    <row r="516" ht="15.75" customHeight="1" s="13"/>
+    <row r="517" ht="15.75" customHeight="1" s="13"/>
+    <row r="518" ht="15.75" customHeight="1" s="13"/>
+    <row r="519" ht="15.75" customHeight="1" s="13"/>
+    <row r="520" ht="15.75" customHeight="1" s="13"/>
+    <row r="521" ht="15.75" customHeight="1" s="13"/>
+    <row r="522" ht="15.75" customHeight="1" s="13"/>
+    <row r="523" ht="15.75" customHeight="1" s="13"/>
+    <row r="524" ht="15.75" customHeight="1" s="13"/>
+    <row r="525" ht="15.75" customHeight="1" s="13"/>
+    <row r="526" ht="15.75" customHeight="1" s="13"/>
+    <row r="527" ht="15.75" customHeight="1" s="13"/>
+    <row r="528" ht="15.75" customHeight="1" s="13"/>
+    <row r="529" ht="15.75" customHeight="1" s="13"/>
+    <row r="530" ht="15.75" customHeight="1" s="13"/>
+    <row r="531" ht="15.75" customHeight="1" s="13"/>
+    <row r="532" ht="15.75" customHeight="1" s="13"/>
+    <row r="533" ht="15.75" customHeight="1" s="13"/>
+    <row r="534" ht="15.75" customHeight="1" s="13"/>
+    <row r="535" ht="15.75" customHeight="1" s="13"/>
+    <row r="536" ht="15.75" customHeight="1" s="13"/>
+    <row r="537" ht="15.75" customHeight="1" s="13"/>
+    <row r="538" ht="15.75" customHeight="1" s="13"/>
+    <row r="539" ht="15.75" customHeight="1" s="13"/>
+    <row r="540" ht="15.75" customHeight="1" s="13"/>
+    <row r="541" ht="15.75" customHeight="1" s="13"/>
+    <row r="542" ht="15.75" customHeight="1" s="13"/>
+    <row r="543" ht="15.75" customHeight="1" s="13"/>
+    <row r="544" ht="15.75" customHeight="1" s="13"/>
+    <row r="545" ht="15.75" customHeight="1" s="13"/>
+    <row r="546" ht="15.75" customHeight="1" s="13"/>
+    <row r="547" ht="15.75" customHeight="1" s="13"/>
+    <row r="548" ht="15.75" customHeight="1" s="13"/>
+    <row r="549" ht="15.75" customHeight="1" s="13"/>
+    <row r="550" ht="15.75" customHeight="1" s="13"/>
+    <row r="551" ht="15.75" customHeight="1" s="13"/>
+    <row r="552" ht="15.75" customHeight="1" s="13"/>
+    <row r="553" ht="15.75" customHeight="1" s="13"/>
+    <row r="554" ht="15.75" customHeight="1" s="13"/>
+    <row r="555" ht="15.75" customHeight="1" s="13"/>
+    <row r="556" ht="15.75" customHeight="1" s="13"/>
+    <row r="557" ht="15.75" customHeight="1" s="13"/>
+    <row r="558" ht="15.75" customHeight="1" s="13"/>
+    <row r="559" ht="15.75" customHeight="1" s="13"/>
+    <row r="560" ht="15.75" customHeight="1" s="13"/>
+    <row r="561" ht="15.75" customHeight="1" s="13"/>
+    <row r="562" ht="15.75" customHeight="1" s="13"/>
+    <row r="563" ht="15.75" customHeight="1" s="13"/>
+    <row r="564" ht="15.75" customHeight="1" s="13"/>
+    <row r="565" ht="15.75" customHeight="1" s="13"/>
+    <row r="566" ht="15.75" customHeight="1" s="13"/>
+    <row r="567" ht="15.75" customHeight="1" s="13"/>
+    <row r="568" ht="15.75" customHeight="1" s="13"/>
+    <row r="569" ht="15.75" customHeight="1" s="13"/>
+    <row r="570" ht="15.75" customHeight="1" s="13"/>
+    <row r="571" ht="15.75" customHeight="1" s="13"/>
+    <row r="572" ht="15.75" customHeight="1" s="13"/>
+    <row r="573" ht="15.75" customHeight="1" s="13"/>
+    <row r="574" ht="15.75" customHeight="1" s="13"/>
+    <row r="575" ht="15.75" customHeight="1" s="13"/>
+    <row r="576" ht="15.75" customHeight="1" s="13"/>
+    <row r="577" ht="15.75" customHeight="1" s="13"/>
+    <row r="578" ht="15.75" customHeight="1" s="13"/>
+    <row r="579" ht="15.75" customHeight="1" s="13"/>
+    <row r="580" ht="15.75" customHeight="1" s="13"/>
+    <row r="581" ht="15.75" customHeight="1" s="13"/>
+    <row r="582" ht="15.75" customHeight="1" s="13"/>
+    <row r="583" ht="15.75" customHeight="1" s="13"/>
+    <row r="584" ht="15.75" customHeight="1" s="13"/>
+    <row r="585" ht="15.75" customHeight="1" s="13"/>
+    <row r="586" ht="15.75" customHeight="1" s="13"/>
+    <row r="587" ht="15.75" customHeight="1" s="13"/>
+    <row r="588" ht="15.75" customHeight="1" s="13"/>
+    <row r="589" ht="15.75" customHeight="1" s="13"/>
+    <row r="590" ht="15.75" customHeight="1" s="13"/>
+    <row r="591" ht="15.75" customHeight="1" s="13"/>
+    <row r="592" ht="15.75" customHeight="1" s="13"/>
+    <row r="593" ht="15.75" customHeight="1" s="13"/>
+    <row r="594" ht="15.75" customHeight="1" s="13"/>
+    <row r="595" ht="15.75" customHeight="1" s="13"/>
+    <row r="596" ht="15.75" customHeight="1" s="13"/>
+    <row r="597" ht="15.75" customHeight="1" s="13"/>
+    <row r="598" ht="15.75" customHeight="1" s="13"/>
+    <row r="599" ht="15.75" customHeight="1" s="13"/>
+    <row r="600" ht="15.75" customHeight="1" s="13"/>
+    <row r="601" ht="15.75" customHeight="1" s="13"/>
+    <row r="602" ht="15.75" customHeight="1" s="13"/>
+    <row r="603" ht="15.75" customHeight="1" s="13"/>
+    <row r="604" ht="15.75" customHeight="1" s="13"/>
+    <row r="605" ht="15.75" customHeight="1" s="13"/>
+    <row r="606" ht="15.75" customHeight="1" s="13"/>
+    <row r="607" ht="15.75" customHeight="1" s="13"/>
+    <row r="608" ht="15.75" customHeight="1" s="13"/>
+    <row r="609" ht="15.75" customHeight="1" s="13"/>
+    <row r="610" ht="15.75" customHeight="1" s="13"/>
+    <row r="611" ht="15.75" customHeight="1" s="13"/>
+    <row r="612" ht="15.75" customHeight="1" s="13"/>
+    <row r="613" ht="15.75" customHeight="1" s="13"/>
+    <row r="614" ht="15.75" customHeight="1" s="13"/>
+    <row r="615" ht="15.75" customHeight="1" s="13"/>
+    <row r="616" ht="15.75" customHeight="1" s="13"/>
+    <row r="617" ht="15.75" customHeight="1" s="13"/>
+    <row r="618" ht="15.75" customHeight="1" s="13"/>
+    <row r="619" ht="15.75" customHeight="1" s="13"/>
+    <row r="620" ht="15.75" customHeight="1" s="13"/>
+    <row r="621" ht="15.75" customHeight="1" s="13"/>
+    <row r="622" ht="15.75" customHeight="1" s="13"/>
+    <row r="623" ht="15.75" customHeight="1" s="13"/>
+    <row r="624" ht="15.75" customHeight="1" s="13"/>
+    <row r="625" ht="15.75" customHeight="1" s="13"/>
+    <row r="626" ht="15.75" customHeight="1" s="13"/>
+    <row r="627" ht="15.75" customHeight="1" s="13"/>
+    <row r="628" ht="15.75" customHeight="1" s="13"/>
+    <row r="629" ht="15.75" customHeight="1" s="13"/>
+    <row r="630" ht="15.75" customHeight="1" s="13"/>
+    <row r="631" ht="15.75" customHeight="1" s="13"/>
+    <row r="632" ht="15.75" customHeight="1" s="13"/>
+    <row r="633" ht="15.75" customHeight="1" s="13"/>
+    <row r="634" ht="15.75" customHeight="1" s="13"/>
+    <row r="635" ht="15.75" customHeight="1" s="13"/>
+    <row r="636" ht="15.75" customHeight="1" s="13"/>
+    <row r="637" ht="15.75" customHeight="1" s="13"/>
+    <row r="638" ht="15.75" customHeight="1" s="13"/>
+    <row r="639" ht="15.75" customHeight="1" s="13"/>
+    <row r="640" ht="15.75" customHeight="1" s="13"/>
+    <row r="641" ht="15.75" customHeight="1" s="13"/>
+    <row r="642" ht="15.75" customHeight="1" s="13"/>
+    <row r="643" ht="15.75" customHeight="1" s="13"/>
+    <row r="644" ht="15.75" customHeight="1" s="13"/>
+    <row r="645" ht="15.75" customHeight="1" s="13"/>
+    <row r="646" ht="15.75" customHeight="1" s="13"/>
+    <row r="647" ht="15.75" customHeight="1" s="13"/>
+    <row r="648" ht="15.75" customHeight="1" s="13"/>
+    <row r="649" ht="15.75" customHeight="1" s="13"/>
+    <row r="650" ht="15.75" customHeight="1" s="13"/>
+    <row r="651" ht="15.75" customHeight="1" s="13"/>
+    <row r="652" ht="15.75" customHeight="1" s="13"/>
+    <row r="653" ht="15.75" customHeight="1" s="13"/>
+    <row r="654" ht="15.75" customHeight="1" s="13"/>
+    <row r="655" ht="15.75" customHeight="1" s="13"/>
+    <row r="656" ht="15.75" customHeight="1" s="13"/>
+    <row r="657" ht="15.75" customHeight="1" s="13"/>
+    <row r="658" ht="15.75" customHeight="1" s="13"/>
+    <row r="659" ht="15.75" customHeight="1" s="13"/>
+    <row r="660" ht="15.75" customHeight="1" s="13"/>
+    <row r="661" ht="15.75" customHeight="1" s="13"/>
+    <row r="662" ht="15.75" customHeight="1" s="13"/>
+    <row r="663" ht="15.75" customHeight="1" s="13"/>
+    <row r="664" ht="15.75" customHeight="1" s="13"/>
+    <row r="665" ht="15.75" customHeight="1" s="13"/>
+    <row r="666" ht="15.75" customHeight="1" s="13"/>
+    <row r="667" ht="15.75" customHeight="1" s="13"/>
+    <row r="668" ht="15.75" customHeight="1" s="13"/>
+    <row r="669" ht="15.75" customHeight="1" s="13"/>
+    <row r="670" ht="15.75" customHeight="1" s="13"/>
+    <row r="671" ht="15.75" customHeight="1" s="13"/>
+    <row r="672" ht="15.75" customHeight="1" s="13"/>
+    <row r="673" ht="15.75" customHeight="1" s="13"/>
+    <row r="674" ht="15.75" customHeight="1" s="13"/>
+    <row r="675" ht="15.75" customHeight="1" s="13"/>
+    <row r="676" ht="15.75" customHeight="1" s="13"/>
+    <row r="677" ht="15.75" customHeight="1" s="13"/>
+    <row r="678" ht="15.75" customHeight="1" s="13"/>
+    <row r="679" ht="15.75" customHeight="1" s="13"/>
+    <row r="680" ht="15.75" customHeight="1" s="13"/>
+    <row r="681" ht="15.75" customHeight="1" s="13"/>
+    <row r="682" ht="15.75" customHeight="1" s="13"/>
+    <row r="683" ht="15.75" customHeight="1" s="13"/>
+    <row r="684" ht="15.75" customHeight="1" s="13"/>
+    <row r="685" ht="15.75" customHeight="1" s="13"/>
+    <row r="686" ht="15.75" customHeight="1" s="13"/>
+    <row r="687" ht="15.75" customHeight="1" s="13"/>
+    <row r="688" ht="15.75" customHeight="1" s="13"/>
+    <row r="689" ht="15.75" customHeight="1" s="13"/>
+    <row r="690" ht="15.75" customHeight="1" s="13"/>
+    <row r="691" ht="15.75" customHeight="1" s="13"/>
+    <row r="692" ht="15.75" customHeight="1" s="13"/>
+    <row r="693" ht="15.75" customHeight="1" s="13"/>
+    <row r="694" ht="15.75" customHeight="1" s="13"/>
+    <row r="695" ht="15.75" customHeight="1" s="13"/>
+    <row r="696" ht="15.75" customHeight="1" s="13"/>
+    <row r="697" ht="15.75" customHeight="1" s="13"/>
+    <row r="698" ht="15.75" customHeight="1" s="13"/>
+    <row r="699" ht="15.75" customHeight="1" s="13"/>
+    <row r="700" ht="15.75" customHeight="1" s="13"/>
+    <row r="701" ht="15.75" customHeight="1" s="13"/>
+    <row r="702" ht="15.75" customHeight="1" s="13"/>
+    <row r="703" ht="15.75" customHeight="1" s="13"/>
+    <row r="704" ht="15.75" customHeight="1" s="13"/>
+    <row r="705" ht="15.75" customHeight="1" s="13"/>
+    <row r="706" ht="15.75" customHeight="1" s="13"/>
+    <row r="707" ht="15.75" customHeight="1" s="13"/>
+    <row r="708" ht="15.75" customHeight="1" s="13"/>
+    <row r="709" ht="15.75" customHeight="1" s="13"/>
+    <row r="710" ht="15.75" customHeight="1" s="13"/>
+    <row r="711" ht="15.75" customHeight="1" s="13"/>
+    <row r="712" ht="15.75" customHeight="1" s="13"/>
+    <row r="713" ht="15.75" customHeight="1" s="13"/>
+    <row r="714" ht="15.75" customHeight="1" s="13"/>
+    <row r="715" ht="15.75" customHeight="1" s="13"/>
+    <row r="716" ht="15.75" customHeight="1" s="13"/>
+    <row r="717" ht="15.75" customHeight="1" s="13"/>
+    <row r="718" ht="15.75" customHeight="1" s="13"/>
+    <row r="719" ht="15.75" customHeight="1" s="13"/>
+    <row r="720" ht="15.75" customHeight="1" s="13"/>
+    <row r="721" ht="15.75" customHeight="1" s="13"/>
+    <row r="722" ht="15.75" customHeight="1" s="13"/>
+    <row r="723" ht="15.75" customHeight="1" s="13"/>
+    <row r="724" ht="15.75" customHeight="1" s="13"/>
+    <row r="725" ht="15.75" customHeight="1" s="13"/>
+    <row r="726" ht="15.75" customHeight="1" s="13"/>
+    <row r="727" ht="15.75" customHeight="1" s="13"/>
+    <row r="728" ht="15.75" customHeight="1" s="13"/>
+    <row r="729" ht="15.75" customHeight="1" s="13"/>
+    <row r="730" ht="15.75" customHeight="1" s="13"/>
+    <row r="731" ht="15.75" customHeight="1" s="13"/>
+    <row r="732" ht="15.75" customHeight="1" s="13"/>
+    <row r="733" ht="15.75" customHeight="1" s="13"/>
+    <row r="734" ht="15.75" customHeight="1" s="13"/>
+    <row r="735" ht="15.75" customHeight="1" s="13"/>
+    <row r="736" ht="15.75" customHeight="1" s="13"/>
+    <row r="737" ht="15.75" customHeight="1" s="13"/>
+    <row r="738" ht="15.75" customHeight="1" s="13"/>
+    <row r="739" ht="15.75" customHeight="1" s="13"/>
+    <row r="740" ht="15.75" customHeight="1" s="13"/>
+    <row r="741" ht="15.75" customHeight="1" s="13"/>
+    <row r="742" ht="15.75" customHeight="1" s="13"/>
+    <row r="743" ht="15.75" customHeight="1" s="13"/>
+    <row r="744" ht="15.75" customHeight="1" s="13"/>
+    <row r="745" ht="15.75" customHeight="1" s="13"/>
+    <row r="746" ht="15.75" customHeight="1" s="13"/>
+    <row r="747" ht="15.75" customHeight="1" s="13"/>
+    <row r="748" ht="15.75" customHeight="1" s="13"/>
+    <row r="749" ht="15.75" customHeight="1" s="13"/>
+    <row r="750" ht="15.75" customHeight="1" s="13"/>
+    <row r="751" ht="15.75" customHeight="1" s="13"/>
+    <row r="752" ht="15.75" customHeight="1" s="13"/>
+    <row r="753" ht="15.75" customHeight="1" s="13"/>
+    <row r="754" ht="15.75" customHeight="1" s="13"/>
+    <row r="755" ht="15.75" customHeight="1" s="13"/>
+    <row r="756" ht="15.75" customHeight="1" s="13"/>
+    <row r="757" ht="15.75" customHeight="1" s="13"/>
+    <row r="758" ht="15.75" customHeight="1" s="13"/>
+    <row r="759" ht="15.75" customHeight="1" s="13"/>
+    <row r="760" ht="15.75" customHeight="1" s="13"/>
+    <row r="761" ht="15.75" customHeight="1" s="13"/>
+    <row r="762" ht="15.75" customHeight="1" s="13"/>
+    <row r="763" ht="15.75" customHeight="1" s="13"/>
+    <row r="764" ht="15.75" customHeight="1" s="13"/>
+    <row r="765" ht="15.75" customHeight="1" s="13"/>
+    <row r="766" ht="15.75" customHeight="1" s="13"/>
+    <row r="767" ht="15.75" customHeight="1" s="13"/>
+    <row r="768" ht="15.75" customHeight="1" s="13"/>
+    <row r="769" ht="15.75" customHeight="1" s="13"/>
+    <row r="770" ht="15.75" customHeight="1" s="13"/>
+    <row r="771" ht="15.75" customHeight="1" s="13"/>
+    <row r="772" ht="15.75" customHeight="1" s="13"/>
+    <row r="773" ht="15.75" customHeight="1" s="13"/>
+    <row r="774" ht="15.75" customHeight="1" s="13"/>
+    <row r="775" ht="15.75" customHeight="1" s="13"/>
+    <row r="776" ht="15.75" customHeight="1" s="13"/>
+    <row r="777" ht="15.75" customHeight="1" s="13"/>
+    <row r="778" ht="15.75" customHeight="1" s="13"/>
+    <row r="779" ht="15.75" customHeight="1" s="13"/>
+    <row r="780" ht="15.75" customHeight="1" s="13"/>
+    <row r="781" ht="15.75" customHeight="1" s="13"/>
+    <row r="782" ht="15.75" customHeight="1" s="13"/>
+    <row r="783" ht="15.75" customHeight="1" s="13"/>
+    <row r="784" ht="15.75" customHeight="1" s="13"/>
+    <row r="785" ht="15.75" customHeight="1" s="13"/>
+    <row r="786" ht="15.75" customHeight="1" s="13"/>
+    <row r="787" ht="15.75" customHeight="1" s="13"/>
+    <row r="788" ht="15.75" customHeight="1" s="13"/>
+    <row r="789" ht="15.75" customHeight="1" s="13"/>
+    <row r="790" ht="15.75" customHeight="1" s="13"/>
+    <row r="791" ht="15.75" customHeight="1" s="13"/>
+    <row r="792" ht="15.75" customHeight="1" s="13"/>
+    <row r="793" ht="15.75" customHeight="1" s="13"/>
+    <row r="794" ht="15.75" customHeight="1" s="13"/>
+    <row r="795" ht="15.75" customHeight="1" s="13"/>
+    <row r="796" ht="15.75" customHeight="1" s="13"/>
+    <row r="797" ht="15.75" customHeight="1" s="13"/>
+    <row r="798" ht="15.75" customHeight="1" s="13"/>
+    <row r="799" ht="15.75" customHeight="1" s="13"/>
+    <row r="800" ht="15.75" customHeight="1" s="13"/>
+    <row r="801" ht="15.75" customHeight="1" s="13"/>
+    <row r="802" ht="15.75" customHeight="1" s="13"/>
+    <row r="803" ht="15.75" customHeight="1" s="13"/>
+    <row r="804" ht="15.75" customHeight="1" s="13"/>
+    <row r="805" ht="15.75" customHeight="1" s="13"/>
+    <row r="806" ht="15.75" customHeight="1" s="13"/>
+    <row r="807" ht="15.75" customHeight="1" s="13"/>
+    <row r="808" ht="15.75" customHeight="1" s="13"/>
+    <row r="809" ht="15.75" customHeight="1" s="13"/>
+    <row r="810" ht="15.75" customHeight="1" s="13"/>
+    <row r="811" ht="15.75" customHeight="1" s="13"/>
+    <row r="812" ht="15.75" customHeight="1" s="13"/>
+    <row r="813" ht="15.75" customHeight="1" s="13"/>
+    <row r="814" ht="15.75" customHeight="1" s="13"/>
+    <row r="815" ht="15.75" customHeight="1" s="13"/>
+    <row r="816" ht="15.75" customHeight="1" s="13"/>
+    <row r="817" ht="15.75" customHeight="1" s="13"/>
+    <row r="818" ht="15.75" customHeight="1" s="13"/>
+    <row r="819" ht="15.75" customHeight="1" s="13"/>
+    <row r="820" ht="15.75" customHeight="1" s="13"/>
+    <row r="821" ht="15.75" customHeight="1" s="13"/>
+    <row r="822" ht="15.75" customHeight="1" s="13"/>
+    <row r="823" ht="15.75" customHeight="1" s="13"/>
+    <row r="824" ht="15.75" customHeight="1" s="13"/>
+    <row r="825" ht="15.75" customHeight="1" s="13"/>
+    <row r="826" ht="15.75" customHeight="1" s="13"/>
+    <row r="827" ht="15.75" customHeight="1" s="13"/>
+    <row r="828" ht="15.75" customHeight="1" s="13"/>
+    <row r="829" ht="15.75" customHeight="1" s="13"/>
+    <row r="830" ht="15.75" customHeight="1" s="13"/>
+    <row r="831" ht="15.75" customHeight="1" s="13"/>
+    <row r="832" ht="15.75" customHeight="1" s="13"/>
+    <row r="833" ht="15.75" customHeight="1" s="13"/>
+    <row r="834" ht="15.75" customHeight="1" s="13"/>
+    <row r="835" ht="15.75" customHeight="1" s="13"/>
+    <row r="836" ht="15.75" customHeight="1" s="13"/>
+    <row r="837" ht="15.75" customHeight="1" s="13"/>
+    <row r="838" ht="15.75" customHeight="1" s="13"/>
+    <row r="839" ht="15.75" customHeight="1" s="13"/>
+    <row r="840" ht="15.75" customHeight="1" s="13"/>
+    <row r="841" ht="15.75" customHeight="1" s="13"/>
+    <row r="842" ht="15.75" customHeight="1" s="13"/>
+    <row r="843" ht="15.75" customHeight="1" s="13"/>
+    <row r="844" ht="15.75" customHeight="1" s="13"/>
+    <row r="845" ht="15.75" customHeight="1" s="13"/>
+    <row r="846" ht="15.75" customHeight="1" s="13"/>
+    <row r="847" ht="15.75" customHeight="1" s="13"/>
+    <row r="848" ht="15.75" customHeight="1" s="13"/>
+    <row r="849" ht="15.75" customHeight="1" s="13"/>
+    <row r="850" ht="15.75" customHeight="1" s="13"/>
+    <row r="851" ht="15.75" customHeight="1" s="13"/>
+    <row r="852" ht="15.75" customHeight="1" s="13"/>
+    <row r="853" ht="15.75" customHeight="1" s="13"/>
+    <row r="854" ht="15.75" customHeight="1" s="13"/>
+    <row r="855" ht="15.75" customHeight="1" s="13"/>
+    <row r="856" ht="15.75" customHeight="1" s="13"/>
+    <row r="857" ht="15.75" customHeight="1" s="13"/>
+    <row r="858" ht="15.75" customHeight="1" s="13"/>
+    <row r="859" ht="15.75" customHeight="1" s="13"/>
+    <row r="860" ht="15.75" customHeight="1" s="13"/>
+    <row r="861" ht="15.75" customHeight="1" s="13"/>
+    <row r="862" ht="15.75" customHeight="1" s="13"/>
+    <row r="863" ht="15.75" customHeight="1" s="13"/>
+    <row r="864" ht="15.75" customHeight="1" s="13"/>
+    <row r="865" ht="15.75" customHeight="1" s="13"/>
+    <row r="866" ht="15.75" customHeight="1" s="13"/>
+    <row r="867" ht="15.75" customHeight="1" s="13"/>
+    <row r="868" ht="15.75" customHeight="1" s="13"/>
+    <row r="869" ht="15.75" customHeight="1" s="13"/>
+    <row r="870" ht="15.75" customHeight="1" s="13"/>
+    <row r="871" ht="15.75" customHeight="1" s="13"/>
+    <row r="872" ht="15.75" customHeight="1" s="13"/>
+    <row r="873" ht="15.75" customHeight="1" s="13"/>
+    <row r="874" ht="15.75" customHeight="1" s="13"/>
+    <row r="875" ht="15.75" customHeight="1" s="13"/>
+    <row r="876" ht="15.75" customHeight="1" s="13"/>
+    <row r="877" ht="15.75" customHeight="1" s="13"/>
+    <row r="878" ht="15.75" customHeight="1" s="13"/>
+    <row r="879" ht="15.75" customHeight="1" s="13"/>
+    <row r="880" ht="15.75" customHeight="1" s="13"/>
+    <row r="881" ht="15.75" customHeight="1" s="13"/>
+    <row r="882" ht="15.75" customHeight="1" s="13"/>
+    <row r="883" ht="15.75" customHeight="1" s="13"/>
+    <row r="884" ht="15.75" customHeight="1" s="13"/>
+    <row r="885" ht="15.75" customHeight="1" s="13"/>
+    <row r="886" ht="15.75" customHeight="1" s="13"/>
+    <row r="887" ht="15.75" customHeight="1" s="13"/>
+    <row r="888" ht="15.75" customHeight="1" s="13"/>
+    <row r="889" ht="15.75" customHeight="1" s="13"/>
+    <row r="890" ht="15.75" customHeight="1" s="13"/>
+    <row r="891" ht="15.75" customHeight="1" s="13"/>
+    <row r="892" ht="15.75" customHeight="1" s="13"/>
+    <row r="893" ht="15.75" customHeight="1" s="13"/>
+    <row r="894" ht="15.75" customHeight="1" s="13"/>
+    <row r="895" ht="15.75" customHeight="1" s="13"/>
+    <row r="896" ht="15.75" customHeight="1" s="13"/>
+    <row r="897" ht="15.75" customHeight="1" s="13"/>
+    <row r="898" ht="15.75" customHeight="1" s="13"/>
+    <row r="899" ht="15.75" customHeight="1" s="13"/>
+    <row r="900" ht="15.75" customHeight="1" s="13"/>
+    <row r="901" ht="15.75" customHeight="1" s="13"/>
+    <row r="902" ht="15.75" customHeight="1" s="13"/>
+    <row r="903" ht="15.75" customHeight="1" s="13"/>
+    <row r="904" ht="15.75" customHeight="1" s="13"/>
+    <row r="905" ht="15.75" customHeight="1" s="13"/>
+    <row r="906" ht="15.75" customHeight="1" s="13"/>
+    <row r="907" ht="15.75" customHeight="1" s="13"/>
+    <row r="908" ht="15.75" customHeight="1" s="13"/>
+    <row r="909" ht="15.75" customHeight="1" s="13"/>
+    <row r="910" ht="15.75" customHeight="1" s="13"/>
+    <row r="911" ht="15.75" customHeight="1" s="13"/>
+    <row r="912" ht="15.75" customHeight="1" s="13"/>
+    <row r="913" ht="15.75" customHeight="1" s="13"/>
+    <row r="914" ht="15.75" customHeight="1" s="13"/>
+    <row r="915" ht="15.75" customHeight="1" s="13"/>
+    <row r="916" ht="15.75" customHeight="1" s="13"/>
+    <row r="917" ht="15.75" customHeight="1" s="13"/>
+    <row r="918" ht="15.75" customHeight="1" s="13"/>
+    <row r="919" ht="15.75" customHeight="1" s="13"/>
+    <row r="920" ht="15.75" customHeight="1" s="13"/>
+    <row r="921" ht="15.75" customHeight="1" s="13"/>
+    <row r="922" ht="15.75" customHeight="1" s="13"/>
+    <row r="923" ht="15.75" customHeight="1" s="13"/>
+    <row r="924" ht="15.75" customHeight="1" s="13"/>
+    <row r="925" ht="15.75" customHeight="1" s="13"/>
+    <row r="926" ht="15.75" customHeight="1" s="13"/>
+    <row r="927" ht="15.75" customHeight="1" s="13"/>
+    <row r="928" ht="15.75" customHeight="1" s="13"/>
+    <row r="929" ht="15.75" customHeight="1" s="13"/>
+    <row r="930" ht="15.75" customHeight="1" s="13"/>
+    <row r="931" ht="15.75" customHeight="1" s="13"/>
+    <row r="932" ht="15.75" customHeight="1" s="13"/>
+    <row r="933" ht="15.75" customHeight="1" s="13"/>
+    <row r="934" ht="15.75" customHeight="1" s="13"/>
+    <row r="935" ht="15.75" customHeight="1" s="13"/>
+    <row r="936" ht="15.75" customHeight="1" s="13"/>
+    <row r="937" ht="15.75" customHeight="1" s="13"/>
+    <row r="938" ht="15.75" customHeight="1" s="13"/>
+    <row r="939" ht="15.75" customHeight="1" s="13"/>
+    <row r="940" ht="15.75" customHeight="1" s="13"/>
+    <row r="941" ht="15.75" customHeight="1" s="13"/>
+    <row r="942" ht="15.75" customHeight="1" s="13"/>
+    <row r="943" ht="15.75" customHeight="1" s="13"/>
+    <row r="944" ht="15.75" customHeight="1" s="13"/>
+    <row r="945" ht="15.75" customHeight="1" s="13"/>
+    <row r="946" ht="15.75" customHeight="1" s="13"/>
+    <row r="947" ht="15.75" customHeight="1" s="13"/>
+    <row r="948" ht="15.75" customHeight="1" s="13"/>
+    <row r="949" ht="15.75" customHeight="1" s="13"/>
+    <row r="950" ht="15.75" customHeight="1" s="13"/>
+    <row r="951" ht="15.75" customHeight="1" s="13"/>
+    <row r="952" ht="15.75" customHeight="1" s="13"/>
+    <row r="953" ht="15.75" customHeight="1" s="13"/>
+    <row r="954" ht="15.75" customHeight="1" s="13"/>
+    <row r="955" ht="15.75" customHeight="1" s="13"/>
+    <row r="956" ht="15.75" customHeight="1" s="13"/>
+    <row r="957" ht="15.75" customHeight="1" s="13"/>
+    <row r="958" ht="15.75" customHeight="1" s="13"/>
+    <row r="959" ht="15.75" customHeight="1" s="13"/>
+    <row r="960" ht="15.75" customHeight="1" s="13"/>
+    <row r="961" ht="15.75" customHeight="1" s="13"/>
+    <row r="962" ht="15.75" customHeight="1" s="13"/>
+    <row r="963" ht="15.75" customHeight="1" s="13"/>
+    <row r="964" ht="15.75" customHeight="1" s="13"/>
+    <row r="965" ht="15.75" customHeight="1" s="13"/>
+    <row r="966" ht="15.75" customHeight="1" s="13"/>
+    <row r="967" ht="15.75" customHeight="1" s="13"/>
+    <row r="968" ht="15.75" customHeight="1" s="13"/>
+    <row r="969" ht="15.75" customHeight="1" s="13"/>
+    <row r="970" ht="15.75" customHeight="1" s="13"/>
+    <row r="971" ht="15.75" customHeight="1" s="13"/>
+    <row r="972" ht="15.75" customHeight="1" s="13"/>
+    <row r="973" ht="15.75" customHeight="1" s="13"/>
+    <row r="974" ht="15.75" customHeight="1" s="13"/>
+    <row r="975" ht="15.75" customHeight="1" s="13"/>
+    <row r="976" ht="15.75" customHeight="1" s="13"/>
+    <row r="977" ht="15.75" customHeight="1" s="13"/>
+    <row r="978" ht="15.75" customHeight="1" s="13"/>
+    <row r="979" ht="15.75" customHeight="1" s="13"/>
+    <row r="980" ht="15.75" customHeight="1" s="13"/>
+    <row r="981" ht="15.75" customHeight="1" s="13"/>
+    <row r="982" ht="15.75" customHeight="1" s="13"/>
+    <row r="983" ht="15.75" customHeight="1" s="13"/>
+    <row r="984" ht="15.75" customHeight="1" s="13"/>
+    <row r="985" ht="15.75" customHeight="1" s="13"/>
+    <row r="986" ht="15.75" customHeight="1" s="13"/>
+    <row r="987" ht="15.75" customHeight="1" s="13"/>
+    <row r="988" ht="15.75" customHeight="1" s="13"/>
+    <row r="989" ht="15.75" customHeight="1" s="13"/>
+    <row r="990" ht="15.75" customHeight="1" s="13"/>
+    <row r="991" ht="15.75" customHeight="1" s="13"/>
+    <row r="992" ht="15.75" customHeight="1" s="13"/>
+    <row r="993" ht="15.75" customHeight="1" s="13"/>
+    <row r="994" ht="15.75" customHeight="1" s="13"/>
+    <row r="995" ht="15.75" customHeight="1" s="13"/>
+    <row r="996" ht="15.75" customHeight="1" s="13"/>
+    <row r="997" ht="15.75" customHeight="1" s="13"/>
+    <row r="998" ht="15.75" customHeight="1" s="13"/>
+    <row r="999" ht="15.75" customHeight="1" s="13"/>
+    <row r="1000" ht="15.75" customHeight="1" s="13"/>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -788,142 +1644,1124 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="41.83203125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="36.63" customWidth="1" style="13" min="1" max="1"/>
+    <col width="14.25" customWidth="1" style="13" min="2" max="2"/>
+    <col width="13.38" customWidth="1" style="13" min="3" max="3"/>
+    <col width="9.880000000000001" customWidth="1" style="13" min="4" max="4"/>
+    <col width="7.75" customWidth="1" style="13" min="5" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>load factor</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>urban residential</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>rural residential</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="12" t="inlineStr">
         <is>
           <t>commercial</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>heating</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="12" t="n">
         <v>2.01923</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="12">
         <f>B2</f>
         <v/>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="12" t="n">
         <v>1.06257</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>cooling &amp; ventilation</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>envelope</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>lighting</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="12" t="n">
         <v>1.80236</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="12">
         <f>B5</f>
         <v/>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="12" t="n">
         <v>1.32205</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>appliances</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="12" t="n">
         <v>2.15025</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="12">
         <f>B6</f>
         <v/>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="12" t="n">
         <v>1.51844</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="12" t="n">
         <v>1.91865</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="12">
         <f>B7</f>
         <v/>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="12" t="n">
         <v>1.32205</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1" s="13"/>
+    <row r="22" ht="15.75" customHeight="1" s="13"/>
+    <row r="23" ht="15.75" customHeight="1" s="13"/>
+    <row r="24" ht="15.75" customHeight="1" s="13"/>
+    <row r="25" ht="15.75" customHeight="1" s="13"/>
+    <row r="26" ht="15.75" customHeight="1" s="13"/>
+    <row r="27" ht="15.75" customHeight="1" s="13"/>
+    <row r="28" ht="15.75" customHeight="1" s="13"/>
+    <row r="29" ht="15.75" customHeight="1" s="13"/>
+    <row r="30" ht="15.75" customHeight="1" s="13"/>
+    <row r="31" ht="15.75" customHeight="1" s="13"/>
+    <row r="32" ht="15.75" customHeight="1" s="13"/>
+    <row r="33" ht="15.75" customHeight="1" s="13"/>
+    <row r="34" ht="15.75" customHeight="1" s="13"/>
+    <row r="35" ht="15.75" customHeight="1" s="13"/>
+    <row r="36" ht="15.75" customHeight="1" s="13"/>
+    <row r="37" ht="15.75" customHeight="1" s="13"/>
+    <row r="38" ht="15.75" customHeight="1" s="13"/>
+    <row r="39" ht="15.75" customHeight="1" s="13"/>
+    <row r="40" ht="15.75" customHeight="1" s="13"/>
+    <row r="41" ht="15.75" customHeight="1" s="13"/>
+    <row r="42" ht="15.75" customHeight="1" s="13"/>
+    <row r="43" ht="15.75" customHeight="1" s="13"/>
+    <row r="44" ht="15.75" customHeight="1" s="13"/>
+    <row r="45" ht="15.75" customHeight="1" s="13"/>
+    <row r="46" ht="15.75" customHeight="1" s="13"/>
+    <row r="47" ht="15.75" customHeight="1" s="13"/>
+    <row r="48" ht="15.75" customHeight="1" s="13"/>
+    <row r="49" ht="15.75" customHeight="1" s="13"/>
+    <row r="50" ht="15.75" customHeight="1" s="13"/>
+    <row r="51" ht="15.75" customHeight="1" s="13"/>
+    <row r="52" ht="15.75" customHeight="1" s="13"/>
+    <row r="53" ht="15.75" customHeight="1" s="13"/>
+    <row r="54" ht="15.75" customHeight="1" s="13"/>
+    <row r="55" ht="15.75" customHeight="1" s="13"/>
+    <row r="56" ht="15.75" customHeight="1" s="13"/>
+    <row r="57" ht="15.75" customHeight="1" s="13"/>
+    <row r="58" ht="15.75" customHeight="1" s="13"/>
+    <row r="59" ht="15.75" customHeight="1" s="13"/>
+    <row r="60" ht="15.75" customHeight="1" s="13"/>
+    <row r="61" ht="15.75" customHeight="1" s="13"/>
+    <row r="62" ht="15.75" customHeight="1" s="13"/>
+    <row r="63" ht="15.75" customHeight="1" s="13"/>
+    <row r="64" ht="15.75" customHeight="1" s="13"/>
+    <row r="65" ht="15.75" customHeight="1" s="13"/>
+    <row r="66" ht="15.75" customHeight="1" s="13"/>
+    <row r="67" ht="15.75" customHeight="1" s="13"/>
+    <row r="68" ht="15.75" customHeight="1" s="13"/>
+    <row r="69" ht="15.75" customHeight="1" s="13"/>
+    <row r="70" ht="15.75" customHeight="1" s="13"/>
+    <row r="71" ht="15.75" customHeight="1" s="13"/>
+    <row r="72" ht="15.75" customHeight="1" s="13"/>
+    <row r="73" ht="15.75" customHeight="1" s="13"/>
+    <row r="74" ht="15.75" customHeight="1" s="13"/>
+    <row r="75" ht="15.75" customHeight="1" s="13"/>
+    <row r="76" ht="15.75" customHeight="1" s="13"/>
+    <row r="77" ht="15.75" customHeight="1" s="13"/>
+    <row r="78" ht="15.75" customHeight="1" s="13"/>
+    <row r="79" ht="15.75" customHeight="1" s="13"/>
+    <row r="80" ht="15.75" customHeight="1" s="13"/>
+    <row r="81" ht="15.75" customHeight="1" s="13"/>
+    <row r="82" ht="15.75" customHeight="1" s="13"/>
+    <row r="83" ht="15.75" customHeight="1" s="13"/>
+    <row r="84" ht="15.75" customHeight="1" s="13"/>
+    <row r="85" ht="15.75" customHeight="1" s="13"/>
+    <row r="86" ht="15.75" customHeight="1" s="13"/>
+    <row r="87" ht="15.75" customHeight="1" s="13"/>
+    <row r="88" ht="15.75" customHeight="1" s="13"/>
+    <row r="89" ht="15.75" customHeight="1" s="13"/>
+    <row r="90" ht="15.75" customHeight="1" s="13"/>
+    <row r="91" ht="15.75" customHeight="1" s="13"/>
+    <row r="92" ht="15.75" customHeight="1" s="13"/>
+    <row r="93" ht="15.75" customHeight="1" s="13"/>
+    <row r="94" ht="15.75" customHeight="1" s="13"/>
+    <row r="95" ht="15.75" customHeight="1" s="13"/>
+    <row r="96" ht="15.75" customHeight="1" s="13"/>
+    <row r="97" ht="15.75" customHeight="1" s="13"/>
+    <row r="98" ht="15.75" customHeight="1" s="13"/>
+    <row r="99" ht="15.75" customHeight="1" s="13"/>
+    <row r="100" ht="15.75" customHeight="1" s="13"/>
+    <row r="101" ht="15.75" customHeight="1" s="13"/>
+    <row r="102" ht="15.75" customHeight="1" s="13"/>
+    <row r="103" ht="15.75" customHeight="1" s="13"/>
+    <row r="104" ht="15.75" customHeight="1" s="13"/>
+    <row r="105" ht="15.75" customHeight="1" s="13"/>
+    <row r="106" ht="15.75" customHeight="1" s="13"/>
+    <row r="107" ht="15.75" customHeight="1" s="13"/>
+    <row r="108" ht="15.75" customHeight="1" s="13"/>
+    <row r="109" ht="15.75" customHeight="1" s="13"/>
+    <row r="110" ht="15.75" customHeight="1" s="13"/>
+    <row r="111" ht="15.75" customHeight="1" s="13"/>
+    <row r="112" ht="15.75" customHeight="1" s="13"/>
+    <row r="113" ht="15.75" customHeight="1" s="13"/>
+    <row r="114" ht="15.75" customHeight="1" s="13"/>
+    <row r="115" ht="15.75" customHeight="1" s="13"/>
+    <row r="116" ht="15.75" customHeight="1" s="13"/>
+    <row r="117" ht="15.75" customHeight="1" s="13"/>
+    <row r="118" ht="15.75" customHeight="1" s="13"/>
+    <row r="119" ht="15.75" customHeight="1" s="13"/>
+    <row r="120" ht="15.75" customHeight="1" s="13"/>
+    <row r="121" ht="15.75" customHeight="1" s="13"/>
+    <row r="122" ht="15.75" customHeight="1" s="13"/>
+    <row r="123" ht="15.75" customHeight="1" s="13"/>
+    <row r="124" ht="15.75" customHeight="1" s="13"/>
+    <row r="125" ht="15.75" customHeight="1" s="13"/>
+    <row r="126" ht="15.75" customHeight="1" s="13"/>
+    <row r="127" ht="15.75" customHeight="1" s="13"/>
+    <row r="128" ht="15.75" customHeight="1" s="13"/>
+    <row r="129" ht="15.75" customHeight="1" s="13"/>
+    <row r="130" ht="15.75" customHeight="1" s="13"/>
+    <row r="131" ht="15.75" customHeight="1" s="13"/>
+    <row r="132" ht="15.75" customHeight="1" s="13"/>
+    <row r="133" ht="15.75" customHeight="1" s="13"/>
+    <row r="134" ht="15.75" customHeight="1" s="13"/>
+    <row r="135" ht="15.75" customHeight="1" s="13"/>
+    <row r="136" ht="15.75" customHeight="1" s="13"/>
+    <row r="137" ht="15.75" customHeight="1" s="13"/>
+    <row r="138" ht="15.75" customHeight="1" s="13"/>
+    <row r="139" ht="15.75" customHeight="1" s="13"/>
+    <row r="140" ht="15.75" customHeight="1" s="13"/>
+    <row r="141" ht="15.75" customHeight="1" s="13"/>
+    <row r="142" ht="15.75" customHeight="1" s="13"/>
+    <row r="143" ht="15.75" customHeight="1" s="13"/>
+    <row r="144" ht="15.75" customHeight="1" s="13"/>
+    <row r="145" ht="15.75" customHeight="1" s="13"/>
+    <row r="146" ht="15.75" customHeight="1" s="13"/>
+    <row r="147" ht="15.75" customHeight="1" s="13"/>
+    <row r="148" ht="15.75" customHeight="1" s="13"/>
+    <row r="149" ht="15.75" customHeight="1" s="13"/>
+    <row r="150" ht="15.75" customHeight="1" s="13"/>
+    <row r="151" ht="15.75" customHeight="1" s="13"/>
+    <row r="152" ht="15.75" customHeight="1" s="13"/>
+    <row r="153" ht="15.75" customHeight="1" s="13"/>
+    <row r="154" ht="15.75" customHeight="1" s="13"/>
+    <row r="155" ht="15.75" customHeight="1" s="13"/>
+    <row r="156" ht="15.75" customHeight="1" s="13"/>
+    <row r="157" ht="15.75" customHeight="1" s="13"/>
+    <row r="158" ht="15.75" customHeight="1" s="13"/>
+    <row r="159" ht="15.75" customHeight="1" s="13"/>
+    <row r="160" ht="15.75" customHeight="1" s="13"/>
+    <row r="161" ht="15.75" customHeight="1" s="13"/>
+    <row r="162" ht="15.75" customHeight="1" s="13"/>
+    <row r="163" ht="15.75" customHeight="1" s="13"/>
+    <row r="164" ht="15.75" customHeight="1" s="13"/>
+    <row r="165" ht="15.75" customHeight="1" s="13"/>
+    <row r="166" ht="15.75" customHeight="1" s="13"/>
+    <row r="167" ht="15.75" customHeight="1" s="13"/>
+    <row r="168" ht="15.75" customHeight="1" s="13"/>
+    <row r="169" ht="15.75" customHeight="1" s="13"/>
+    <row r="170" ht="15.75" customHeight="1" s="13"/>
+    <row r="171" ht="15.75" customHeight="1" s="13"/>
+    <row r="172" ht="15.75" customHeight="1" s="13"/>
+    <row r="173" ht="15.75" customHeight="1" s="13"/>
+    <row r="174" ht="15.75" customHeight="1" s="13"/>
+    <row r="175" ht="15.75" customHeight="1" s="13"/>
+    <row r="176" ht="15.75" customHeight="1" s="13"/>
+    <row r="177" ht="15.75" customHeight="1" s="13"/>
+    <row r="178" ht="15.75" customHeight="1" s="13"/>
+    <row r="179" ht="15.75" customHeight="1" s="13"/>
+    <row r="180" ht="15.75" customHeight="1" s="13"/>
+    <row r="181" ht="15.75" customHeight="1" s="13"/>
+    <row r="182" ht="15.75" customHeight="1" s="13"/>
+    <row r="183" ht="15.75" customHeight="1" s="13"/>
+    <row r="184" ht="15.75" customHeight="1" s="13"/>
+    <row r="185" ht="15.75" customHeight="1" s="13"/>
+    <row r="186" ht="15.75" customHeight="1" s="13"/>
+    <row r="187" ht="15.75" customHeight="1" s="13"/>
+    <row r="188" ht="15.75" customHeight="1" s="13"/>
+    <row r="189" ht="15.75" customHeight="1" s="13"/>
+    <row r="190" ht="15.75" customHeight="1" s="13"/>
+    <row r="191" ht="15.75" customHeight="1" s="13"/>
+    <row r="192" ht="15.75" customHeight="1" s="13"/>
+    <row r="193" ht="15.75" customHeight="1" s="13"/>
+    <row r="194" ht="15.75" customHeight="1" s="13"/>
+    <row r="195" ht="15.75" customHeight="1" s="13"/>
+    <row r="196" ht="15.75" customHeight="1" s="13"/>
+    <row r="197" ht="15.75" customHeight="1" s="13"/>
+    <row r="198" ht="15.75" customHeight="1" s="13"/>
+    <row r="199" ht="15.75" customHeight="1" s="13"/>
+    <row r="200" ht="15.75" customHeight="1" s="13"/>
+    <row r="201" ht="15.75" customHeight="1" s="13"/>
+    <row r="202" ht="15.75" customHeight="1" s="13"/>
+    <row r="203" ht="15.75" customHeight="1" s="13"/>
+    <row r="204" ht="15.75" customHeight="1" s="13"/>
+    <row r="205" ht="15.75" customHeight="1" s="13"/>
+    <row r="206" ht="15.75" customHeight="1" s="13"/>
+    <row r="207" ht="15.75" customHeight="1" s="13"/>
+    <row r="208" ht="15.75" customHeight="1" s="13"/>
+    <row r="209" ht="15.75" customHeight="1" s="13"/>
+    <row r="210" ht="15.75" customHeight="1" s="13"/>
+    <row r="211" ht="15.75" customHeight="1" s="13"/>
+    <row r="212" ht="15.75" customHeight="1" s="13"/>
+    <row r="213" ht="15.75" customHeight="1" s="13"/>
+    <row r="214" ht="15.75" customHeight="1" s="13"/>
+    <row r="215" ht="15.75" customHeight="1" s="13"/>
+    <row r="216" ht="15.75" customHeight="1" s="13"/>
+    <row r="217" ht="15.75" customHeight="1" s="13"/>
+    <row r="218" ht="15.75" customHeight="1" s="13"/>
+    <row r="219" ht="15.75" customHeight="1" s="13"/>
+    <row r="220" ht="15.75" customHeight="1" s="13"/>
+    <row r="221" ht="15.75" customHeight="1" s="13"/>
+    <row r="222" ht="15.75" customHeight="1" s="13"/>
+    <row r="223" ht="15.75" customHeight="1" s="13"/>
+    <row r="224" ht="15.75" customHeight="1" s="13"/>
+    <row r="225" ht="15.75" customHeight="1" s="13"/>
+    <row r="226" ht="15.75" customHeight="1" s="13"/>
+    <row r="227" ht="15.75" customHeight="1" s="13"/>
+    <row r="228" ht="15.75" customHeight="1" s="13"/>
+    <row r="229" ht="15.75" customHeight="1" s="13"/>
+    <row r="230" ht="15.75" customHeight="1" s="13"/>
+    <row r="231" ht="15.75" customHeight="1" s="13"/>
+    <row r="232" ht="15.75" customHeight="1" s="13"/>
+    <row r="233" ht="15.75" customHeight="1" s="13"/>
+    <row r="234" ht="15.75" customHeight="1" s="13"/>
+    <row r="235" ht="15.75" customHeight="1" s="13"/>
+    <row r="236" ht="15.75" customHeight="1" s="13"/>
+    <row r="237" ht="15.75" customHeight="1" s="13"/>
+    <row r="238" ht="15.75" customHeight="1" s="13"/>
+    <row r="239" ht="15.75" customHeight="1" s="13"/>
+    <row r="240" ht="15.75" customHeight="1" s="13"/>
+    <row r="241" ht="15.75" customHeight="1" s="13"/>
+    <row r="242" ht="15.75" customHeight="1" s="13"/>
+    <row r="243" ht="15.75" customHeight="1" s="13"/>
+    <row r="244" ht="15.75" customHeight="1" s="13"/>
+    <row r="245" ht="15.75" customHeight="1" s="13"/>
+    <row r="246" ht="15.75" customHeight="1" s="13"/>
+    <row r="247" ht="15.75" customHeight="1" s="13"/>
+    <row r="248" ht="15.75" customHeight="1" s="13"/>
+    <row r="249" ht="15.75" customHeight="1" s="13"/>
+    <row r="250" ht="15.75" customHeight="1" s="13"/>
+    <row r="251" ht="15.75" customHeight="1" s="13"/>
+    <row r="252" ht="15.75" customHeight="1" s="13"/>
+    <row r="253" ht="15.75" customHeight="1" s="13"/>
+    <row r="254" ht="15.75" customHeight="1" s="13"/>
+    <row r="255" ht="15.75" customHeight="1" s="13"/>
+    <row r="256" ht="15.75" customHeight="1" s="13"/>
+    <row r="257" ht="15.75" customHeight="1" s="13"/>
+    <row r="258" ht="15.75" customHeight="1" s="13"/>
+    <row r="259" ht="15.75" customHeight="1" s="13"/>
+    <row r="260" ht="15.75" customHeight="1" s="13"/>
+    <row r="261" ht="15.75" customHeight="1" s="13"/>
+    <row r="262" ht="15.75" customHeight="1" s="13"/>
+    <row r="263" ht="15.75" customHeight="1" s="13"/>
+    <row r="264" ht="15.75" customHeight="1" s="13"/>
+    <row r="265" ht="15.75" customHeight="1" s="13"/>
+    <row r="266" ht="15.75" customHeight="1" s="13"/>
+    <row r="267" ht="15.75" customHeight="1" s="13"/>
+    <row r="268" ht="15.75" customHeight="1" s="13"/>
+    <row r="269" ht="15.75" customHeight="1" s="13"/>
+    <row r="270" ht="15.75" customHeight="1" s="13"/>
+    <row r="271" ht="15.75" customHeight="1" s="13"/>
+    <row r="272" ht="15.75" customHeight="1" s="13"/>
+    <row r="273" ht="15.75" customHeight="1" s="13"/>
+    <row r="274" ht="15.75" customHeight="1" s="13"/>
+    <row r="275" ht="15.75" customHeight="1" s="13"/>
+    <row r="276" ht="15.75" customHeight="1" s="13"/>
+    <row r="277" ht="15.75" customHeight="1" s="13"/>
+    <row r="278" ht="15.75" customHeight="1" s="13"/>
+    <row r="279" ht="15.75" customHeight="1" s="13"/>
+    <row r="280" ht="15.75" customHeight="1" s="13"/>
+    <row r="281" ht="15.75" customHeight="1" s="13"/>
+    <row r="282" ht="15.75" customHeight="1" s="13"/>
+    <row r="283" ht="15.75" customHeight="1" s="13"/>
+    <row r="284" ht="15.75" customHeight="1" s="13"/>
+    <row r="285" ht="15.75" customHeight="1" s="13"/>
+    <row r="286" ht="15.75" customHeight="1" s="13"/>
+    <row r="287" ht="15.75" customHeight="1" s="13"/>
+    <row r="288" ht="15.75" customHeight="1" s="13"/>
+    <row r="289" ht="15.75" customHeight="1" s="13"/>
+    <row r="290" ht="15.75" customHeight="1" s="13"/>
+    <row r="291" ht="15.75" customHeight="1" s="13"/>
+    <row r="292" ht="15.75" customHeight="1" s="13"/>
+    <row r="293" ht="15.75" customHeight="1" s="13"/>
+    <row r="294" ht="15.75" customHeight="1" s="13"/>
+    <row r="295" ht="15.75" customHeight="1" s="13"/>
+    <row r="296" ht="15.75" customHeight="1" s="13"/>
+    <row r="297" ht="15.75" customHeight="1" s="13"/>
+    <row r="298" ht="15.75" customHeight="1" s="13"/>
+    <row r="299" ht="15.75" customHeight="1" s="13"/>
+    <row r="300" ht="15.75" customHeight="1" s="13"/>
+    <row r="301" ht="15.75" customHeight="1" s="13"/>
+    <row r="302" ht="15.75" customHeight="1" s="13"/>
+    <row r="303" ht="15.75" customHeight="1" s="13"/>
+    <row r="304" ht="15.75" customHeight="1" s="13"/>
+    <row r="305" ht="15.75" customHeight="1" s="13"/>
+    <row r="306" ht="15.75" customHeight="1" s="13"/>
+    <row r="307" ht="15.75" customHeight="1" s="13"/>
+    <row r="308" ht="15.75" customHeight="1" s="13"/>
+    <row r="309" ht="15.75" customHeight="1" s="13"/>
+    <row r="310" ht="15.75" customHeight="1" s="13"/>
+    <row r="311" ht="15.75" customHeight="1" s="13"/>
+    <row r="312" ht="15.75" customHeight="1" s="13"/>
+    <row r="313" ht="15.75" customHeight="1" s="13"/>
+    <row r="314" ht="15.75" customHeight="1" s="13"/>
+    <row r="315" ht="15.75" customHeight="1" s="13"/>
+    <row r="316" ht="15.75" customHeight="1" s="13"/>
+    <row r="317" ht="15.75" customHeight="1" s="13"/>
+    <row r="318" ht="15.75" customHeight="1" s="13"/>
+    <row r="319" ht="15.75" customHeight="1" s="13"/>
+    <row r="320" ht="15.75" customHeight="1" s="13"/>
+    <row r="321" ht="15.75" customHeight="1" s="13"/>
+    <row r="322" ht="15.75" customHeight="1" s="13"/>
+    <row r="323" ht="15.75" customHeight="1" s="13"/>
+    <row r="324" ht="15.75" customHeight="1" s="13"/>
+    <row r="325" ht="15.75" customHeight="1" s="13"/>
+    <row r="326" ht="15.75" customHeight="1" s="13"/>
+    <row r="327" ht="15.75" customHeight="1" s="13"/>
+    <row r="328" ht="15.75" customHeight="1" s="13"/>
+    <row r="329" ht="15.75" customHeight="1" s="13"/>
+    <row r="330" ht="15.75" customHeight="1" s="13"/>
+    <row r="331" ht="15.75" customHeight="1" s="13"/>
+    <row r="332" ht="15.75" customHeight="1" s="13"/>
+    <row r="333" ht="15.75" customHeight="1" s="13"/>
+    <row r="334" ht="15.75" customHeight="1" s="13"/>
+    <row r="335" ht="15.75" customHeight="1" s="13"/>
+    <row r="336" ht="15.75" customHeight="1" s="13"/>
+    <row r="337" ht="15.75" customHeight="1" s="13"/>
+    <row r="338" ht="15.75" customHeight="1" s="13"/>
+    <row r="339" ht="15.75" customHeight="1" s="13"/>
+    <row r="340" ht="15.75" customHeight="1" s="13"/>
+    <row r="341" ht="15.75" customHeight="1" s="13"/>
+    <row r="342" ht="15.75" customHeight="1" s="13"/>
+    <row r="343" ht="15.75" customHeight="1" s="13"/>
+    <row r="344" ht="15.75" customHeight="1" s="13"/>
+    <row r="345" ht="15.75" customHeight="1" s="13"/>
+    <row r="346" ht="15.75" customHeight="1" s="13"/>
+    <row r="347" ht="15.75" customHeight="1" s="13"/>
+    <row r="348" ht="15.75" customHeight="1" s="13"/>
+    <row r="349" ht="15.75" customHeight="1" s="13"/>
+    <row r="350" ht="15.75" customHeight="1" s="13"/>
+    <row r="351" ht="15.75" customHeight="1" s="13"/>
+    <row r="352" ht="15.75" customHeight="1" s="13"/>
+    <row r="353" ht="15.75" customHeight="1" s="13"/>
+    <row r="354" ht="15.75" customHeight="1" s="13"/>
+    <row r="355" ht="15.75" customHeight="1" s="13"/>
+    <row r="356" ht="15.75" customHeight="1" s="13"/>
+    <row r="357" ht="15.75" customHeight="1" s="13"/>
+    <row r="358" ht="15.75" customHeight="1" s="13"/>
+    <row r="359" ht="15.75" customHeight="1" s="13"/>
+    <row r="360" ht="15.75" customHeight="1" s="13"/>
+    <row r="361" ht="15.75" customHeight="1" s="13"/>
+    <row r="362" ht="15.75" customHeight="1" s="13"/>
+    <row r="363" ht="15.75" customHeight="1" s="13"/>
+    <row r="364" ht="15.75" customHeight="1" s="13"/>
+    <row r="365" ht="15.75" customHeight="1" s="13"/>
+    <row r="366" ht="15.75" customHeight="1" s="13"/>
+    <row r="367" ht="15.75" customHeight="1" s="13"/>
+    <row r="368" ht="15.75" customHeight="1" s="13"/>
+    <row r="369" ht="15.75" customHeight="1" s="13"/>
+    <row r="370" ht="15.75" customHeight="1" s="13"/>
+    <row r="371" ht="15.75" customHeight="1" s="13"/>
+    <row r="372" ht="15.75" customHeight="1" s="13"/>
+    <row r="373" ht="15.75" customHeight="1" s="13"/>
+    <row r="374" ht="15.75" customHeight="1" s="13"/>
+    <row r="375" ht="15.75" customHeight="1" s="13"/>
+    <row r="376" ht="15.75" customHeight="1" s="13"/>
+    <row r="377" ht="15.75" customHeight="1" s="13"/>
+    <row r="378" ht="15.75" customHeight="1" s="13"/>
+    <row r="379" ht="15.75" customHeight="1" s="13"/>
+    <row r="380" ht="15.75" customHeight="1" s="13"/>
+    <row r="381" ht="15.75" customHeight="1" s="13"/>
+    <row r="382" ht="15.75" customHeight="1" s="13"/>
+    <row r="383" ht="15.75" customHeight="1" s="13"/>
+    <row r="384" ht="15.75" customHeight="1" s="13"/>
+    <row r="385" ht="15.75" customHeight="1" s="13"/>
+    <row r="386" ht="15.75" customHeight="1" s="13"/>
+    <row r="387" ht="15.75" customHeight="1" s="13"/>
+    <row r="388" ht="15.75" customHeight="1" s="13"/>
+    <row r="389" ht="15.75" customHeight="1" s="13"/>
+    <row r="390" ht="15.75" customHeight="1" s="13"/>
+    <row r="391" ht="15.75" customHeight="1" s="13"/>
+    <row r="392" ht="15.75" customHeight="1" s="13"/>
+    <row r="393" ht="15.75" customHeight="1" s="13"/>
+    <row r="394" ht="15.75" customHeight="1" s="13"/>
+    <row r="395" ht="15.75" customHeight="1" s="13"/>
+    <row r="396" ht="15.75" customHeight="1" s="13"/>
+    <row r="397" ht="15.75" customHeight="1" s="13"/>
+    <row r="398" ht="15.75" customHeight="1" s="13"/>
+    <row r="399" ht="15.75" customHeight="1" s="13"/>
+    <row r="400" ht="15.75" customHeight="1" s="13"/>
+    <row r="401" ht="15.75" customHeight="1" s="13"/>
+    <row r="402" ht="15.75" customHeight="1" s="13"/>
+    <row r="403" ht="15.75" customHeight="1" s="13"/>
+    <row r="404" ht="15.75" customHeight="1" s="13"/>
+    <row r="405" ht="15.75" customHeight="1" s="13"/>
+    <row r="406" ht="15.75" customHeight="1" s="13"/>
+    <row r="407" ht="15.75" customHeight="1" s="13"/>
+    <row r="408" ht="15.75" customHeight="1" s="13"/>
+    <row r="409" ht="15.75" customHeight="1" s="13"/>
+    <row r="410" ht="15.75" customHeight="1" s="13"/>
+    <row r="411" ht="15.75" customHeight="1" s="13"/>
+    <row r="412" ht="15.75" customHeight="1" s="13"/>
+    <row r="413" ht="15.75" customHeight="1" s="13"/>
+    <row r="414" ht="15.75" customHeight="1" s="13"/>
+    <row r="415" ht="15.75" customHeight="1" s="13"/>
+    <row r="416" ht="15.75" customHeight="1" s="13"/>
+    <row r="417" ht="15.75" customHeight="1" s="13"/>
+    <row r="418" ht="15.75" customHeight="1" s="13"/>
+    <row r="419" ht="15.75" customHeight="1" s="13"/>
+    <row r="420" ht="15.75" customHeight="1" s="13"/>
+    <row r="421" ht="15.75" customHeight="1" s="13"/>
+    <row r="422" ht="15.75" customHeight="1" s="13"/>
+    <row r="423" ht="15.75" customHeight="1" s="13"/>
+    <row r="424" ht="15.75" customHeight="1" s="13"/>
+    <row r="425" ht="15.75" customHeight="1" s="13"/>
+    <row r="426" ht="15.75" customHeight="1" s="13"/>
+    <row r="427" ht="15.75" customHeight="1" s="13"/>
+    <row r="428" ht="15.75" customHeight="1" s="13"/>
+    <row r="429" ht="15.75" customHeight="1" s="13"/>
+    <row r="430" ht="15.75" customHeight="1" s="13"/>
+    <row r="431" ht="15.75" customHeight="1" s="13"/>
+    <row r="432" ht="15.75" customHeight="1" s="13"/>
+    <row r="433" ht="15.75" customHeight="1" s="13"/>
+    <row r="434" ht="15.75" customHeight="1" s="13"/>
+    <row r="435" ht="15.75" customHeight="1" s="13"/>
+    <row r="436" ht="15.75" customHeight="1" s="13"/>
+    <row r="437" ht="15.75" customHeight="1" s="13"/>
+    <row r="438" ht="15.75" customHeight="1" s="13"/>
+    <row r="439" ht="15.75" customHeight="1" s="13"/>
+    <row r="440" ht="15.75" customHeight="1" s="13"/>
+    <row r="441" ht="15.75" customHeight="1" s="13"/>
+    <row r="442" ht="15.75" customHeight="1" s="13"/>
+    <row r="443" ht="15.75" customHeight="1" s="13"/>
+    <row r="444" ht="15.75" customHeight="1" s="13"/>
+    <row r="445" ht="15.75" customHeight="1" s="13"/>
+    <row r="446" ht="15.75" customHeight="1" s="13"/>
+    <row r="447" ht="15.75" customHeight="1" s="13"/>
+    <row r="448" ht="15.75" customHeight="1" s="13"/>
+    <row r="449" ht="15.75" customHeight="1" s="13"/>
+    <row r="450" ht="15.75" customHeight="1" s="13"/>
+    <row r="451" ht="15.75" customHeight="1" s="13"/>
+    <row r="452" ht="15.75" customHeight="1" s="13"/>
+    <row r="453" ht="15.75" customHeight="1" s="13"/>
+    <row r="454" ht="15.75" customHeight="1" s="13"/>
+    <row r="455" ht="15.75" customHeight="1" s="13"/>
+    <row r="456" ht="15.75" customHeight="1" s="13"/>
+    <row r="457" ht="15.75" customHeight="1" s="13"/>
+    <row r="458" ht="15.75" customHeight="1" s="13"/>
+    <row r="459" ht="15.75" customHeight="1" s="13"/>
+    <row r="460" ht="15.75" customHeight="1" s="13"/>
+    <row r="461" ht="15.75" customHeight="1" s="13"/>
+    <row r="462" ht="15.75" customHeight="1" s="13"/>
+    <row r="463" ht="15.75" customHeight="1" s="13"/>
+    <row r="464" ht="15.75" customHeight="1" s="13"/>
+    <row r="465" ht="15.75" customHeight="1" s="13"/>
+    <row r="466" ht="15.75" customHeight="1" s="13"/>
+    <row r="467" ht="15.75" customHeight="1" s="13"/>
+    <row r="468" ht="15.75" customHeight="1" s="13"/>
+    <row r="469" ht="15.75" customHeight="1" s="13"/>
+    <row r="470" ht="15.75" customHeight="1" s="13"/>
+    <row r="471" ht="15.75" customHeight="1" s="13"/>
+    <row r="472" ht="15.75" customHeight="1" s="13"/>
+    <row r="473" ht="15.75" customHeight="1" s="13"/>
+    <row r="474" ht="15.75" customHeight="1" s="13"/>
+    <row r="475" ht="15.75" customHeight="1" s="13"/>
+    <row r="476" ht="15.75" customHeight="1" s="13"/>
+    <row r="477" ht="15.75" customHeight="1" s="13"/>
+    <row r="478" ht="15.75" customHeight="1" s="13"/>
+    <row r="479" ht="15.75" customHeight="1" s="13"/>
+    <row r="480" ht="15.75" customHeight="1" s="13"/>
+    <row r="481" ht="15.75" customHeight="1" s="13"/>
+    <row r="482" ht="15.75" customHeight="1" s="13"/>
+    <row r="483" ht="15.75" customHeight="1" s="13"/>
+    <row r="484" ht="15.75" customHeight="1" s="13"/>
+    <row r="485" ht="15.75" customHeight="1" s="13"/>
+    <row r="486" ht="15.75" customHeight="1" s="13"/>
+    <row r="487" ht="15.75" customHeight="1" s="13"/>
+    <row r="488" ht="15.75" customHeight="1" s="13"/>
+    <row r="489" ht="15.75" customHeight="1" s="13"/>
+    <row r="490" ht="15.75" customHeight="1" s="13"/>
+    <row r="491" ht="15.75" customHeight="1" s="13"/>
+    <row r="492" ht="15.75" customHeight="1" s="13"/>
+    <row r="493" ht="15.75" customHeight="1" s="13"/>
+    <row r="494" ht="15.75" customHeight="1" s="13"/>
+    <row r="495" ht="15.75" customHeight="1" s="13"/>
+    <row r="496" ht="15.75" customHeight="1" s="13"/>
+    <row r="497" ht="15.75" customHeight="1" s="13"/>
+    <row r="498" ht="15.75" customHeight="1" s="13"/>
+    <row r="499" ht="15.75" customHeight="1" s="13"/>
+    <row r="500" ht="15.75" customHeight="1" s="13"/>
+    <row r="501" ht="15.75" customHeight="1" s="13"/>
+    <row r="502" ht="15.75" customHeight="1" s="13"/>
+    <row r="503" ht="15.75" customHeight="1" s="13"/>
+    <row r="504" ht="15.75" customHeight="1" s="13"/>
+    <row r="505" ht="15.75" customHeight="1" s="13"/>
+    <row r="506" ht="15.75" customHeight="1" s="13"/>
+    <row r="507" ht="15.75" customHeight="1" s="13"/>
+    <row r="508" ht="15.75" customHeight="1" s="13"/>
+    <row r="509" ht="15.75" customHeight="1" s="13"/>
+    <row r="510" ht="15.75" customHeight="1" s="13"/>
+    <row r="511" ht="15.75" customHeight="1" s="13"/>
+    <row r="512" ht="15.75" customHeight="1" s="13"/>
+    <row r="513" ht="15.75" customHeight="1" s="13"/>
+    <row r="514" ht="15.75" customHeight="1" s="13"/>
+    <row r="515" ht="15.75" customHeight="1" s="13"/>
+    <row r="516" ht="15.75" customHeight="1" s="13"/>
+    <row r="517" ht="15.75" customHeight="1" s="13"/>
+    <row r="518" ht="15.75" customHeight="1" s="13"/>
+    <row r="519" ht="15.75" customHeight="1" s="13"/>
+    <row r="520" ht="15.75" customHeight="1" s="13"/>
+    <row r="521" ht="15.75" customHeight="1" s="13"/>
+    <row r="522" ht="15.75" customHeight="1" s="13"/>
+    <row r="523" ht="15.75" customHeight="1" s="13"/>
+    <row r="524" ht="15.75" customHeight="1" s="13"/>
+    <row r="525" ht="15.75" customHeight="1" s="13"/>
+    <row r="526" ht="15.75" customHeight="1" s="13"/>
+    <row r="527" ht="15.75" customHeight="1" s="13"/>
+    <row r="528" ht="15.75" customHeight="1" s="13"/>
+    <row r="529" ht="15.75" customHeight="1" s="13"/>
+    <row r="530" ht="15.75" customHeight="1" s="13"/>
+    <row r="531" ht="15.75" customHeight="1" s="13"/>
+    <row r="532" ht="15.75" customHeight="1" s="13"/>
+    <row r="533" ht="15.75" customHeight="1" s="13"/>
+    <row r="534" ht="15.75" customHeight="1" s="13"/>
+    <row r="535" ht="15.75" customHeight="1" s="13"/>
+    <row r="536" ht="15.75" customHeight="1" s="13"/>
+    <row r="537" ht="15.75" customHeight="1" s="13"/>
+    <row r="538" ht="15.75" customHeight="1" s="13"/>
+    <row r="539" ht="15.75" customHeight="1" s="13"/>
+    <row r="540" ht="15.75" customHeight="1" s="13"/>
+    <row r="541" ht="15.75" customHeight="1" s="13"/>
+    <row r="542" ht="15.75" customHeight="1" s="13"/>
+    <row r="543" ht="15.75" customHeight="1" s="13"/>
+    <row r="544" ht="15.75" customHeight="1" s="13"/>
+    <row r="545" ht="15.75" customHeight="1" s="13"/>
+    <row r="546" ht="15.75" customHeight="1" s="13"/>
+    <row r="547" ht="15.75" customHeight="1" s="13"/>
+    <row r="548" ht="15.75" customHeight="1" s="13"/>
+    <row r="549" ht="15.75" customHeight="1" s="13"/>
+    <row r="550" ht="15.75" customHeight="1" s="13"/>
+    <row r="551" ht="15.75" customHeight="1" s="13"/>
+    <row r="552" ht="15.75" customHeight="1" s="13"/>
+    <row r="553" ht="15.75" customHeight="1" s="13"/>
+    <row r="554" ht="15.75" customHeight="1" s="13"/>
+    <row r="555" ht="15.75" customHeight="1" s="13"/>
+    <row r="556" ht="15.75" customHeight="1" s="13"/>
+    <row r="557" ht="15.75" customHeight="1" s="13"/>
+    <row r="558" ht="15.75" customHeight="1" s="13"/>
+    <row r="559" ht="15.75" customHeight="1" s="13"/>
+    <row r="560" ht="15.75" customHeight="1" s="13"/>
+    <row r="561" ht="15.75" customHeight="1" s="13"/>
+    <row r="562" ht="15.75" customHeight="1" s="13"/>
+    <row r="563" ht="15.75" customHeight="1" s="13"/>
+    <row r="564" ht="15.75" customHeight="1" s="13"/>
+    <row r="565" ht="15.75" customHeight="1" s="13"/>
+    <row r="566" ht="15.75" customHeight="1" s="13"/>
+    <row r="567" ht="15.75" customHeight="1" s="13"/>
+    <row r="568" ht="15.75" customHeight="1" s="13"/>
+    <row r="569" ht="15.75" customHeight="1" s="13"/>
+    <row r="570" ht="15.75" customHeight="1" s="13"/>
+    <row r="571" ht="15.75" customHeight="1" s="13"/>
+    <row r="572" ht="15.75" customHeight="1" s="13"/>
+    <row r="573" ht="15.75" customHeight="1" s="13"/>
+    <row r="574" ht="15.75" customHeight="1" s="13"/>
+    <row r="575" ht="15.75" customHeight="1" s="13"/>
+    <row r="576" ht="15.75" customHeight="1" s="13"/>
+    <row r="577" ht="15.75" customHeight="1" s="13"/>
+    <row r="578" ht="15.75" customHeight="1" s="13"/>
+    <row r="579" ht="15.75" customHeight="1" s="13"/>
+    <row r="580" ht="15.75" customHeight="1" s="13"/>
+    <row r="581" ht="15.75" customHeight="1" s="13"/>
+    <row r="582" ht="15.75" customHeight="1" s="13"/>
+    <row r="583" ht="15.75" customHeight="1" s="13"/>
+    <row r="584" ht="15.75" customHeight="1" s="13"/>
+    <row r="585" ht="15.75" customHeight="1" s="13"/>
+    <row r="586" ht="15.75" customHeight="1" s="13"/>
+    <row r="587" ht="15.75" customHeight="1" s="13"/>
+    <row r="588" ht="15.75" customHeight="1" s="13"/>
+    <row r="589" ht="15.75" customHeight="1" s="13"/>
+    <row r="590" ht="15.75" customHeight="1" s="13"/>
+    <row r="591" ht="15.75" customHeight="1" s="13"/>
+    <row r="592" ht="15.75" customHeight="1" s="13"/>
+    <row r="593" ht="15.75" customHeight="1" s="13"/>
+    <row r="594" ht="15.75" customHeight="1" s="13"/>
+    <row r="595" ht="15.75" customHeight="1" s="13"/>
+    <row r="596" ht="15.75" customHeight="1" s="13"/>
+    <row r="597" ht="15.75" customHeight="1" s="13"/>
+    <row r="598" ht="15.75" customHeight="1" s="13"/>
+    <row r="599" ht="15.75" customHeight="1" s="13"/>
+    <row r="600" ht="15.75" customHeight="1" s="13"/>
+    <row r="601" ht="15.75" customHeight="1" s="13"/>
+    <row r="602" ht="15.75" customHeight="1" s="13"/>
+    <row r="603" ht="15.75" customHeight="1" s="13"/>
+    <row r="604" ht="15.75" customHeight="1" s="13"/>
+    <row r="605" ht="15.75" customHeight="1" s="13"/>
+    <row r="606" ht="15.75" customHeight="1" s="13"/>
+    <row r="607" ht="15.75" customHeight="1" s="13"/>
+    <row r="608" ht="15.75" customHeight="1" s="13"/>
+    <row r="609" ht="15.75" customHeight="1" s="13"/>
+    <row r="610" ht="15.75" customHeight="1" s="13"/>
+    <row r="611" ht="15.75" customHeight="1" s="13"/>
+    <row r="612" ht="15.75" customHeight="1" s="13"/>
+    <row r="613" ht="15.75" customHeight="1" s="13"/>
+    <row r="614" ht="15.75" customHeight="1" s="13"/>
+    <row r="615" ht="15.75" customHeight="1" s="13"/>
+    <row r="616" ht="15.75" customHeight="1" s="13"/>
+    <row r="617" ht="15.75" customHeight="1" s="13"/>
+    <row r="618" ht="15.75" customHeight="1" s="13"/>
+    <row r="619" ht="15.75" customHeight="1" s="13"/>
+    <row r="620" ht="15.75" customHeight="1" s="13"/>
+    <row r="621" ht="15.75" customHeight="1" s="13"/>
+    <row r="622" ht="15.75" customHeight="1" s="13"/>
+    <row r="623" ht="15.75" customHeight="1" s="13"/>
+    <row r="624" ht="15.75" customHeight="1" s="13"/>
+    <row r="625" ht="15.75" customHeight="1" s="13"/>
+    <row r="626" ht="15.75" customHeight="1" s="13"/>
+    <row r="627" ht="15.75" customHeight="1" s="13"/>
+    <row r="628" ht="15.75" customHeight="1" s="13"/>
+    <row r="629" ht="15.75" customHeight="1" s="13"/>
+    <row r="630" ht="15.75" customHeight="1" s="13"/>
+    <row r="631" ht="15.75" customHeight="1" s="13"/>
+    <row r="632" ht="15.75" customHeight="1" s="13"/>
+    <row r="633" ht="15.75" customHeight="1" s="13"/>
+    <row r="634" ht="15.75" customHeight="1" s="13"/>
+    <row r="635" ht="15.75" customHeight="1" s="13"/>
+    <row r="636" ht="15.75" customHeight="1" s="13"/>
+    <row r="637" ht="15.75" customHeight="1" s="13"/>
+    <row r="638" ht="15.75" customHeight="1" s="13"/>
+    <row r="639" ht="15.75" customHeight="1" s="13"/>
+    <row r="640" ht="15.75" customHeight="1" s="13"/>
+    <row r="641" ht="15.75" customHeight="1" s="13"/>
+    <row r="642" ht="15.75" customHeight="1" s="13"/>
+    <row r="643" ht="15.75" customHeight="1" s="13"/>
+    <row r="644" ht="15.75" customHeight="1" s="13"/>
+    <row r="645" ht="15.75" customHeight="1" s="13"/>
+    <row r="646" ht="15.75" customHeight="1" s="13"/>
+    <row r="647" ht="15.75" customHeight="1" s="13"/>
+    <row r="648" ht="15.75" customHeight="1" s="13"/>
+    <row r="649" ht="15.75" customHeight="1" s="13"/>
+    <row r="650" ht="15.75" customHeight="1" s="13"/>
+    <row r="651" ht="15.75" customHeight="1" s="13"/>
+    <row r="652" ht="15.75" customHeight="1" s="13"/>
+    <row r="653" ht="15.75" customHeight="1" s="13"/>
+    <row r="654" ht="15.75" customHeight="1" s="13"/>
+    <row r="655" ht="15.75" customHeight="1" s="13"/>
+    <row r="656" ht="15.75" customHeight="1" s="13"/>
+    <row r="657" ht="15.75" customHeight="1" s="13"/>
+    <row r="658" ht="15.75" customHeight="1" s="13"/>
+    <row r="659" ht="15.75" customHeight="1" s="13"/>
+    <row r="660" ht="15.75" customHeight="1" s="13"/>
+    <row r="661" ht="15.75" customHeight="1" s="13"/>
+    <row r="662" ht="15.75" customHeight="1" s="13"/>
+    <row r="663" ht="15.75" customHeight="1" s="13"/>
+    <row r="664" ht="15.75" customHeight="1" s="13"/>
+    <row r="665" ht="15.75" customHeight="1" s="13"/>
+    <row r="666" ht="15.75" customHeight="1" s="13"/>
+    <row r="667" ht="15.75" customHeight="1" s="13"/>
+    <row r="668" ht="15.75" customHeight="1" s="13"/>
+    <row r="669" ht="15.75" customHeight="1" s="13"/>
+    <row r="670" ht="15.75" customHeight="1" s="13"/>
+    <row r="671" ht="15.75" customHeight="1" s="13"/>
+    <row r="672" ht="15.75" customHeight="1" s="13"/>
+    <row r="673" ht="15.75" customHeight="1" s="13"/>
+    <row r="674" ht="15.75" customHeight="1" s="13"/>
+    <row r="675" ht="15.75" customHeight="1" s="13"/>
+    <row r="676" ht="15.75" customHeight="1" s="13"/>
+    <row r="677" ht="15.75" customHeight="1" s="13"/>
+    <row r="678" ht="15.75" customHeight="1" s="13"/>
+    <row r="679" ht="15.75" customHeight="1" s="13"/>
+    <row r="680" ht="15.75" customHeight="1" s="13"/>
+    <row r="681" ht="15.75" customHeight="1" s="13"/>
+    <row r="682" ht="15.75" customHeight="1" s="13"/>
+    <row r="683" ht="15.75" customHeight="1" s="13"/>
+    <row r="684" ht="15.75" customHeight="1" s="13"/>
+    <row r="685" ht="15.75" customHeight="1" s="13"/>
+    <row r="686" ht="15.75" customHeight="1" s="13"/>
+    <row r="687" ht="15.75" customHeight="1" s="13"/>
+    <row r="688" ht="15.75" customHeight="1" s="13"/>
+    <row r="689" ht="15.75" customHeight="1" s="13"/>
+    <row r="690" ht="15.75" customHeight="1" s="13"/>
+    <row r="691" ht="15.75" customHeight="1" s="13"/>
+    <row r="692" ht="15.75" customHeight="1" s="13"/>
+    <row r="693" ht="15.75" customHeight="1" s="13"/>
+    <row r="694" ht="15.75" customHeight="1" s="13"/>
+    <row r="695" ht="15.75" customHeight="1" s="13"/>
+    <row r="696" ht="15.75" customHeight="1" s="13"/>
+    <row r="697" ht="15.75" customHeight="1" s="13"/>
+    <row r="698" ht="15.75" customHeight="1" s="13"/>
+    <row r="699" ht="15.75" customHeight="1" s="13"/>
+    <row r="700" ht="15.75" customHeight="1" s="13"/>
+    <row r="701" ht="15.75" customHeight="1" s="13"/>
+    <row r="702" ht="15.75" customHeight="1" s="13"/>
+    <row r="703" ht="15.75" customHeight="1" s="13"/>
+    <row r="704" ht="15.75" customHeight="1" s="13"/>
+    <row r="705" ht="15.75" customHeight="1" s="13"/>
+    <row r="706" ht="15.75" customHeight="1" s="13"/>
+    <row r="707" ht="15.75" customHeight="1" s="13"/>
+    <row r="708" ht="15.75" customHeight="1" s="13"/>
+    <row r="709" ht="15.75" customHeight="1" s="13"/>
+    <row r="710" ht="15.75" customHeight="1" s="13"/>
+    <row r="711" ht="15.75" customHeight="1" s="13"/>
+    <row r="712" ht="15.75" customHeight="1" s="13"/>
+    <row r="713" ht="15.75" customHeight="1" s="13"/>
+    <row r="714" ht="15.75" customHeight="1" s="13"/>
+    <row r="715" ht="15.75" customHeight="1" s="13"/>
+    <row r="716" ht="15.75" customHeight="1" s="13"/>
+    <row r="717" ht="15.75" customHeight="1" s="13"/>
+    <row r="718" ht="15.75" customHeight="1" s="13"/>
+    <row r="719" ht="15.75" customHeight="1" s="13"/>
+    <row r="720" ht="15.75" customHeight="1" s="13"/>
+    <row r="721" ht="15.75" customHeight="1" s="13"/>
+    <row r="722" ht="15.75" customHeight="1" s="13"/>
+    <row r="723" ht="15.75" customHeight="1" s="13"/>
+    <row r="724" ht="15.75" customHeight="1" s="13"/>
+    <row r="725" ht="15.75" customHeight="1" s="13"/>
+    <row r="726" ht="15.75" customHeight="1" s="13"/>
+    <row r="727" ht="15.75" customHeight="1" s="13"/>
+    <row r="728" ht="15.75" customHeight="1" s="13"/>
+    <row r="729" ht="15.75" customHeight="1" s="13"/>
+    <row r="730" ht="15.75" customHeight="1" s="13"/>
+    <row r="731" ht="15.75" customHeight="1" s="13"/>
+    <row r="732" ht="15.75" customHeight="1" s="13"/>
+    <row r="733" ht="15.75" customHeight="1" s="13"/>
+    <row r="734" ht="15.75" customHeight="1" s="13"/>
+    <row r="735" ht="15.75" customHeight="1" s="13"/>
+    <row r="736" ht="15.75" customHeight="1" s="13"/>
+    <row r="737" ht="15.75" customHeight="1" s="13"/>
+    <row r="738" ht="15.75" customHeight="1" s="13"/>
+    <row r="739" ht="15.75" customHeight="1" s="13"/>
+    <row r="740" ht="15.75" customHeight="1" s="13"/>
+    <row r="741" ht="15.75" customHeight="1" s="13"/>
+    <row r="742" ht="15.75" customHeight="1" s="13"/>
+    <row r="743" ht="15.75" customHeight="1" s="13"/>
+    <row r="744" ht="15.75" customHeight="1" s="13"/>
+    <row r="745" ht="15.75" customHeight="1" s="13"/>
+    <row r="746" ht="15.75" customHeight="1" s="13"/>
+    <row r="747" ht="15.75" customHeight="1" s="13"/>
+    <row r="748" ht="15.75" customHeight="1" s="13"/>
+    <row r="749" ht="15.75" customHeight="1" s="13"/>
+    <row r="750" ht="15.75" customHeight="1" s="13"/>
+    <row r="751" ht="15.75" customHeight="1" s="13"/>
+    <row r="752" ht="15.75" customHeight="1" s="13"/>
+    <row r="753" ht="15.75" customHeight="1" s="13"/>
+    <row r="754" ht="15.75" customHeight="1" s="13"/>
+    <row r="755" ht="15.75" customHeight="1" s="13"/>
+    <row r="756" ht="15.75" customHeight="1" s="13"/>
+    <row r="757" ht="15.75" customHeight="1" s="13"/>
+    <row r="758" ht="15.75" customHeight="1" s="13"/>
+    <row r="759" ht="15.75" customHeight="1" s="13"/>
+    <row r="760" ht="15.75" customHeight="1" s="13"/>
+    <row r="761" ht="15.75" customHeight="1" s="13"/>
+    <row r="762" ht="15.75" customHeight="1" s="13"/>
+    <row r="763" ht="15.75" customHeight="1" s="13"/>
+    <row r="764" ht="15.75" customHeight="1" s="13"/>
+    <row r="765" ht="15.75" customHeight="1" s="13"/>
+    <row r="766" ht="15.75" customHeight="1" s="13"/>
+    <row r="767" ht="15.75" customHeight="1" s="13"/>
+    <row r="768" ht="15.75" customHeight="1" s="13"/>
+    <row r="769" ht="15.75" customHeight="1" s="13"/>
+    <row r="770" ht="15.75" customHeight="1" s="13"/>
+    <row r="771" ht="15.75" customHeight="1" s="13"/>
+    <row r="772" ht="15.75" customHeight="1" s="13"/>
+    <row r="773" ht="15.75" customHeight="1" s="13"/>
+    <row r="774" ht="15.75" customHeight="1" s="13"/>
+    <row r="775" ht="15.75" customHeight="1" s="13"/>
+    <row r="776" ht="15.75" customHeight="1" s="13"/>
+    <row r="777" ht="15.75" customHeight="1" s="13"/>
+    <row r="778" ht="15.75" customHeight="1" s="13"/>
+    <row r="779" ht="15.75" customHeight="1" s="13"/>
+    <row r="780" ht="15.75" customHeight="1" s="13"/>
+    <row r="781" ht="15.75" customHeight="1" s="13"/>
+    <row r="782" ht="15.75" customHeight="1" s="13"/>
+    <row r="783" ht="15.75" customHeight="1" s="13"/>
+    <row r="784" ht="15.75" customHeight="1" s="13"/>
+    <row r="785" ht="15.75" customHeight="1" s="13"/>
+    <row r="786" ht="15.75" customHeight="1" s="13"/>
+    <row r="787" ht="15.75" customHeight="1" s="13"/>
+    <row r="788" ht="15.75" customHeight="1" s="13"/>
+    <row r="789" ht="15.75" customHeight="1" s="13"/>
+    <row r="790" ht="15.75" customHeight="1" s="13"/>
+    <row r="791" ht="15.75" customHeight="1" s="13"/>
+    <row r="792" ht="15.75" customHeight="1" s="13"/>
+    <row r="793" ht="15.75" customHeight="1" s="13"/>
+    <row r="794" ht="15.75" customHeight="1" s="13"/>
+    <row r="795" ht="15.75" customHeight="1" s="13"/>
+    <row r="796" ht="15.75" customHeight="1" s="13"/>
+    <row r="797" ht="15.75" customHeight="1" s="13"/>
+    <row r="798" ht="15.75" customHeight="1" s="13"/>
+    <row r="799" ht="15.75" customHeight="1" s="13"/>
+    <row r="800" ht="15.75" customHeight="1" s="13"/>
+    <row r="801" ht="15.75" customHeight="1" s="13"/>
+    <row r="802" ht="15.75" customHeight="1" s="13"/>
+    <row r="803" ht="15.75" customHeight="1" s="13"/>
+    <row r="804" ht="15.75" customHeight="1" s="13"/>
+    <row r="805" ht="15.75" customHeight="1" s="13"/>
+    <row r="806" ht="15.75" customHeight="1" s="13"/>
+    <row r="807" ht="15.75" customHeight="1" s="13"/>
+    <row r="808" ht="15.75" customHeight="1" s="13"/>
+    <row r="809" ht="15.75" customHeight="1" s="13"/>
+    <row r="810" ht="15.75" customHeight="1" s="13"/>
+    <row r="811" ht="15.75" customHeight="1" s="13"/>
+    <row r="812" ht="15.75" customHeight="1" s="13"/>
+    <row r="813" ht="15.75" customHeight="1" s="13"/>
+    <row r="814" ht="15.75" customHeight="1" s="13"/>
+    <row r="815" ht="15.75" customHeight="1" s="13"/>
+    <row r="816" ht="15.75" customHeight="1" s="13"/>
+    <row r="817" ht="15.75" customHeight="1" s="13"/>
+    <row r="818" ht="15.75" customHeight="1" s="13"/>
+    <row r="819" ht="15.75" customHeight="1" s="13"/>
+    <row r="820" ht="15.75" customHeight="1" s="13"/>
+    <row r="821" ht="15.75" customHeight="1" s="13"/>
+    <row r="822" ht="15.75" customHeight="1" s="13"/>
+    <row r="823" ht="15.75" customHeight="1" s="13"/>
+    <row r="824" ht="15.75" customHeight="1" s="13"/>
+    <row r="825" ht="15.75" customHeight="1" s="13"/>
+    <row r="826" ht="15.75" customHeight="1" s="13"/>
+    <row r="827" ht="15.75" customHeight="1" s="13"/>
+    <row r="828" ht="15.75" customHeight="1" s="13"/>
+    <row r="829" ht="15.75" customHeight="1" s="13"/>
+    <row r="830" ht="15.75" customHeight="1" s="13"/>
+    <row r="831" ht="15.75" customHeight="1" s="13"/>
+    <row r="832" ht="15.75" customHeight="1" s="13"/>
+    <row r="833" ht="15.75" customHeight="1" s="13"/>
+    <row r="834" ht="15.75" customHeight="1" s="13"/>
+    <row r="835" ht="15.75" customHeight="1" s="13"/>
+    <row r="836" ht="15.75" customHeight="1" s="13"/>
+    <row r="837" ht="15.75" customHeight="1" s="13"/>
+    <row r="838" ht="15.75" customHeight="1" s="13"/>
+    <row r="839" ht="15.75" customHeight="1" s="13"/>
+    <row r="840" ht="15.75" customHeight="1" s="13"/>
+    <row r="841" ht="15.75" customHeight="1" s="13"/>
+    <row r="842" ht="15.75" customHeight="1" s="13"/>
+    <row r="843" ht="15.75" customHeight="1" s="13"/>
+    <row r="844" ht="15.75" customHeight="1" s="13"/>
+    <row r="845" ht="15.75" customHeight="1" s="13"/>
+    <row r="846" ht="15.75" customHeight="1" s="13"/>
+    <row r="847" ht="15.75" customHeight="1" s="13"/>
+    <row r="848" ht="15.75" customHeight="1" s="13"/>
+    <row r="849" ht="15.75" customHeight="1" s="13"/>
+    <row r="850" ht="15.75" customHeight="1" s="13"/>
+    <row r="851" ht="15.75" customHeight="1" s="13"/>
+    <row r="852" ht="15.75" customHeight="1" s="13"/>
+    <row r="853" ht="15.75" customHeight="1" s="13"/>
+    <row r="854" ht="15.75" customHeight="1" s="13"/>
+    <row r="855" ht="15.75" customHeight="1" s="13"/>
+    <row r="856" ht="15.75" customHeight="1" s="13"/>
+    <row r="857" ht="15.75" customHeight="1" s="13"/>
+    <row r="858" ht="15.75" customHeight="1" s="13"/>
+    <row r="859" ht="15.75" customHeight="1" s="13"/>
+    <row r="860" ht="15.75" customHeight="1" s="13"/>
+    <row r="861" ht="15.75" customHeight="1" s="13"/>
+    <row r="862" ht="15.75" customHeight="1" s="13"/>
+    <row r="863" ht="15.75" customHeight="1" s="13"/>
+    <row r="864" ht="15.75" customHeight="1" s="13"/>
+    <row r="865" ht="15.75" customHeight="1" s="13"/>
+    <row r="866" ht="15.75" customHeight="1" s="13"/>
+    <row r="867" ht="15.75" customHeight="1" s="13"/>
+    <row r="868" ht="15.75" customHeight="1" s="13"/>
+    <row r="869" ht="15.75" customHeight="1" s="13"/>
+    <row r="870" ht="15.75" customHeight="1" s="13"/>
+    <row r="871" ht="15.75" customHeight="1" s="13"/>
+    <row r="872" ht="15.75" customHeight="1" s="13"/>
+    <row r="873" ht="15.75" customHeight="1" s="13"/>
+    <row r="874" ht="15.75" customHeight="1" s="13"/>
+    <row r="875" ht="15.75" customHeight="1" s="13"/>
+    <row r="876" ht="15.75" customHeight="1" s="13"/>
+    <row r="877" ht="15.75" customHeight="1" s="13"/>
+    <row r="878" ht="15.75" customHeight="1" s="13"/>
+    <row r="879" ht="15.75" customHeight="1" s="13"/>
+    <row r="880" ht="15.75" customHeight="1" s="13"/>
+    <row r="881" ht="15.75" customHeight="1" s="13"/>
+    <row r="882" ht="15.75" customHeight="1" s="13"/>
+    <row r="883" ht="15.75" customHeight="1" s="13"/>
+    <row r="884" ht="15.75" customHeight="1" s="13"/>
+    <row r="885" ht="15.75" customHeight="1" s="13"/>
+    <row r="886" ht="15.75" customHeight="1" s="13"/>
+    <row r="887" ht="15.75" customHeight="1" s="13"/>
+    <row r="888" ht="15.75" customHeight="1" s="13"/>
+    <row r="889" ht="15.75" customHeight="1" s="13"/>
+    <row r="890" ht="15.75" customHeight="1" s="13"/>
+    <row r="891" ht="15.75" customHeight="1" s="13"/>
+    <row r="892" ht="15.75" customHeight="1" s="13"/>
+    <row r="893" ht="15.75" customHeight="1" s="13"/>
+    <row r="894" ht="15.75" customHeight="1" s="13"/>
+    <row r="895" ht="15.75" customHeight="1" s="13"/>
+    <row r="896" ht="15.75" customHeight="1" s="13"/>
+    <row r="897" ht="15.75" customHeight="1" s="13"/>
+    <row r="898" ht="15.75" customHeight="1" s="13"/>
+    <row r="899" ht="15.75" customHeight="1" s="13"/>
+    <row r="900" ht="15.75" customHeight="1" s="13"/>
+    <row r="901" ht="15.75" customHeight="1" s="13"/>
+    <row r="902" ht="15.75" customHeight="1" s="13"/>
+    <row r="903" ht="15.75" customHeight="1" s="13"/>
+    <row r="904" ht="15.75" customHeight="1" s="13"/>
+    <row r="905" ht="15.75" customHeight="1" s="13"/>
+    <row r="906" ht="15.75" customHeight="1" s="13"/>
+    <row r="907" ht="15.75" customHeight="1" s="13"/>
+    <row r="908" ht="15.75" customHeight="1" s="13"/>
+    <row r="909" ht="15.75" customHeight="1" s="13"/>
+    <row r="910" ht="15.75" customHeight="1" s="13"/>
+    <row r="911" ht="15.75" customHeight="1" s="13"/>
+    <row r="912" ht="15.75" customHeight="1" s="13"/>
+    <row r="913" ht="15.75" customHeight="1" s="13"/>
+    <row r="914" ht="15.75" customHeight="1" s="13"/>
+    <row r="915" ht="15.75" customHeight="1" s="13"/>
+    <row r="916" ht="15.75" customHeight="1" s="13"/>
+    <row r="917" ht="15.75" customHeight="1" s="13"/>
+    <row r="918" ht="15.75" customHeight="1" s="13"/>
+    <row r="919" ht="15.75" customHeight="1" s="13"/>
+    <row r="920" ht="15.75" customHeight="1" s="13"/>
+    <row r="921" ht="15.75" customHeight="1" s="13"/>
+    <row r="922" ht="15.75" customHeight="1" s="13"/>
+    <row r="923" ht="15.75" customHeight="1" s="13"/>
+    <row r="924" ht="15.75" customHeight="1" s="13"/>
+    <row r="925" ht="15.75" customHeight="1" s="13"/>
+    <row r="926" ht="15.75" customHeight="1" s="13"/>
+    <row r="927" ht="15.75" customHeight="1" s="13"/>
+    <row r="928" ht="15.75" customHeight="1" s="13"/>
+    <row r="929" ht="15.75" customHeight="1" s="13"/>
+    <row r="930" ht="15.75" customHeight="1" s="13"/>
+    <row r="931" ht="15.75" customHeight="1" s="13"/>
+    <row r="932" ht="15.75" customHeight="1" s="13"/>
+    <row r="933" ht="15.75" customHeight="1" s="13"/>
+    <row r="934" ht="15.75" customHeight="1" s="13"/>
+    <row r="935" ht="15.75" customHeight="1" s="13"/>
+    <row r="936" ht="15.75" customHeight="1" s="13"/>
+    <row r="937" ht="15.75" customHeight="1" s="13"/>
+    <row r="938" ht="15.75" customHeight="1" s="13"/>
+    <row r="939" ht="15.75" customHeight="1" s="13"/>
+    <row r="940" ht="15.75" customHeight="1" s="13"/>
+    <row r="941" ht="15.75" customHeight="1" s="13"/>
+    <row r="942" ht="15.75" customHeight="1" s="13"/>
+    <row r="943" ht="15.75" customHeight="1" s="13"/>
+    <row r="944" ht="15.75" customHeight="1" s="13"/>
+    <row r="945" ht="15.75" customHeight="1" s="13"/>
+    <row r="946" ht="15.75" customHeight="1" s="13"/>
+    <row r="947" ht="15.75" customHeight="1" s="13"/>
+    <row r="948" ht="15.75" customHeight="1" s="13"/>
+    <row r="949" ht="15.75" customHeight="1" s="13"/>
+    <row r="950" ht="15.75" customHeight="1" s="13"/>
+    <row r="951" ht="15.75" customHeight="1" s="13"/>
+    <row r="952" ht="15.75" customHeight="1" s="13"/>
+    <row r="953" ht="15.75" customHeight="1" s="13"/>
+    <row r="954" ht="15.75" customHeight="1" s="13"/>
+    <row r="955" ht="15.75" customHeight="1" s="13"/>
+    <row r="956" ht="15.75" customHeight="1" s="13"/>
+    <row r="957" ht="15.75" customHeight="1" s="13"/>
+    <row r="958" ht="15.75" customHeight="1" s="13"/>
+    <row r="959" ht="15.75" customHeight="1" s="13"/>
+    <row r="960" ht="15.75" customHeight="1" s="13"/>
+    <row r="961" ht="15.75" customHeight="1" s="13"/>
+    <row r="962" ht="15.75" customHeight="1" s="13"/>
+    <row r="963" ht="15.75" customHeight="1" s="13"/>
+    <row r="964" ht="15.75" customHeight="1" s="13"/>
+    <row r="965" ht="15.75" customHeight="1" s="13"/>
+    <row r="966" ht="15.75" customHeight="1" s="13"/>
+    <row r="967" ht="15.75" customHeight="1" s="13"/>
+    <row r="968" ht="15.75" customHeight="1" s="13"/>
+    <row r="969" ht="15.75" customHeight="1" s="13"/>
+    <row r="970" ht="15.75" customHeight="1" s="13"/>
+    <row r="971" ht="15.75" customHeight="1" s="13"/>
+    <row r="972" ht="15.75" customHeight="1" s="13"/>
+    <row r="973" ht="15.75" customHeight="1" s="13"/>
+    <row r="974" ht="15.75" customHeight="1" s="13"/>
+    <row r="975" ht="15.75" customHeight="1" s="13"/>
+    <row r="976" ht="15.75" customHeight="1" s="13"/>
+    <row r="977" ht="15.75" customHeight="1" s="13"/>
+    <row r="978" ht="15.75" customHeight="1" s="13"/>
+    <row r="979" ht="15.75" customHeight="1" s="13"/>
+    <row r="980" ht="15.75" customHeight="1" s="13"/>
+    <row r="981" ht="15.75" customHeight="1" s="13"/>
+    <row r="982" ht="15.75" customHeight="1" s="13"/>
+    <row r="983" ht="15.75" customHeight="1" s="13"/>
+    <row r="984" ht="15.75" customHeight="1" s="13"/>
+    <row r="985" ht="15.75" customHeight="1" s="13"/>
+    <row r="986" ht="15.75" customHeight="1" s="13"/>
+    <row r="987" ht="15.75" customHeight="1" s="13"/>
+    <row r="988" ht="15.75" customHeight="1" s="13"/>
+    <row r="989" ht="15.75" customHeight="1" s="13"/>
+    <row r="990" ht="15.75" customHeight="1" s="13"/>
+    <row r="991" ht="15.75" customHeight="1" s="13"/>
+    <row r="992" ht="15.75" customHeight="1" s="13"/>
+    <row r="993" ht="15.75" customHeight="1" s="13"/>
+    <row r="994" ht="15.75" customHeight="1" s="13"/>
+    <row r="995" ht="15.75" customHeight="1" s="13"/>
+    <row r="996" ht="15.75" customHeight="1" s="13"/>
+    <row r="997" ht="15.75" customHeight="1" s="13"/>
+    <row r="998" ht="15.75" customHeight="1" s="13"/>
+    <row r="999" ht="15.75" customHeight="1" s="13"/>
+    <row r="1000" ht="15.75" customHeight="1" s="13"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -937,141 +2775,1123 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="B3:D3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="41.83203125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="36.63" customWidth="1" style="13" min="1" max="1"/>
+    <col width="14.25" customWidth="1" style="13" min="2" max="2"/>
+    <col width="13.38" customWidth="1" style="13" min="3" max="3"/>
+    <col width="9.880000000000001" customWidth="1" style="13" min="4" max="4"/>
+    <col width="7.75" customWidth="1" style="13" min="5" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>load factor</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>urban residential</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>rural residential</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="12" t="inlineStr">
         <is>
           <t>commercial</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>heating</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>cooling &amp; ventilation</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="12" t="n">
         <v>22.74236</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="12">
         <f>B3</f>
         <v/>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="12" t="n">
         <v>5.753</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>envelope</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>lighting</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="12" t="n">
         <v>1.74126</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="12">
         <f>B5</f>
         <v/>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="12" t="n">
         <v>1.82225</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>appliances</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="12" t="n">
         <v>0.64907</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="12">
         <f>B6</f>
         <v/>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="12" t="n">
         <v>1.35112</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="12" t="n">
         <v>1.37538</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="12">
         <f>B7</f>
         <v/>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="12" t="n">
         <v>1.82225</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1" s="13"/>
+    <row r="22" ht="15.75" customHeight="1" s="13"/>
+    <row r="23" ht="15.75" customHeight="1" s="13"/>
+    <row r="24" ht="15.75" customHeight="1" s="13"/>
+    <row r="25" ht="15.75" customHeight="1" s="13"/>
+    <row r="26" ht="15.75" customHeight="1" s="13"/>
+    <row r="27" ht="15.75" customHeight="1" s="13"/>
+    <row r="28" ht="15.75" customHeight="1" s="13"/>
+    <row r="29" ht="15.75" customHeight="1" s="13"/>
+    <row r="30" ht="15.75" customHeight="1" s="13"/>
+    <row r="31" ht="15.75" customHeight="1" s="13"/>
+    <row r="32" ht="15.75" customHeight="1" s="13"/>
+    <row r="33" ht="15.75" customHeight="1" s="13"/>
+    <row r="34" ht="15.75" customHeight="1" s="13"/>
+    <row r="35" ht="15.75" customHeight="1" s="13"/>
+    <row r="36" ht="15.75" customHeight="1" s="13"/>
+    <row r="37" ht="15.75" customHeight="1" s="13"/>
+    <row r="38" ht="15.75" customHeight="1" s="13"/>
+    <row r="39" ht="15.75" customHeight="1" s="13"/>
+    <row r="40" ht="15.75" customHeight="1" s="13"/>
+    <row r="41" ht="15.75" customHeight="1" s="13"/>
+    <row r="42" ht="15.75" customHeight="1" s="13"/>
+    <row r="43" ht="15.75" customHeight="1" s="13"/>
+    <row r="44" ht="15.75" customHeight="1" s="13"/>
+    <row r="45" ht="15.75" customHeight="1" s="13"/>
+    <row r="46" ht="15.75" customHeight="1" s="13"/>
+    <row r="47" ht="15.75" customHeight="1" s="13"/>
+    <row r="48" ht="15.75" customHeight="1" s="13"/>
+    <row r="49" ht="15.75" customHeight="1" s="13"/>
+    <row r="50" ht="15.75" customHeight="1" s="13"/>
+    <row r="51" ht="15.75" customHeight="1" s="13"/>
+    <row r="52" ht="15.75" customHeight="1" s="13"/>
+    <row r="53" ht="15.75" customHeight="1" s="13"/>
+    <row r="54" ht="15.75" customHeight="1" s="13"/>
+    <row r="55" ht="15.75" customHeight="1" s="13"/>
+    <row r="56" ht="15.75" customHeight="1" s="13"/>
+    <row r="57" ht="15.75" customHeight="1" s="13"/>
+    <row r="58" ht="15.75" customHeight="1" s="13"/>
+    <row r="59" ht="15.75" customHeight="1" s="13"/>
+    <row r="60" ht="15.75" customHeight="1" s="13"/>
+    <row r="61" ht="15.75" customHeight="1" s="13"/>
+    <row r="62" ht="15.75" customHeight="1" s="13"/>
+    <row r="63" ht="15.75" customHeight="1" s="13"/>
+    <row r="64" ht="15.75" customHeight="1" s="13"/>
+    <row r="65" ht="15.75" customHeight="1" s="13"/>
+    <row r="66" ht="15.75" customHeight="1" s="13"/>
+    <row r="67" ht="15.75" customHeight="1" s="13"/>
+    <row r="68" ht="15.75" customHeight="1" s="13"/>
+    <row r="69" ht="15.75" customHeight="1" s="13"/>
+    <row r="70" ht="15.75" customHeight="1" s="13"/>
+    <row r="71" ht="15.75" customHeight="1" s="13"/>
+    <row r="72" ht="15.75" customHeight="1" s="13"/>
+    <row r="73" ht="15.75" customHeight="1" s="13"/>
+    <row r="74" ht="15.75" customHeight="1" s="13"/>
+    <row r="75" ht="15.75" customHeight="1" s="13"/>
+    <row r="76" ht="15.75" customHeight="1" s="13"/>
+    <row r="77" ht="15.75" customHeight="1" s="13"/>
+    <row r="78" ht="15.75" customHeight="1" s="13"/>
+    <row r="79" ht="15.75" customHeight="1" s="13"/>
+    <row r="80" ht="15.75" customHeight="1" s="13"/>
+    <row r="81" ht="15.75" customHeight="1" s="13"/>
+    <row r="82" ht="15.75" customHeight="1" s="13"/>
+    <row r="83" ht="15.75" customHeight="1" s="13"/>
+    <row r="84" ht="15.75" customHeight="1" s="13"/>
+    <row r="85" ht="15.75" customHeight="1" s="13"/>
+    <row r="86" ht="15.75" customHeight="1" s="13"/>
+    <row r="87" ht="15.75" customHeight="1" s="13"/>
+    <row r="88" ht="15.75" customHeight="1" s="13"/>
+    <row r="89" ht="15.75" customHeight="1" s="13"/>
+    <row r="90" ht="15.75" customHeight="1" s="13"/>
+    <row r="91" ht="15.75" customHeight="1" s="13"/>
+    <row r="92" ht="15.75" customHeight="1" s="13"/>
+    <row r="93" ht="15.75" customHeight="1" s="13"/>
+    <row r="94" ht="15.75" customHeight="1" s="13"/>
+    <row r="95" ht="15.75" customHeight="1" s="13"/>
+    <row r="96" ht="15.75" customHeight="1" s="13"/>
+    <row r="97" ht="15.75" customHeight="1" s="13"/>
+    <row r="98" ht="15.75" customHeight="1" s="13"/>
+    <row r="99" ht="15.75" customHeight="1" s="13"/>
+    <row r="100" ht="15.75" customHeight="1" s="13"/>
+    <row r="101" ht="15.75" customHeight="1" s="13"/>
+    <row r="102" ht="15.75" customHeight="1" s="13"/>
+    <row r="103" ht="15.75" customHeight="1" s="13"/>
+    <row r="104" ht="15.75" customHeight="1" s="13"/>
+    <row r="105" ht="15.75" customHeight="1" s="13"/>
+    <row r="106" ht="15.75" customHeight="1" s="13"/>
+    <row r="107" ht="15.75" customHeight="1" s="13"/>
+    <row r="108" ht="15.75" customHeight="1" s="13"/>
+    <row r="109" ht="15.75" customHeight="1" s="13"/>
+    <row r="110" ht="15.75" customHeight="1" s="13"/>
+    <row r="111" ht="15.75" customHeight="1" s="13"/>
+    <row r="112" ht="15.75" customHeight="1" s="13"/>
+    <row r="113" ht="15.75" customHeight="1" s="13"/>
+    <row r="114" ht="15.75" customHeight="1" s="13"/>
+    <row r="115" ht="15.75" customHeight="1" s="13"/>
+    <row r="116" ht="15.75" customHeight="1" s="13"/>
+    <row r="117" ht="15.75" customHeight="1" s="13"/>
+    <row r="118" ht="15.75" customHeight="1" s="13"/>
+    <row r="119" ht="15.75" customHeight="1" s="13"/>
+    <row r="120" ht="15.75" customHeight="1" s="13"/>
+    <row r="121" ht="15.75" customHeight="1" s="13"/>
+    <row r="122" ht="15.75" customHeight="1" s="13"/>
+    <row r="123" ht="15.75" customHeight="1" s="13"/>
+    <row r="124" ht="15.75" customHeight="1" s="13"/>
+    <row r="125" ht="15.75" customHeight="1" s="13"/>
+    <row r="126" ht="15.75" customHeight="1" s="13"/>
+    <row r="127" ht="15.75" customHeight="1" s="13"/>
+    <row r="128" ht="15.75" customHeight="1" s="13"/>
+    <row r="129" ht="15.75" customHeight="1" s="13"/>
+    <row r="130" ht="15.75" customHeight="1" s="13"/>
+    <row r="131" ht="15.75" customHeight="1" s="13"/>
+    <row r="132" ht="15.75" customHeight="1" s="13"/>
+    <row r="133" ht="15.75" customHeight="1" s="13"/>
+    <row r="134" ht="15.75" customHeight="1" s="13"/>
+    <row r="135" ht="15.75" customHeight="1" s="13"/>
+    <row r="136" ht="15.75" customHeight="1" s="13"/>
+    <row r="137" ht="15.75" customHeight="1" s="13"/>
+    <row r="138" ht="15.75" customHeight="1" s="13"/>
+    <row r="139" ht="15.75" customHeight="1" s="13"/>
+    <row r="140" ht="15.75" customHeight="1" s="13"/>
+    <row r="141" ht="15.75" customHeight="1" s="13"/>
+    <row r="142" ht="15.75" customHeight="1" s="13"/>
+    <row r="143" ht="15.75" customHeight="1" s="13"/>
+    <row r="144" ht="15.75" customHeight="1" s="13"/>
+    <row r="145" ht="15.75" customHeight="1" s="13"/>
+    <row r="146" ht="15.75" customHeight="1" s="13"/>
+    <row r="147" ht="15.75" customHeight="1" s="13"/>
+    <row r="148" ht="15.75" customHeight="1" s="13"/>
+    <row r="149" ht="15.75" customHeight="1" s="13"/>
+    <row r="150" ht="15.75" customHeight="1" s="13"/>
+    <row r="151" ht="15.75" customHeight="1" s="13"/>
+    <row r="152" ht="15.75" customHeight="1" s="13"/>
+    <row r="153" ht="15.75" customHeight="1" s="13"/>
+    <row r="154" ht="15.75" customHeight="1" s="13"/>
+    <row r="155" ht="15.75" customHeight="1" s="13"/>
+    <row r="156" ht="15.75" customHeight="1" s="13"/>
+    <row r="157" ht="15.75" customHeight="1" s="13"/>
+    <row r="158" ht="15.75" customHeight="1" s="13"/>
+    <row r="159" ht="15.75" customHeight="1" s="13"/>
+    <row r="160" ht="15.75" customHeight="1" s="13"/>
+    <row r="161" ht="15.75" customHeight="1" s="13"/>
+    <row r="162" ht="15.75" customHeight="1" s="13"/>
+    <row r="163" ht="15.75" customHeight="1" s="13"/>
+    <row r="164" ht="15.75" customHeight="1" s="13"/>
+    <row r="165" ht="15.75" customHeight="1" s="13"/>
+    <row r="166" ht="15.75" customHeight="1" s="13"/>
+    <row r="167" ht="15.75" customHeight="1" s="13"/>
+    <row r="168" ht="15.75" customHeight="1" s="13"/>
+    <row r="169" ht="15.75" customHeight="1" s="13"/>
+    <row r="170" ht="15.75" customHeight="1" s="13"/>
+    <row r="171" ht="15.75" customHeight="1" s="13"/>
+    <row r="172" ht="15.75" customHeight="1" s="13"/>
+    <row r="173" ht="15.75" customHeight="1" s="13"/>
+    <row r="174" ht="15.75" customHeight="1" s="13"/>
+    <row r="175" ht="15.75" customHeight="1" s="13"/>
+    <row r="176" ht="15.75" customHeight="1" s="13"/>
+    <row r="177" ht="15.75" customHeight="1" s="13"/>
+    <row r="178" ht="15.75" customHeight="1" s="13"/>
+    <row r="179" ht="15.75" customHeight="1" s="13"/>
+    <row r="180" ht="15.75" customHeight="1" s="13"/>
+    <row r="181" ht="15.75" customHeight="1" s="13"/>
+    <row r="182" ht="15.75" customHeight="1" s="13"/>
+    <row r="183" ht="15.75" customHeight="1" s="13"/>
+    <row r="184" ht="15.75" customHeight="1" s="13"/>
+    <row r="185" ht="15.75" customHeight="1" s="13"/>
+    <row r="186" ht="15.75" customHeight="1" s="13"/>
+    <row r="187" ht="15.75" customHeight="1" s="13"/>
+    <row r="188" ht="15.75" customHeight="1" s="13"/>
+    <row r="189" ht="15.75" customHeight="1" s="13"/>
+    <row r="190" ht="15.75" customHeight="1" s="13"/>
+    <row r="191" ht="15.75" customHeight="1" s="13"/>
+    <row r="192" ht="15.75" customHeight="1" s="13"/>
+    <row r="193" ht="15.75" customHeight="1" s="13"/>
+    <row r="194" ht="15.75" customHeight="1" s="13"/>
+    <row r="195" ht="15.75" customHeight="1" s="13"/>
+    <row r="196" ht="15.75" customHeight="1" s="13"/>
+    <row r="197" ht="15.75" customHeight="1" s="13"/>
+    <row r="198" ht="15.75" customHeight="1" s="13"/>
+    <row r="199" ht="15.75" customHeight="1" s="13"/>
+    <row r="200" ht="15.75" customHeight="1" s="13"/>
+    <row r="201" ht="15.75" customHeight="1" s="13"/>
+    <row r="202" ht="15.75" customHeight="1" s="13"/>
+    <row r="203" ht="15.75" customHeight="1" s="13"/>
+    <row r="204" ht="15.75" customHeight="1" s="13"/>
+    <row r="205" ht="15.75" customHeight="1" s="13"/>
+    <row r="206" ht="15.75" customHeight="1" s="13"/>
+    <row r="207" ht="15.75" customHeight="1" s="13"/>
+    <row r="208" ht="15.75" customHeight="1" s="13"/>
+    <row r="209" ht="15.75" customHeight="1" s="13"/>
+    <row r="210" ht="15.75" customHeight="1" s="13"/>
+    <row r="211" ht="15.75" customHeight="1" s="13"/>
+    <row r="212" ht="15.75" customHeight="1" s="13"/>
+    <row r="213" ht="15.75" customHeight="1" s="13"/>
+    <row r="214" ht="15.75" customHeight="1" s="13"/>
+    <row r="215" ht="15.75" customHeight="1" s="13"/>
+    <row r="216" ht="15.75" customHeight="1" s="13"/>
+    <row r="217" ht="15.75" customHeight="1" s="13"/>
+    <row r="218" ht="15.75" customHeight="1" s="13"/>
+    <row r="219" ht="15.75" customHeight="1" s="13"/>
+    <row r="220" ht="15.75" customHeight="1" s="13"/>
+    <row r="221" ht="15.75" customHeight="1" s="13"/>
+    <row r="222" ht="15.75" customHeight="1" s="13"/>
+    <row r="223" ht="15.75" customHeight="1" s="13"/>
+    <row r="224" ht="15.75" customHeight="1" s="13"/>
+    <row r="225" ht="15.75" customHeight="1" s="13"/>
+    <row r="226" ht="15.75" customHeight="1" s="13"/>
+    <row r="227" ht="15.75" customHeight="1" s="13"/>
+    <row r="228" ht="15.75" customHeight="1" s="13"/>
+    <row r="229" ht="15.75" customHeight="1" s="13"/>
+    <row r="230" ht="15.75" customHeight="1" s="13"/>
+    <row r="231" ht="15.75" customHeight="1" s="13"/>
+    <row r="232" ht="15.75" customHeight="1" s="13"/>
+    <row r="233" ht="15.75" customHeight="1" s="13"/>
+    <row r="234" ht="15.75" customHeight="1" s="13"/>
+    <row r="235" ht="15.75" customHeight="1" s="13"/>
+    <row r="236" ht="15.75" customHeight="1" s="13"/>
+    <row r="237" ht="15.75" customHeight="1" s="13"/>
+    <row r="238" ht="15.75" customHeight="1" s="13"/>
+    <row r="239" ht="15.75" customHeight="1" s="13"/>
+    <row r="240" ht="15.75" customHeight="1" s="13"/>
+    <row r="241" ht="15.75" customHeight="1" s="13"/>
+    <row r="242" ht="15.75" customHeight="1" s="13"/>
+    <row r="243" ht="15.75" customHeight="1" s="13"/>
+    <row r="244" ht="15.75" customHeight="1" s="13"/>
+    <row r="245" ht="15.75" customHeight="1" s="13"/>
+    <row r="246" ht="15.75" customHeight="1" s="13"/>
+    <row r="247" ht="15.75" customHeight="1" s="13"/>
+    <row r="248" ht="15.75" customHeight="1" s="13"/>
+    <row r="249" ht="15.75" customHeight="1" s="13"/>
+    <row r="250" ht="15.75" customHeight="1" s="13"/>
+    <row r="251" ht="15.75" customHeight="1" s="13"/>
+    <row r="252" ht="15.75" customHeight="1" s="13"/>
+    <row r="253" ht="15.75" customHeight="1" s="13"/>
+    <row r="254" ht="15.75" customHeight="1" s="13"/>
+    <row r="255" ht="15.75" customHeight="1" s="13"/>
+    <row r="256" ht="15.75" customHeight="1" s="13"/>
+    <row r="257" ht="15.75" customHeight="1" s="13"/>
+    <row r="258" ht="15.75" customHeight="1" s="13"/>
+    <row r="259" ht="15.75" customHeight="1" s="13"/>
+    <row r="260" ht="15.75" customHeight="1" s="13"/>
+    <row r="261" ht="15.75" customHeight="1" s="13"/>
+    <row r="262" ht="15.75" customHeight="1" s="13"/>
+    <row r="263" ht="15.75" customHeight="1" s="13"/>
+    <row r="264" ht="15.75" customHeight="1" s="13"/>
+    <row r="265" ht="15.75" customHeight="1" s="13"/>
+    <row r="266" ht="15.75" customHeight="1" s="13"/>
+    <row r="267" ht="15.75" customHeight="1" s="13"/>
+    <row r="268" ht="15.75" customHeight="1" s="13"/>
+    <row r="269" ht="15.75" customHeight="1" s="13"/>
+    <row r="270" ht="15.75" customHeight="1" s="13"/>
+    <row r="271" ht="15.75" customHeight="1" s="13"/>
+    <row r="272" ht="15.75" customHeight="1" s="13"/>
+    <row r="273" ht="15.75" customHeight="1" s="13"/>
+    <row r="274" ht="15.75" customHeight="1" s="13"/>
+    <row r="275" ht="15.75" customHeight="1" s="13"/>
+    <row r="276" ht="15.75" customHeight="1" s="13"/>
+    <row r="277" ht="15.75" customHeight="1" s="13"/>
+    <row r="278" ht="15.75" customHeight="1" s="13"/>
+    <row r="279" ht="15.75" customHeight="1" s="13"/>
+    <row r="280" ht="15.75" customHeight="1" s="13"/>
+    <row r="281" ht="15.75" customHeight="1" s="13"/>
+    <row r="282" ht="15.75" customHeight="1" s="13"/>
+    <row r="283" ht="15.75" customHeight="1" s="13"/>
+    <row r="284" ht="15.75" customHeight="1" s="13"/>
+    <row r="285" ht="15.75" customHeight="1" s="13"/>
+    <row r="286" ht="15.75" customHeight="1" s="13"/>
+    <row r="287" ht="15.75" customHeight="1" s="13"/>
+    <row r="288" ht="15.75" customHeight="1" s="13"/>
+    <row r="289" ht="15.75" customHeight="1" s="13"/>
+    <row r="290" ht="15.75" customHeight="1" s="13"/>
+    <row r="291" ht="15.75" customHeight="1" s="13"/>
+    <row r="292" ht="15.75" customHeight="1" s="13"/>
+    <row r="293" ht="15.75" customHeight="1" s="13"/>
+    <row r="294" ht="15.75" customHeight="1" s="13"/>
+    <row r="295" ht="15.75" customHeight="1" s="13"/>
+    <row r="296" ht="15.75" customHeight="1" s="13"/>
+    <row r="297" ht="15.75" customHeight="1" s="13"/>
+    <row r="298" ht="15.75" customHeight="1" s="13"/>
+    <row r="299" ht="15.75" customHeight="1" s="13"/>
+    <row r="300" ht="15.75" customHeight="1" s="13"/>
+    <row r="301" ht="15.75" customHeight="1" s="13"/>
+    <row r="302" ht="15.75" customHeight="1" s="13"/>
+    <row r="303" ht="15.75" customHeight="1" s="13"/>
+    <row r="304" ht="15.75" customHeight="1" s="13"/>
+    <row r="305" ht="15.75" customHeight="1" s="13"/>
+    <row r="306" ht="15.75" customHeight="1" s="13"/>
+    <row r="307" ht="15.75" customHeight="1" s="13"/>
+    <row r="308" ht="15.75" customHeight="1" s="13"/>
+    <row r="309" ht="15.75" customHeight="1" s="13"/>
+    <row r="310" ht="15.75" customHeight="1" s="13"/>
+    <row r="311" ht="15.75" customHeight="1" s="13"/>
+    <row r="312" ht="15.75" customHeight="1" s="13"/>
+    <row r="313" ht="15.75" customHeight="1" s="13"/>
+    <row r="314" ht="15.75" customHeight="1" s="13"/>
+    <row r="315" ht="15.75" customHeight="1" s="13"/>
+    <row r="316" ht="15.75" customHeight="1" s="13"/>
+    <row r="317" ht="15.75" customHeight="1" s="13"/>
+    <row r="318" ht="15.75" customHeight="1" s="13"/>
+    <row r="319" ht="15.75" customHeight="1" s="13"/>
+    <row r="320" ht="15.75" customHeight="1" s="13"/>
+    <row r="321" ht="15.75" customHeight="1" s="13"/>
+    <row r="322" ht="15.75" customHeight="1" s="13"/>
+    <row r="323" ht="15.75" customHeight="1" s="13"/>
+    <row r="324" ht="15.75" customHeight="1" s="13"/>
+    <row r="325" ht="15.75" customHeight="1" s="13"/>
+    <row r="326" ht="15.75" customHeight="1" s="13"/>
+    <row r="327" ht="15.75" customHeight="1" s="13"/>
+    <row r="328" ht="15.75" customHeight="1" s="13"/>
+    <row r="329" ht="15.75" customHeight="1" s="13"/>
+    <row r="330" ht="15.75" customHeight="1" s="13"/>
+    <row r="331" ht="15.75" customHeight="1" s="13"/>
+    <row r="332" ht="15.75" customHeight="1" s="13"/>
+    <row r="333" ht="15.75" customHeight="1" s="13"/>
+    <row r="334" ht="15.75" customHeight="1" s="13"/>
+    <row r="335" ht="15.75" customHeight="1" s="13"/>
+    <row r="336" ht="15.75" customHeight="1" s="13"/>
+    <row r="337" ht="15.75" customHeight="1" s="13"/>
+    <row r="338" ht="15.75" customHeight="1" s="13"/>
+    <row r="339" ht="15.75" customHeight="1" s="13"/>
+    <row r="340" ht="15.75" customHeight="1" s="13"/>
+    <row r="341" ht="15.75" customHeight="1" s="13"/>
+    <row r="342" ht="15.75" customHeight="1" s="13"/>
+    <row r="343" ht="15.75" customHeight="1" s="13"/>
+    <row r="344" ht="15.75" customHeight="1" s="13"/>
+    <row r="345" ht="15.75" customHeight="1" s="13"/>
+    <row r="346" ht="15.75" customHeight="1" s="13"/>
+    <row r="347" ht="15.75" customHeight="1" s="13"/>
+    <row r="348" ht="15.75" customHeight="1" s="13"/>
+    <row r="349" ht="15.75" customHeight="1" s="13"/>
+    <row r="350" ht="15.75" customHeight="1" s="13"/>
+    <row r="351" ht="15.75" customHeight="1" s="13"/>
+    <row r="352" ht="15.75" customHeight="1" s="13"/>
+    <row r="353" ht="15.75" customHeight="1" s="13"/>
+    <row r="354" ht="15.75" customHeight="1" s="13"/>
+    <row r="355" ht="15.75" customHeight="1" s="13"/>
+    <row r="356" ht="15.75" customHeight="1" s="13"/>
+    <row r="357" ht="15.75" customHeight="1" s="13"/>
+    <row r="358" ht="15.75" customHeight="1" s="13"/>
+    <row r="359" ht="15.75" customHeight="1" s="13"/>
+    <row r="360" ht="15.75" customHeight="1" s="13"/>
+    <row r="361" ht="15.75" customHeight="1" s="13"/>
+    <row r="362" ht="15.75" customHeight="1" s="13"/>
+    <row r="363" ht="15.75" customHeight="1" s="13"/>
+    <row r="364" ht="15.75" customHeight="1" s="13"/>
+    <row r="365" ht="15.75" customHeight="1" s="13"/>
+    <row r="366" ht="15.75" customHeight="1" s="13"/>
+    <row r="367" ht="15.75" customHeight="1" s="13"/>
+    <row r="368" ht="15.75" customHeight="1" s="13"/>
+    <row r="369" ht="15.75" customHeight="1" s="13"/>
+    <row r="370" ht="15.75" customHeight="1" s="13"/>
+    <row r="371" ht="15.75" customHeight="1" s="13"/>
+    <row r="372" ht="15.75" customHeight="1" s="13"/>
+    <row r="373" ht="15.75" customHeight="1" s="13"/>
+    <row r="374" ht="15.75" customHeight="1" s="13"/>
+    <row r="375" ht="15.75" customHeight="1" s="13"/>
+    <row r="376" ht="15.75" customHeight="1" s="13"/>
+    <row r="377" ht="15.75" customHeight="1" s="13"/>
+    <row r="378" ht="15.75" customHeight="1" s="13"/>
+    <row r="379" ht="15.75" customHeight="1" s="13"/>
+    <row r="380" ht="15.75" customHeight="1" s="13"/>
+    <row r="381" ht="15.75" customHeight="1" s="13"/>
+    <row r="382" ht="15.75" customHeight="1" s="13"/>
+    <row r="383" ht="15.75" customHeight="1" s="13"/>
+    <row r="384" ht="15.75" customHeight="1" s="13"/>
+    <row r="385" ht="15.75" customHeight="1" s="13"/>
+    <row r="386" ht="15.75" customHeight="1" s="13"/>
+    <row r="387" ht="15.75" customHeight="1" s="13"/>
+    <row r="388" ht="15.75" customHeight="1" s="13"/>
+    <row r="389" ht="15.75" customHeight="1" s="13"/>
+    <row r="390" ht="15.75" customHeight="1" s="13"/>
+    <row r="391" ht="15.75" customHeight="1" s="13"/>
+    <row r="392" ht="15.75" customHeight="1" s="13"/>
+    <row r="393" ht="15.75" customHeight="1" s="13"/>
+    <row r="394" ht="15.75" customHeight="1" s="13"/>
+    <row r="395" ht="15.75" customHeight="1" s="13"/>
+    <row r="396" ht="15.75" customHeight="1" s="13"/>
+    <row r="397" ht="15.75" customHeight="1" s="13"/>
+    <row r="398" ht="15.75" customHeight="1" s="13"/>
+    <row r="399" ht="15.75" customHeight="1" s="13"/>
+    <row r="400" ht="15.75" customHeight="1" s="13"/>
+    <row r="401" ht="15.75" customHeight="1" s="13"/>
+    <row r="402" ht="15.75" customHeight="1" s="13"/>
+    <row r="403" ht="15.75" customHeight="1" s="13"/>
+    <row r="404" ht="15.75" customHeight="1" s="13"/>
+    <row r="405" ht="15.75" customHeight="1" s="13"/>
+    <row r="406" ht="15.75" customHeight="1" s="13"/>
+    <row r="407" ht="15.75" customHeight="1" s="13"/>
+    <row r="408" ht="15.75" customHeight="1" s="13"/>
+    <row r="409" ht="15.75" customHeight="1" s="13"/>
+    <row r="410" ht="15.75" customHeight="1" s="13"/>
+    <row r="411" ht="15.75" customHeight="1" s="13"/>
+    <row r="412" ht="15.75" customHeight="1" s="13"/>
+    <row r="413" ht="15.75" customHeight="1" s="13"/>
+    <row r="414" ht="15.75" customHeight="1" s="13"/>
+    <row r="415" ht="15.75" customHeight="1" s="13"/>
+    <row r="416" ht="15.75" customHeight="1" s="13"/>
+    <row r="417" ht="15.75" customHeight="1" s="13"/>
+    <row r="418" ht="15.75" customHeight="1" s="13"/>
+    <row r="419" ht="15.75" customHeight="1" s="13"/>
+    <row r="420" ht="15.75" customHeight="1" s="13"/>
+    <row r="421" ht="15.75" customHeight="1" s="13"/>
+    <row r="422" ht="15.75" customHeight="1" s="13"/>
+    <row r="423" ht="15.75" customHeight="1" s="13"/>
+    <row r="424" ht="15.75" customHeight="1" s="13"/>
+    <row r="425" ht="15.75" customHeight="1" s="13"/>
+    <row r="426" ht="15.75" customHeight="1" s="13"/>
+    <row r="427" ht="15.75" customHeight="1" s="13"/>
+    <row r="428" ht="15.75" customHeight="1" s="13"/>
+    <row r="429" ht="15.75" customHeight="1" s="13"/>
+    <row r="430" ht="15.75" customHeight="1" s="13"/>
+    <row r="431" ht="15.75" customHeight="1" s="13"/>
+    <row r="432" ht="15.75" customHeight="1" s="13"/>
+    <row r="433" ht="15.75" customHeight="1" s="13"/>
+    <row r="434" ht="15.75" customHeight="1" s="13"/>
+    <row r="435" ht="15.75" customHeight="1" s="13"/>
+    <row r="436" ht="15.75" customHeight="1" s="13"/>
+    <row r="437" ht="15.75" customHeight="1" s="13"/>
+    <row r="438" ht="15.75" customHeight="1" s="13"/>
+    <row r="439" ht="15.75" customHeight="1" s="13"/>
+    <row r="440" ht="15.75" customHeight="1" s="13"/>
+    <row r="441" ht="15.75" customHeight="1" s="13"/>
+    <row r="442" ht="15.75" customHeight="1" s="13"/>
+    <row r="443" ht="15.75" customHeight="1" s="13"/>
+    <row r="444" ht="15.75" customHeight="1" s="13"/>
+    <row r="445" ht="15.75" customHeight="1" s="13"/>
+    <row r="446" ht="15.75" customHeight="1" s="13"/>
+    <row r="447" ht="15.75" customHeight="1" s="13"/>
+    <row r="448" ht="15.75" customHeight="1" s="13"/>
+    <row r="449" ht="15.75" customHeight="1" s="13"/>
+    <row r="450" ht="15.75" customHeight="1" s="13"/>
+    <row r="451" ht="15.75" customHeight="1" s="13"/>
+    <row r="452" ht="15.75" customHeight="1" s="13"/>
+    <row r="453" ht="15.75" customHeight="1" s="13"/>
+    <row r="454" ht="15.75" customHeight="1" s="13"/>
+    <row r="455" ht="15.75" customHeight="1" s="13"/>
+    <row r="456" ht="15.75" customHeight="1" s="13"/>
+    <row r="457" ht="15.75" customHeight="1" s="13"/>
+    <row r="458" ht="15.75" customHeight="1" s="13"/>
+    <row r="459" ht="15.75" customHeight="1" s="13"/>
+    <row r="460" ht="15.75" customHeight="1" s="13"/>
+    <row r="461" ht="15.75" customHeight="1" s="13"/>
+    <row r="462" ht="15.75" customHeight="1" s="13"/>
+    <row r="463" ht="15.75" customHeight="1" s="13"/>
+    <row r="464" ht="15.75" customHeight="1" s="13"/>
+    <row r="465" ht="15.75" customHeight="1" s="13"/>
+    <row r="466" ht="15.75" customHeight="1" s="13"/>
+    <row r="467" ht="15.75" customHeight="1" s="13"/>
+    <row r="468" ht="15.75" customHeight="1" s="13"/>
+    <row r="469" ht="15.75" customHeight="1" s="13"/>
+    <row r="470" ht="15.75" customHeight="1" s="13"/>
+    <row r="471" ht="15.75" customHeight="1" s="13"/>
+    <row r="472" ht="15.75" customHeight="1" s="13"/>
+    <row r="473" ht="15.75" customHeight="1" s="13"/>
+    <row r="474" ht="15.75" customHeight="1" s="13"/>
+    <row r="475" ht="15.75" customHeight="1" s="13"/>
+    <row r="476" ht="15.75" customHeight="1" s="13"/>
+    <row r="477" ht="15.75" customHeight="1" s="13"/>
+    <row r="478" ht="15.75" customHeight="1" s="13"/>
+    <row r="479" ht="15.75" customHeight="1" s="13"/>
+    <row r="480" ht="15.75" customHeight="1" s="13"/>
+    <row r="481" ht="15.75" customHeight="1" s="13"/>
+    <row r="482" ht="15.75" customHeight="1" s="13"/>
+    <row r="483" ht="15.75" customHeight="1" s="13"/>
+    <row r="484" ht="15.75" customHeight="1" s="13"/>
+    <row r="485" ht="15.75" customHeight="1" s="13"/>
+    <row r="486" ht="15.75" customHeight="1" s="13"/>
+    <row r="487" ht="15.75" customHeight="1" s="13"/>
+    <row r="488" ht="15.75" customHeight="1" s="13"/>
+    <row r="489" ht="15.75" customHeight="1" s="13"/>
+    <row r="490" ht="15.75" customHeight="1" s="13"/>
+    <row r="491" ht="15.75" customHeight="1" s="13"/>
+    <row r="492" ht="15.75" customHeight="1" s="13"/>
+    <row r="493" ht="15.75" customHeight="1" s="13"/>
+    <row r="494" ht="15.75" customHeight="1" s="13"/>
+    <row r="495" ht="15.75" customHeight="1" s="13"/>
+    <row r="496" ht="15.75" customHeight="1" s="13"/>
+    <row r="497" ht="15.75" customHeight="1" s="13"/>
+    <row r="498" ht="15.75" customHeight="1" s="13"/>
+    <row r="499" ht="15.75" customHeight="1" s="13"/>
+    <row r="500" ht="15.75" customHeight="1" s="13"/>
+    <row r="501" ht="15.75" customHeight="1" s="13"/>
+    <row r="502" ht="15.75" customHeight="1" s="13"/>
+    <row r="503" ht="15.75" customHeight="1" s="13"/>
+    <row r="504" ht="15.75" customHeight="1" s="13"/>
+    <row r="505" ht="15.75" customHeight="1" s="13"/>
+    <row r="506" ht="15.75" customHeight="1" s="13"/>
+    <row r="507" ht="15.75" customHeight="1" s="13"/>
+    <row r="508" ht="15.75" customHeight="1" s="13"/>
+    <row r="509" ht="15.75" customHeight="1" s="13"/>
+    <row r="510" ht="15.75" customHeight="1" s="13"/>
+    <row r="511" ht="15.75" customHeight="1" s="13"/>
+    <row r="512" ht="15.75" customHeight="1" s="13"/>
+    <row r="513" ht="15.75" customHeight="1" s="13"/>
+    <row r="514" ht="15.75" customHeight="1" s="13"/>
+    <row r="515" ht="15.75" customHeight="1" s="13"/>
+    <row r="516" ht="15.75" customHeight="1" s="13"/>
+    <row r="517" ht="15.75" customHeight="1" s="13"/>
+    <row r="518" ht="15.75" customHeight="1" s="13"/>
+    <row r="519" ht="15.75" customHeight="1" s="13"/>
+    <row r="520" ht="15.75" customHeight="1" s="13"/>
+    <row r="521" ht="15.75" customHeight="1" s="13"/>
+    <row r="522" ht="15.75" customHeight="1" s="13"/>
+    <row r="523" ht="15.75" customHeight="1" s="13"/>
+    <row r="524" ht="15.75" customHeight="1" s="13"/>
+    <row r="525" ht="15.75" customHeight="1" s="13"/>
+    <row r="526" ht="15.75" customHeight="1" s="13"/>
+    <row r="527" ht="15.75" customHeight="1" s="13"/>
+    <row r="528" ht="15.75" customHeight="1" s="13"/>
+    <row r="529" ht="15.75" customHeight="1" s="13"/>
+    <row r="530" ht="15.75" customHeight="1" s="13"/>
+    <row r="531" ht="15.75" customHeight="1" s="13"/>
+    <row r="532" ht="15.75" customHeight="1" s="13"/>
+    <row r="533" ht="15.75" customHeight="1" s="13"/>
+    <row r="534" ht="15.75" customHeight="1" s="13"/>
+    <row r="535" ht="15.75" customHeight="1" s="13"/>
+    <row r="536" ht="15.75" customHeight="1" s="13"/>
+    <row r="537" ht="15.75" customHeight="1" s="13"/>
+    <row r="538" ht="15.75" customHeight="1" s="13"/>
+    <row r="539" ht="15.75" customHeight="1" s="13"/>
+    <row r="540" ht="15.75" customHeight="1" s="13"/>
+    <row r="541" ht="15.75" customHeight="1" s="13"/>
+    <row r="542" ht="15.75" customHeight="1" s="13"/>
+    <row r="543" ht="15.75" customHeight="1" s="13"/>
+    <row r="544" ht="15.75" customHeight="1" s="13"/>
+    <row r="545" ht="15.75" customHeight="1" s="13"/>
+    <row r="546" ht="15.75" customHeight="1" s="13"/>
+    <row r="547" ht="15.75" customHeight="1" s="13"/>
+    <row r="548" ht="15.75" customHeight="1" s="13"/>
+    <row r="549" ht="15.75" customHeight="1" s="13"/>
+    <row r="550" ht="15.75" customHeight="1" s="13"/>
+    <row r="551" ht="15.75" customHeight="1" s="13"/>
+    <row r="552" ht="15.75" customHeight="1" s="13"/>
+    <row r="553" ht="15.75" customHeight="1" s="13"/>
+    <row r="554" ht="15.75" customHeight="1" s="13"/>
+    <row r="555" ht="15.75" customHeight="1" s="13"/>
+    <row r="556" ht="15.75" customHeight="1" s="13"/>
+    <row r="557" ht="15.75" customHeight="1" s="13"/>
+    <row r="558" ht="15.75" customHeight="1" s="13"/>
+    <row r="559" ht="15.75" customHeight="1" s="13"/>
+    <row r="560" ht="15.75" customHeight="1" s="13"/>
+    <row r="561" ht="15.75" customHeight="1" s="13"/>
+    <row r="562" ht="15.75" customHeight="1" s="13"/>
+    <row r="563" ht="15.75" customHeight="1" s="13"/>
+    <row r="564" ht="15.75" customHeight="1" s="13"/>
+    <row r="565" ht="15.75" customHeight="1" s="13"/>
+    <row r="566" ht="15.75" customHeight="1" s="13"/>
+    <row r="567" ht="15.75" customHeight="1" s="13"/>
+    <row r="568" ht="15.75" customHeight="1" s="13"/>
+    <row r="569" ht="15.75" customHeight="1" s="13"/>
+    <row r="570" ht="15.75" customHeight="1" s="13"/>
+    <row r="571" ht="15.75" customHeight="1" s="13"/>
+    <row r="572" ht="15.75" customHeight="1" s="13"/>
+    <row r="573" ht="15.75" customHeight="1" s="13"/>
+    <row r="574" ht="15.75" customHeight="1" s="13"/>
+    <row r="575" ht="15.75" customHeight="1" s="13"/>
+    <row r="576" ht="15.75" customHeight="1" s="13"/>
+    <row r="577" ht="15.75" customHeight="1" s="13"/>
+    <row r="578" ht="15.75" customHeight="1" s="13"/>
+    <row r="579" ht="15.75" customHeight="1" s="13"/>
+    <row r="580" ht="15.75" customHeight="1" s="13"/>
+    <row r="581" ht="15.75" customHeight="1" s="13"/>
+    <row r="582" ht="15.75" customHeight="1" s="13"/>
+    <row r="583" ht="15.75" customHeight="1" s="13"/>
+    <row r="584" ht="15.75" customHeight="1" s="13"/>
+    <row r="585" ht="15.75" customHeight="1" s="13"/>
+    <row r="586" ht="15.75" customHeight="1" s="13"/>
+    <row r="587" ht="15.75" customHeight="1" s="13"/>
+    <row r="588" ht="15.75" customHeight="1" s="13"/>
+    <row r="589" ht="15.75" customHeight="1" s="13"/>
+    <row r="590" ht="15.75" customHeight="1" s="13"/>
+    <row r="591" ht="15.75" customHeight="1" s="13"/>
+    <row r="592" ht="15.75" customHeight="1" s="13"/>
+    <row r="593" ht="15.75" customHeight="1" s="13"/>
+    <row r="594" ht="15.75" customHeight="1" s="13"/>
+    <row r="595" ht="15.75" customHeight="1" s="13"/>
+    <row r="596" ht="15.75" customHeight="1" s="13"/>
+    <row r="597" ht="15.75" customHeight="1" s="13"/>
+    <row r="598" ht="15.75" customHeight="1" s="13"/>
+    <row r="599" ht="15.75" customHeight="1" s="13"/>
+    <row r="600" ht="15.75" customHeight="1" s="13"/>
+    <row r="601" ht="15.75" customHeight="1" s="13"/>
+    <row r="602" ht="15.75" customHeight="1" s="13"/>
+    <row r="603" ht="15.75" customHeight="1" s="13"/>
+    <row r="604" ht="15.75" customHeight="1" s="13"/>
+    <row r="605" ht="15.75" customHeight="1" s="13"/>
+    <row r="606" ht="15.75" customHeight="1" s="13"/>
+    <row r="607" ht="15.75" customHeight="1" s="13"/>
+    <row r="608" ht="15.75" customHeight="1" s="13"/>
+    <row r="609" ht="15.75" customHeight="1" s="13"/>
+    <row r="610" ht="15.75" customHeight="1" s="13"/>
+    <row r="611" ht="15.75" customHeight="1" s="13"/>
+    <row r="612" ht="15.75" customHeight="1" s="13"/>
+    <row r="613" ht="15.75" customHeight="1" s="13"/>
+    <row r="614" ht="15.75" customHeight="1" s="13"/>
+    <row r="615" ht="15.75" customHeight="1" s="13"/>
+    <row r="616" ht="15.75" customHeight="1" s="13"/>
+    <row r="617" ht="15.75" customHeight="1" s="13"/>
+    <row r="618" ht="15.75" customHeight="1" s="13"/>
+    <row r="619" ht="15.75" customHeight="1" s="13"/>
+    <row r="620" ht="15.75" customHeight="1" s="13"/>
+    <row r="621" ht="15.75" customHeight="1" s="13"/>
+    <row r="622" ht="15.75" customHeight="1" s="13"/>
+    <row r="623" ht="15.75" customHeight="1" s="13"/>
+    <row r="624" ht="15.75" customHeight="1" s="13"/>
+    <row r="625" ht="15.75" customHeight="1" s="13"/>
+    <row r="626" ht="15.75" customHeight="1" s="13"/>
+    <row r="627" ht="15.75" customHeight="1" s="13"/>
+    <row r="628" ht="15.75" customHeight="1" s="13"/>
+    <row r="629" ht="15.75" customHeight="1" s="13"/>
+    <row r="630" ht="15.75" customHeight="1" s="13"/>
+    <row r="631" ht="15.75" customHeight="1" s="13"/>
+    <row r="632" ht="15.75" customHeight="1" s="13"/>
+    <row r="633" ht="15.75" customHeight="1" s="13"/>
+    <row r="634" ht="15.75" customHeight="1" s="13"/>
+    <row r="635" ht="15.75" customHeight="1" s="13"/>
+    <row r="636" ht="15.75" customHeight="1" s="13"/>
+    <row r="637" ht="15.75" customHeight="1" s="13"/>
+    <row r="638" ht="15.75" customHeight="1" s="13"/>
+    <row r="639" ht="15.75" customHeight="1" s="13"/>
+    <row r="640" ht="15.75" customHeight="1" s="13"/>
+    <row r="641" ht="15.75" customHeight="1" s="13"/>
+    <row r="642" ht="15.75" customHeight="1" s="13"/>
+    <row r="643" ht="15.75" customHeight="1" s="13"/>
+    <row r="644" ht="15.75" customHeight="1" s="13"/>
+    <row r="645" ht="15.75" customHeight="1" s="13"/>
+    <row r="646" ht="15.75" customHeight="1" s="13"/>
+    <row r="647" ht="15.75" customHeight="1" s="13"/>
+    <row r="648" ht="15.75" customHeight="1" s="13"/>
+    <row r="649" ht="15.75" customHeight="1" s="13"/>
+    <row r="650" ht="15.75" customHeight="1" s="13"/>
+    <row r="651" ht="15.75" customHeight="1" s="13"/>
+    <row r="652" ht="15.75" customHeight="1" s="13"/>
+    <row r="653" ht="15.75" customHeight="1" s="13"/>
+    <row r="654" ht="15.75" customHeight="1" s="13"/>
+    <row r="655" ht="15.75" customHeight="1" s="13"/>
+    <row r="656" ht="15.75" customHeight="1" s="13"/>
+    <row r="657" ht="15.75" customHeight="1" s="13"/>
+    <row r="658" ht="15.75" customHeight="1" s="13"/>
+    <row r="659" ht="15.75" customHeight="1" s="13"/>
+    <row r="660" ht="15.75" customHeight="1" s="13"/>
+    <row r="661" ht="15.75" customHeight="1" s="13"/>
+    <row r="662" ht="15.75" customHeight="1" s="13"/>
+    <row r="663" ht="15.75" customHeight="1" s="13"/>
+    <row r="664" ht="15.75" customHeight="1" s="13"/>
+    <row r="665" ht="15.75" customHeight="1" s="13"/>
+    <row r="666" ht="15.75" customHeight="1" s="13"/>
+    <row r="667" ht="15.75" customHeight="1" s="13"/>
+    <row r="668" ht="15.75" customHeight="1" s="13"/>
+    <row r="669" ht="15.75" customHeight="1" s="13"/>
+    <row r="670" ht="15.75" customHeight="1" s="13"/>
+    <row r="671" ht="15.75" customHeight="1" s="13"/>
+    <row r="672" ht="15.75" customHeight="1" s="13"/>
+    <row r="673" ht="15.75" customHeight="1" s="13"/>
+    <row r="674" ht="15.75" customHeight="1" s="13"/>
+    <row r="675" ht="15.75" customHeight="1" s="13"/>
+    <row r="676" ht="15.75" customHeight="1" s="13"/>
+    <row r="677" ht="15.75" customHeight="1" s="13"/>
+    <row r="678" ht="15.75" customHeight="1" s="13"/>
+    <row r="679" ht="15.75" customHeight="1" s="13"/>
+    <row r="680" ht="15.75" customHeight="1" s="13"/>
+    <row r="681" ht="15.75" customHeight="1" s="13"/>
+    <row r="682" ht="15.75" customHeight="1" s="13"/>
+    <row r="683" ht="15.75" customHeight="1" s="13"/>
+    <row r="684" ht="15.75" customHeight="1" s="13"/>
+    <row r="685" ht="15.75" customHeight="1" s="13"/>
+    <row r="686" ht="15.75" customHeight="1" s="13"/>
+    <row r="687" ht="15.75" customHeight="1" s="13"/>
+    <row r="688" ht="15.75" customHeight="1" s="13"/>
+    <row r="689" ht="15.75" customHeight="1" s="13"/>
+    <row r="690" ht="15.75" customHeight="1" s="13"/>
+    <row r="691" ht="15.75" customHeight="1" s="13"/>
+    <row r="692" ht="15.75" customHeight="1" s="13"/>
+    <row r="693" ht="15.75" customHeight="1" s="13"/>
+    <row r="694" ht="15.75" customHeight="1" s="13"/>
+    <row r="695" ht="15.75" customHeight="1" s="13"/>
+    <row r="696" ht="15.75" customHeight="1" s="13"/>
+    <row r="697" ht="15.75" customHeight="1" s="13"/>
+    <row r="698" ht="15.75" customHeight="1" s="13"/>
+    <row r="699" ht="15.75" customHeight="1" s="13"/>
+    <row r="700" ht="15.75" customHeight="1" s="13"/>
+    <row r="701" ht="15.75" customHeight="1" s="13"/>
+    <row r="702" ht="15.75" customHeight="1" s="13"/>
+    <row r="703" ht="15.75" customHeight="1" s="13"/>
+    <row r="704" ht="15.75" customHeight="1" s="13"/>
+    <row r="705" ht="15.75" customHeight="1" s="13"/>
+    <row r="706" ht="15.75" customHeight="1" s="13"/>
+    <row r="707" ht="15.75" customHeight="1" s="13"/>
+    <row r="708" ht="15.75" customHeight="1" s="13"/>
+    <row r="709" ht="15.75" customHeight="1" s="13"/>
+    <row r="710" ht="15.75" customHeight="1" s="13"/>
+    <row r="711" ht="15.75" customHeight="1" s="13"/>
+    <row r="712" ht="15.75" customHeight="1" s="13"/>
+    <row r="713" ht="15.75" customHeight="1" s="13"/>
+    <row r="714" ht="15.75" customHeight="1" s="13"/>
+    <row r="715" ht="15.75" customHeight="1" s="13"/>
+    <row r="716" ht="15.75" customHeight="1" s="13"/>
+    <row r="717" ht="15.75" customHeight="1" s="13"/>
+    <row r="718" ht="15.75" customHeight="1" s="13"/>
+    <row r="719" ht="15.75" customHeight="1" s="13"/>
+    <row r="720" ht="15.75" customHeight="1" s="13"/>
+    <row r="721" ht="15.75" customHeight="1" s="13"/>
+    <row r="722" ht="15.75" customHeight="1" s="13"/>
+    <row r="723" ht="15.75" customHeight="1" s="13"/>
+    <row r="724" ht="15.75" customHeight="1" s="13"/>
+    <row r="725" ht="15.75" customHeight="1" s="13"/>
+    <row r="726" ht="15.75" customHeight="1" s="13"/>
+    <row r="727" ht="15.75" customHeight="1" s="13"/>
+    <row r="728" ht="15.75" customHeight="1" s="13"/>
+    <row r="729" ht="15.75" customHeight="1" s="13"/>
+    <row r="730" ht="15.75" customHeight="1" s="13"/>
+    <row r="731" ht="15.75" customHeight="1" s="13"/>
+    <row r="732" ht="15.75" customHeight="1" s="13"/>
+    <row r="733" ht="15.75" customHeight="1" s="13"/>
+    <row r="734" ht="15.75" customHeight="1" s="13"/>
+    <row r="735" ht="15.75" customHeight="1" s="13"/>
+    <row r="736" ht="15.75" customHeight="1" s="13"/>
+    <row r="737" ht="15.75" customHeight="1" s="13"/>
+    <row r="738" ht="15.75" customHeight="1" s="13"/>
+    <row r="739" ht="15.75" customHeight="1" s="13"/>
+    <row r="740" ht="15.75" customHeight="1" s="13"/>
+    <row r="741" ht="15.75" customHeight="1" s="13"/>
+    <row r="742" ht="15.75" customHeight="1" s="13"/>
+    <row r="743" ht="15.75" customHeight="1" s="13"/>
+    <row r="744" ht="15.75" customHeight="1" s="13"/>
+    <row r="745" ht="15.75" customHeight="1" s="13"/>
+    <row r="746" ht="15.75" customHeight="1" s="13"/>
+    <row r="747" ht="15.75" customHeight="1" s="13"/>
+    <row r="748" ht="15.75" customHeight="1" s="13"/>
+    <row r="749" ht="15.75" customHeight="1" s="13"/>
+    <row r="750" ht="15.75" customHeight="1" s="13"/>
+    <row r="751" ht="15.75" customHeight="1" s="13"/>
+    <row r="752" ht="15.75" customHeight="1" s="13"/>
+    <row r="753" ht="15.75" customHeight="1" s="13"/>
+    <row r="754" ht="15.75" customHeight="1" s="13"/>
+    <row r="755" ht="15.75" customHeight="1" s="13"/>
+    <row r="756" ht="15.75" customHeight="1" s="13"/>
+    <row r="757" ht="15.75" customHeight="1" s="13"/>
+    <row r="758" ht="15.75" customHeight="1" s="13"/>
+    <row r="759" ht="15.75" customHeight="1" s="13"/>
+    <row r="760" ht="15.75" customHeight="1" s="13"/>
+    <row r="761" ht="15.75" customHeight="1" s="13"/>
+    <row r="762" ht="15.75" customHeight="1" s="13"/>
+    <row r="763" ht="15.75" customHeight="1" s="13"/>
+    <row r="764" ht="15.75" customHeight="1" s="13"/>
+    <row r="765" ht="15.75" customHeight="1" s="13"/>
+    <row r="766" ht="15.75" customHeight="1" s="13"/>
+    <row r="767" ht="15.75" customHeight="1" s="13"/>
+    <row r="768" ht="15.75" customHeight="1" s="13"/>
+    <row r="769" ht="15.75" customHeight="1" s="13"/>
+    <row r="770" ht="15.75" customHeight="1" s="13"/>
+    <row r="771" ht="15.75" customHeight="1" s="13"/>
+    <row r="772" ht="15.75" customHeight="1" s="13"/>
+    <row r="773" ht="15.75" customHeight="1" s="13"/>
+    <row r="774" ht="15.75" customHeight="1" s="13"/>
+    <row r="775" ht="15.75" customHeight="1" s="13"/>
+    <row r="776" ht="15.75" customHeight="1" s="13"/>
+    <row r="777" ht="15.75" customHeight="1" s="13"/>
+    <row r="778" ht="15.75" customHeight="1" s="13"/>
+    <row r="779" ht="15.75" customHeight="1" s="13"/>
+    <row r="780" ht="15.75" customHeight="1" s="13"/>
+    <row r="781" ht="15.75" customHeight="1" s="13"/>
+    <row r="782" ht="15.75" customHeight="1" s="13"/>
+    <row r="783" ht="15.75" customHeight="1" s="13"/>
+    <row r="784" ht="15.75" customHeight="1" s="13"/>
+    <row r="785" ht="15.75" customHeight="1" s="13"/>
+    <row r="786" ht="15.75" customHeight="1" s="13"/>
+    <row r="787" ht="15.75" customHeight="1" s="13"/>
+    <row r="788" ht="15.75" customHeight="1" s="13"/>
+    <row r="789" ht="15.75" customHeight="1" s="13"/>
+    <row r="790" ht="15.75" customHeight="1" s="13"/>
+    <row r="791" ht="15.75" customHeight="1" s="13"/>
+    <row r="792" ht="15.75" customHeight="1" s="13"/>
+    <row r="793" ht="15.75" customHeight="1" s="13"/>
+    <row r="794" ht="15.75" customHeight="1" s="13"/>
+    <row r="795" ht="15.75" customHeight="1" s="13"/>
+    <row r="796" ht="15.75" customHeight="1" s="13"/>
+    <row r="797" ht="15.75" customHeight="1" s="13"/>
+    <row r="798" ht="15.75" customHeight="1" s="13"/>
+    <row r="799" ht="15.75" customHeight="1" s="13"/>
+    <row r="800" ht="15.75" customHeight="1" s="13"/>
+    <row r="801" ht="15.75" customHeight="1" s="13"/>
+    <row r="802" ht="15.75" customHeight="1" s="13"/>
+    <row r="803" ht="15.75" customHeight="1" s="13"/>
+    <row r="804" ht="15.75" customHeight="1" s="13"/>
+    <row r="805" ht="15.75" customHeight="1" s="13"/>
+    <row r="806" ht="15.75" customHeight="1" s="13"/>
+    <row r="807" ht="15.75" customHeight="1" s="13"/>
+    <row r="808" ht="15.75" customHeight="1" s="13"/>
+    <row r="809" ht="15.75" customHeight="1" s="13"/>
+    <row r="810" ht="15.75" customHeight="1" s="13"/>
+    <row r="811" ht="15.75" customHeight="1" s="13"/>
+    <row r="812" ht="15.75" customHeight="1" s="13"/>
+    <row r="813" ht="15.75" customHeight="1" s="13"/>
+    <row r="814" ht="15.75" customHeight="1" s="13"/>
+    <row r="815" ht="15.75" customHeight="1" s="13"/>
+    <row r="816" ht="15.75" customHeight="1" s="13"/>
+    <row r="817" ht="15.75" customHeight="1" s="13"/>
+    <row r="818" ht="15.75" customHeight="1" s="13"/>
+    <row r="819" ht="15.75" customHeight="1" s="13"/>
+    <row r="820" ht="15.75" customHeight="1" s="13"/>
+    <row r="821" ht="15.75" customHeight="1" s="13"/>
+    <row r="822" ht="15.75" customHeight="1" s="13"/>
+    <row r="823" ht="15.75" customHeight="1" s="13"/>
+    <row r="824" ht="15.75" customHeight="1" s="13"/>
+    <row r="825" ht="15.75" customHeight="1" s="13"/>
+    <row r="826" ht="15.75" customHeight="1" s="13"/>
+    <row r="827" ht="15.75" customHeight="1" s="13"/>
+    <row r="828" ht="15.75" customHeight="1" s="13"/>
+    <row r="829" ht="15.75" customHeight="1" s="13"/>
+    <row r="830" ht="15.75" customHeight="1" s="13"/>
+    <row r="831" ht="15.75" customHeight="1" s="13"/>
+    <row r="832" ht="15.75" customHeight="1" s="13"/>
+    <row r="833" ht="15.75" customHeight="1" s="13"/>
+    <row r="834" ht="15.75" customHeight="1" s="13"/>
+    <row r="835" ht="15.75" customHeight="1" s="13"/>
+    <row r="836" ht="15.75" customHeight="1" s="13"/>
+    <row r="837" ht="15.75" customHeight="1" s="13"/>
+    <row r="838" ht="15.75" customHeight="1" s="13"/>
+    <row r="839" ht="15.75" customHeight="1" s="13"/>
+    <row r="840" ht="15.75" customHeight="1" s="13"/>
+    <row r="841" ht="15.75" customHeight="1" s="13"/>
+    <row r="842" ht="15.75" customHeight="1" s="13"/>
+    <row r="843" ht="15.75" customHeight="1" s="13"/>
+    <row r="844" ht="15.75" customHeight="1" s="13"/>
+    <row r="845" ht="15.75" customHeight="1" s="13"/>
+    <row r="846" ht="15.75" customHeight="1" s="13"/>
+    <row r="847" ht="15.75" customHeight="1" s="13"/>
+    <row r="848" ht="15.75" customHeight="1" s="13"/>
+    <row r="849" ht="15.75" customHeight="1" s="13"/>
+    <row r="850" ht="15.75" customHeight="1" s="13"/>
+    <row r="851" ht="15.75" customHeight="1" s="13"/>
+    <row r="852" ht="15.75" customHeight="1" s="13"/>
+    <row r="853" ht="15.75" customHeight="1" s="13"/>
+    <row r="854" ht="15.75" customHeight="1" s="13"/>
+    <row r="855" ht="15.75" customHeight="1" s="13"/>
+    <row r="856" ht="15.75" customHeight="1" s="13"/>
+    <row r="857" ht="15.75" customHeight="1" s="13"/>
+    <row r="858" ht="15.75" customHeight="1" s="13"/>
+    <row r="859" ht="15.75" customHeight="1" s="13"/>
+    <row r="860" ht="15.75" customHeight="1" s="13"/>
+    <row r="861" ht="15.75" customHeight="1" s="13"/>
+    <row r="862" ht="15.75" customHeight="1" s="13"/>
+    <row r="863" ht="15.75" customHeight="1" s="13"/>
+    <row r="864" ht="15.75" customHeight="1" s="13"/>
+    <row r="865" ht="15.75" customHeight="1" s="13"/>
+    <row r="866" ht="15.75" customHeight="1" s="13"/>
+    <row r="867" ht="15.75" customHeight="1" s="13"/>
+    <row r="868" ht="15.75" customHeight="1" s="13"/>
+    <row r="869" ht="15.75" customHeight="1" s="13"/>
+    <row r="870" ht="15.75" customHeight="1" s="13"/>
+    <row r="871" ht="15.75" customHeight="1" s="13"/>
+    <row r="872" ht="15.75" customHeight="1" s="13"/>
+    <row r="873" ht="15.75" customHeight="1" s="13"/>
+    <row r="874" ht="15.75" customHeight="1" s="13"/>
+    <row r="875" ht="15.75" customHeight="1" s="13"/>
+    <row r="876" ht="15.75" customHeight="1" s="13"/>
+    <row r="877" ht="15.75" customHeight="1" s="13"/>
+    <row r="878" ht="15.75" customHeight="1" s="13"/>
+    <row r="879" ht="15.75" customHeight="1" s="13"/>
+    <row r="880" ht="15.75" customHeight="1" s="13"/>
+    <row r="881" ht="15.75" customHeight="1" s="13"/>
+    <row r="882" ht="15.75" customHeight="1" s="13"/>
+    <row r="883" ht="15.75" customHeight="1" s="13"/>
+    <row r="884" ht="15.75" customHeight="1" s="13"/>
+    <row r="885" ht="15.75" customHeight="1" s="13"/>
+    <row r="886" ht="15.75" customHeight="1" s="13"/>
+    <row r="887" ht="15.75" customHeight="1" s="13"/>
+    <row r="888" ht="15.75" customHeight="1" s="13"/>
+    <row r="889" ht="15.75" customHeight="1" s="13"/>
+    <row r="890" ht="15.75" customHeight="1" s="13"/>
+    <row r="891" ht="15.75" customHeight="1" s="13"/>
+    <row r="892" ht="15.75" customHeight="1" s="13"/>
+    <row r="893" ht="15.75" customHeight="1" s="13"/>
+    <row r="894" ht="15.75" customHeight="1" s="13"/>
+    <row r="895" ht="15.75" customHeight="1" s="13"/>
+    <row r="896" ht="15.75" customHeight="1" s="13"/>
+    <row r="897" ht="15.75" customHeight="1" s="13"/>
+    <row r="898" ht="15.75" customHeight="1" s="13"/>
+    <row r="899" ht="15.75" customHeight="1" s="13"/>
+    <row r="900" ht="15.75" customHeight="1" s="13"/>
+    <row r="901" ht="15.75" customHeight="1" s="13"/>
+    <row r="902" ht="15.75" customHeight="1" s="13"/>
+    <row r="903" ht="15.75" customHeight="1" s="13"/>
+    <row r="904" ht="15.75" customHeight="1" s="13"/>
+    <row r="905" ht="15.75" customHeight="1" s="13"/>
+    <row r="906" ht="15.75" customHeight="1" s="13"/>
+    <row r="907" ht="15.75" customHeight="1" s="13"/>
+    <row r="908" ht="15.75" customHeight="1" s="13"/>
+    <row r="909" ht="15.75" customHeight="1" s="13"/>
+    <row r="910" ht="15.75" customHeight="1" s="13"/>
+    <row r="911" ht="15.75" customHeight="1" s="13"/>
+    <row r="912" ht="15.75" customHeight="1" s="13"/>
+    <row r="913" ht="15.75" customHeight="1" s="13"/>
+    <row r="914" ht="15.75" customHeight="1" s="13"/>
+    <row r="915" ht="15.75" customHeight="1" s="13"/>
+    <row r="916" ht="15.75" customHeight="1" s="13"/>
+    <row r="917" ht="15.75" customHeight="1" s="13"/>
+    <row r="918" ht="15.75" customHeight="1" s="13"/>
+    <row r="919" ht="15.75" customHeight="1" s="13"/>
+    <row r="920" ht="15.75" customHeight="1" s="13"/>
+    <row r="921" ht="15.75" customHeight="1" s="13"/>
+    <row r="922" ht="15.75" customHeight="1" s="13"/>
+    <row r="923" ht="15.75" customHeight="1" s="13"/>
+    <row r="924" ht="15.75" customHeight="1" s="13"/>
+    <row r="925" ht="15.75" customHeight="1" s="13"/>
+    <row r="926" ht="15.75" customHeight="1" s="13"/>
+    <row r="927" ht="15.75" customHeight="1" s="13"/>
+    <row r="928" ht="15.75" customHeight="1" s="13"/>
+    <row r="929" ht="15.75" customHeight="1" s="13"/>
+    <row r="930" ht="15.75" customHeight="1" s="13"/>
+    <row r="931" ht="15.75" customHeight="1" s="13"/>
+    <row r="932" ht="15.75" customHeight="1" s="13"/>
+    <row r="933" ht="15.75" customHeight="1" s="13"/>
+    <row r="934" ht="15.75" customHeight="1" s="13"/>
+    <row r="935" ht="15.75" customHeight="1" s="13"/>
+    <row r="936" ht="15.75" customHeight="1" s="13"/>
+    <row r="937" ht="15.75" customHeight="1" s="13"/>
+    <row r="938" ht="15.75" customHeight="1" s="13"/>
+    <row r="939" ht="15.75" customHeight="1" s="13"/>
+    <row r="940" ht="15.75" customHeight="1" s="13"/>
+    <row r="941" ht="15.75" customHeight="1" s="13"/>
+    <row r="942" ht="15.75" customHeight="1" s="13"/>
+    <row r="943" ht="15.75" customHeight="1" s="13"/>
+    <row r="944" ht="15.75" customHeight="1" s="13"/>
+    <row r="945" ht="15.75" customHeight="1" s="13"/>
+    <row r="946" ht="15.75" customHeight="1" s="13"/>
+    <row r="947" ht="15.75" customHeight="1" s="13"/>
+    <row r="948" ht="15.75" customHeight="1" s="13"/>
+    <row r="949" ht="15.75" customHeight="1" s="13"/>
+    <row r="950" ht="15.75" customHeight="1" s="13"/>
+    <row r="951" ht="15.75" customHeight="1" s="13"/>
+    <row r="952" ht="15.75" customHeight="1" s="13"/>
+    <row r="953" ht="15.75" customHeight="1" s="13"/>
+    <row r="954" ht="15.75" customHeight="1" s="13"/>
+    <row r="955" ht="15.75" customHeight="1" s="13"/>
+    <row r="956" ht="15.75" customHeight="1" s="13"/>
+    <row r="957" ht="15.75" customHeight="1" s="13"/>
+    <row r="958" ht="15.75" customHeight="1" s="13"/>
+    <row r="959" ht="15.75" customHeight="1" s="13"/>
+    <row r="960" ht="15.75" customHeight="1" s="13"/>
+    <row r="961" ht="15.75" customHeight="1" s="13"/>
+    <row r="962" ht="15.75" customHeight="1" s="13"/>
+    <row r="963" ht="15.75" customHeight="1" s="13"/>
+    <row r="964" ht="15.75" customHeight="1" s="13"/>
+    <row r="965" ht="15.75" customHeight="1" s="13"/>
+    <row r="966" ht="15.75" customHeight="1" s="13"/>
+    <row r="967" ht="15.75" customHeight="1" s="13"/>
+    <row r="968" ht="15.75" customHeight="1" s="13"/>
+    <row r="969" ht="15.75" customHeight="1" s="13"/>
+    <row r="970" ht="15.75" customHeight="1" s="13"/>
+    <row r="971" ht="15.75" customHeight="1" s="13"/>
+    <row r="972" ht="15.75" customHeight="1" s="13"/>
+    <row r="973" ht="15.75" customHeight="1" s="13"/>
+    <row r="974" ht="15.75" customHeight="1" s="13"/>
+    <row r="975" ht="15.75" customHeight="1" s="13"/>
+    <row r="976" ht="15.75" customHeight="1" s="13"/>
+    <row r="977" ht="15.75" customHeight="1" s="13"/>
+    <row r="978" ht="15.75" customHeight="1" s="13"/>
+    <row r="979" ht="15.75" customHeight="1" s="13"/>
+    <row r="980" ht="15.75" customHeight="1" s="13"/>
+    <row r="981" ht="15.75" customHeight="1" s="13"/>
+    <row r="982" ht="15.75" customHeight="1" s="13"/>
+    <row r="983" ht="15.75" customHeight="1" s="13"/>
+    <row r="984" ht="15.75" customHeight="1" s="13"/>
+    <row r="985" ht="15.75" customHeight="1" s="13"/>
+    <row r="986" ht="15.75" customHeight="1" s="13"/>
+    <row r="987" ht="15.75" customHeight="1" s="13"/>
+    <row r="988" ht="15.75" customHeight="1" s="13"/>
+    <row r="989" ht="15.75" customHeight="1" s="13"/>
+    <row r="990" ht="15.75" customHeight="1" s="13"/>
+    <row r="991" ht="15.75" customHeight="1" s="13"/>
+    <row r="992" ht="15.75" customHeight="1" s="13"/>
+    <row r="993" ht="15.75" customHeight="1" s="13"/>
+    <row r="994" ht="15.75" customHeight="1" s="13"/>
+    <row r="995" ht="15.75" customHeight="1" s="13"/>
+    <row r="996" ht="15.75" customHeight="1" s="13"/>
+    <row r="997" ht="15.75" customHeight="1" s="13"/>
+    <row r="998" ht="15.75" customHeight="1" s="13"/>
+    <row r="999" ht="15.75" customHeight="1" s="13"/>
+    <row r="1000" ht="15.75" customHeight="1" s="13"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1085,108 +3905,1092 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col width="7.75" customWidth="1" style="13" min="1" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Unit: dimensionless (MW-peak/MW-avg)</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>summer</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>winter</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>LDVs</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4" t="n">
         <v>3.52891</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4" t="n">
         <v>2.83895</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>HDVs</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.59906</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4" t="n">
         <v>0.61531</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4" t="n">
         <v>1.16151</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4" t="n">
         <v>1.22451</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>rail</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4" t="n">
         <v>1.16151</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4" t="n">
         <v>1.22451</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>ships</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4" t="n">
         <v>1.16151</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4" t="n">
         <v>1.22451</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>motorbikes</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4" t="n">
         <v>1.16151</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>1.22451</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1" s="13"/>
+    <row r="22" ht="15.75" customHeight="1" s="13"/>
+    <row r="23" ht="15.75" customHeight="1" s="13"/>
+    <row r="24" ht="15.75" customHeight="1" s="13"/>
+    <row r="25" ht="15.75" customHeight="1" s="13"/>
+    <row r="26" ht="15.75" customHeight="1" s="13"/>
+    <row r="27" ht="15.75" customHeight="1" s="13"/>
+    <row r="28" ht="15.75" customHeight="1" s="13"/>
+    <row r="29" ht="15.75" customHeight="1" s="13"/>
+    <row r="30" ht="15.75" customHeight="1" s="13"/>
+    <row r="31" ht="15.75" customHeight="1" s="13"/>
+    <row r="32" ht="15.75" customHeight="1" s="13"/>
+    <row r="33" ht="15.75" customHeight="1" s="13"/>
+    <row r="34" ht="15.75" customHeight="1" s="13"/>
+    <row r="35" ht="15.75" customHeight="1" s="13"/>
+    <row r="36" ht="15.75" customHeight="1" s="13"/>
+    <row r="37" ht="15.75" customHeight="1" s="13"/>
+    <row r="38" ht="15.75" customHeight="1" s="13"/>
+    <row r="39" ht="15.75" customHeight="1" s="13"/>
+    <row r="40" ht="15.75" customHeight="1" s="13"/>
+    <row r="41" ht="15.75" customHeight="1" s="13"/>
+    <row r="42" ht="15.75" customHeight="1" s="13"/>
+    <row r="43" ht="15.75" customHeight="1" s="13"/>
+    <row r="44" ht="15.75" customHeight="1" s="13"/>
+    <row r="45" ht="15.75" customHeight="1" s="13"/>
+    <row r="46" ht="15.75" customHeight="1" s="13"/>
+    <row r="47" ht="15.75" customHeight="1" s="13"/>
+    <row r="48" ht="15.75" customHeight="1" s="13"/>
+    <row r="49" ht="15.75" customHeight="1" s="13"/>
+    <row r="50" ht="15.75" customHeight="1" s="13"/>
+    <row r="51" ht="15.75" customHeight="1" s="13"/>
+    <row r="52" ht="15.75" customHeight="1" s="13"/>
+    <row r="53" ht="15.75" customHeight="1" s="13"/>
+    <row r="54" ht="15.75" customHeight="1" s="13"/>
+    <row r="55" ht="15.75" customHeight="1" s="13"/>
+    <row r="56" ht="15.75" customHeight="1" s="13"/>
+    <row r="57" ht="15.75" customHeight="1" s="13"/>
+    <row r="58" ht="15.75" customHeight="1" s="13"/>
+    <row r="59" ht="15.75" customHeight="1" s="13"/>
+    <row r="60" ht="15.75" customHeight="1" s="13"/>
+    <row r="61" ht="15.75" customHeight="1" s="13"/>
+    <row r="62" ht="15.75" customHeight="1" s="13"/>
+    <row r="63" ht="15.75" customHeight="1" s="13"/>
+    <row r="64" ht="15.75" customHeight="1" s="13"/>
+    <row r="65" ht="15.75" customHeight="1" s="13"/>
+    <row r="66" ht="15.75" customHeight="1" s="13"/>
+    <row r="67" ht="15.75" customHeight="1" s="13"/>
+    <row r="68" ht="15.75" customHeight="1" s="13"/>
+    <row r="69" ht="15.75" customHeight="1" s="13"/>
+    <row r="70" ht="15.75" customHeight="1" s="13"/>
+    <row r="71" ht="15.75" customHeight="1" s="13"/>
+    <row r="72" ht="15.75" customHeight="1" s="13"/>
+    <row r="73" ht="15.75" customHeight="1" s="13"/>
+    <row r="74" ht="15.75" customHeight="1" s="13"/>
+    <row r="75" ht="15.75" customHeight="1" s="13"/>
+    <row r="76" ht="15.75" customHeight="1" s="13"/>
+    <row r="77" ht="15.75" customHeight="1" s="13"/>
+    <row r="78" ht="15.75" customHeight="1" s="13"/>
+    <row r="79" ht="15.75" customHeight="1" s="13"/>
+    <row r="80" ht="15.75" customHeight="1" s="13"/>
+    <row r="81" ht="15.75" customHeight="1" s="13"/>
+    <row r="82" ht="15.75" customHeight="1" s="13"/>
+    <row r="83" ht="15.75" customHeight="1" s="13"/>
+    <row r="84" ht="15.75" customHeight="1" s="13"/>
+    <row r="85" ht="15.75" customHeight="1" s="13"/>
+    <row r="86" ht="15.75" customHeight="1" s="13"/>
+    <row r="87" ht="15.75" customHeight="1" s="13"/>
+    <row r="88" ht="15.75" customHeight="1" s="13"/>
+    <row r="89" ht="15.75" customHeight="1" s="13"/>
+    <row r="90" ht="15.75" customHeight="1" s="13"/>
+    <row r="91" ht="15.75" customHeight="1" s="13"/>
+    <row r="92" ht="15.75" customHeight="1" s="13"/>
+    <row r="93" ht="15.75" customHeight="1" s="13"/>
+    <row r="94" ht="15.75" customHeight="1" s="13"/>
+    <row r="95" ht="15.75" customHeight="1" s="13"/>
+    <row r="96" ht="15.75" customHeight="1" s="13"/>
+    <row r="97" ht="15.75" customHeight="1" s="13"/>
+    <row r="98" ht="15.75" customHeight="1" s="13"/>
+    <row r="99" ht="15.75" customHeight="1" s="13"/>
+    <row r="100" ht="15.75" customHeight="1" s="13"/>
+    <row r="101" ht="15.75" customHeight="1" s="13"/>
+    <row r="102" ht="15.75" customHeight="1" s="13"/>
+    <row r="103" ht="15.75" customHeight="1" s="13"/>
+    <row r="104" ht="15.75" customHeight="1" s="13"/>
+    <row r="105" ht="15.75" customHeight="1" s="13"/>
+    <row r="106" ht="15.75" customHeight="1" s="13"/>
+    <row r="107" ht="15.75" customHeight="1" s="13"/>
+    <row r="108" ht="15.75" customHeight="1" s="13"/>
+    <row r="109" ht="15.75" customHeight="1" s="13"/>
+    <row r="110" ht="15.75" customHeight="1" s="13"/>
+    <row r="111" ht="15.75" customHeight="1" s="13"/>
+    <row r="112" ht="15.75" customHeight="1" s="13"/>
+    <row r="113" ht="15.75" customHeight="1" s="13"/>
+    <row r="114" ht="15.75" customHeight="1" s="13"/>
+    <row r="115" ht="15.75" customHeight="1" s="13"/>
+    <row r="116" ht="15.75" customHeight="1" s="13"/>
+    <row r="117" ht="15.75" customHeight="1" s="13"/>
+    <row r="118" ht="15.75" customHeight="1" s="13"/>
+    <row r="119" ht="15.75" customHeight="1" s="13"/>
+    <row r="120" ht="15.75" customHeight="1" s="13"/>
+    <row r="121" ht="15.75" customHeight="1" s="13"/>
+    <row r="122" ht="15.75" customHeight="1" s="13"/>
+    <row r="123" ht="15.75" customHeight="1" s="13"/>
+    <row r="124" ht="15.75" customHeight="1" s="13"/>
+    <row r="125" ht="15.75" customHeight="1" s="13"/>
+    <row r="126" ht="15.75" customHeight="1" s="13"/>
+    <row r="127" ht="15.75" customHeight="1" s="13"/>
+    <row r="128" ht="15.75" customHeight="1" s="13"/>
+    <row r="129" ht="15.75" customHeight="1" s="13"/>
+    <row r="130" ht="15.75" customHeight="1" s="13"/>
+    <row r="131" ht="15.75" customHeight="1" s="13"/>
+    <row r="132" ht="15.75" customHeight="1" s="13"/>
+    <row r="133" ht="15.75" customHeight="1" s="13"/>
+    <row r="134" ht="15.75" customHeight="1" s="13"/>
+    <row r="135" ht="15.75" customHeight="1" s="13"/>
+    <row r="136" ht="15.75" customHeight="1" s="13"/>
+    <row r="137" ht="15.75" customHeight="1" s="13"/>
+    <row r="138" ht="15.75" customHeight="1" s="13"/>
+    <row r="139" ht="15.75" customHeight="1" s="13"/>
+    <row r="140" ht="15.75" customHeight="1" s="13"/>
+    <row r="141" ht="15.75" customHeight="1" s="13"/>
+    <row r="142" ht="15.75" customHeight="1" s="13"/>
+    <row r="143" ht="15.75" customHeight="1" s="13"/>
+    <row r="144" ht="15.75" customHeight="1" s="13"/>
+    <row r="145" ht="15.75" customHeight="1" s="13"/>
+    <row r="146" ht="15.75" customHeight="1" s="13"/>
+    <row r="147" ht="15.75" customHeight="1" s="13"/>
+    <row r="148" ht="15.75" customHeight="1" s="13"/>
+    <row r="149" ht="15.75" customHeight="1" s="13"/>
+    <row r="150" ht="15.75" customHeight="1" s="13"/>
+    <row r="151" ht="15.75" customHeight="1" s="13"/>
+    <row r="152" ht="15.75" customHeight="1" s="13"/>
+    <row r="153" ht="15.75" customHeight="1" s="13"/>
+    <row r="154" ht="15.75" customHeight="1" s="13"/>
+    <row r="155" ht="15.75" customHeight="1" s="13"/>
+    <row r="156" ht="15.75" customHeight="1" s="13"/>
+    <row r="157" ht="15.75" customHeight="1" s="13"/>
+    <row r="158" ht="15.75" customHeight="1" s="13"/>
+    <row r="159" ht="15.75" customHeight="1" s="13"/>
+    <row r="160" ht="15.75" customHeight="1" s="13"/>
+    <row r="161" ht="15.75" customHeight="1" s="13"/>
+    <row r="162" ht="15.75" customHeight="1" s="13"/>
+    <row r="163" ht="15.75" customHeight="1" s="13"/>
+    <row r="164" ht="15.75" customHeight="1" s="13"/>
+    <row r="165" ht="15.75" customHeight="1" s="13"/>
+    <row r="166" ht="15.75" customHeight="1" s="13"/>
+    <row r="167" ht="15.75" customHeight="1" s="13"/>
+    <row r="168" ht="15.75" customHeight="1" s="13"/>
+    <row r="169" ht="15.75" customHeight="1" s="13"/>
+    <row r="170" ht="15.75" customHeight="1" s="13"/>
+    <row r="171" ht="15.75" customHeight="1" s="13"/>
+    <row r="172" ht="15.75" customHeight="1" s="13"/>
+    <row r="173" ht="15.75" customHeight="1" s="13"/>
+    <row r="174" ht="15.75" customHeight="1" s="13"/>
+    <row r="175" ht="15.75" customHeight="1" s="13"/>
+    <row r="176" ht="15.75" customHeight="1" s="13"/>
+    <row r="177" ht="15.75" customHeight="1" s="13"/>
+    <row r="178" ht="15.75" customHeight="1" s="13"/>
+    <row r="179" ht="15.75" customHeight="1" s="13"/>
+    <row r="180" ht="15.75" customHeight="1" s="13"/>
+    <row r="181" ht="15.75" customHeight="1" s="13"/>
+    <row r="182" ht="15.75" customHeight="1" s="13"/>
+    <row r="183" ht="15.75" customHeight="1" s="13"/>
+    <row r="184" ht="15.75" customHeight="1" s="13"/>
+    <row r="185" ht="15.75" customHeight="1" s="13"/>
+    <row r="186" ht="15.75" customHeight="1" s="13"/>
+    <row r="187" ht="15.75" customHeight="1" s="13"/>
+    <row r="188" ht="15.75" customHeight="1" s="13"/>
+    <row r="189" ht="15.75" customHeight="1" s="13"/>
+    <row r="190" ht="15.75" customHeight="1" s="13"/>
+    <row r="191" ht="15.75" customHeight="1" s="13"/>
+    <row r="192" ht="15.75" customHeight="1" s="13"/>
+    <row r="193" ht="15.75" customHeight="1" s="13"/>
+    <row r="194" ht="15.75" customHeight="1" s="13"/>
+    <row r="195" ht="15.75" customHeight="1" s="13"/>
+    <row r="196" ht="15.75" customHeight="1" s="13"/>
+    <row r="197" ht="15.75" customHeight="1" s="13"/>
+    <row r="198" ht="15.75" customHeight="1" s="13"/>
+    <row r="199" ht="15.75" customHeight="1" s="13"/>
+    <row r="200" ht="15.75" customHeight="1" s="13"/>
+    <row r="201" ht="15.75" customHeight="1" s="13"/>
+    <row r="202" ht="15.75" customHeight="1" s="13"/>
+    <row r="203" ht="15.75" customHeight="1" s="13"/>
+    <row r="204" ht="15.75" customHeight="1" s="13"/>
+    <row r="205" ht="15.75" customHeight="1" s="13"/>
+    <row r="206" ht="15.75" customHeight="1" s="13"/>
+    <row r="207" ht="15.75" customHeight="1" s="13"/>
+    <row r="208" ht="15.75" customHeight="1" s="13"/>
+    <row r="209" ht="15.75" customHeight="1" s="13"/>
+    <row r="210" ht="15.75" customHeight="1" s="13"/>
+    <row r="211" ht="15.75" customHeight="1" s="13"/>
+    <row r="212" ht="15.75" customHeight="1" s="13"/>
+    <row r="213" ht="15.75" customHeight="1" s="13"/>
+    <row r="214" ht="15.75" customHeight="1" s="13"/>
+    <row r="215" ht="15.75" customHeight="1" s="13"/>
+    <row r="216" ht="15.75" customHeight="1" s="13"/>
+    <row r="217" ht="15.75" customHeight="1" s="13"/>
+    <row r="218" ht="15.75" customHeight="1" s="13"/>
+    <row r="219" ht="15.75" customHeight="1" s="13"/>
+    <row r="220" ht="15.75" customHeight="1" s="13"/>
+    <row r="221" ht="15.75" customHeight="1" s="13"/>
+    <row r="222" ht="15.75" customHeight="1" s="13"/>
+    <row r="223" ht="15.75" customHeight="1" s="13"/>
+    <row r="224" ht="15.75" customHeight="1" s="13"/>
+    <row r="225" ht="15.75" customHeight="1" s="13"/>
+    <row r="226" ht="15.75" customHeight="1" s="13"/>
+    <row r="227" ht="15.75" customHeight="1" s="13"/>
+    <row r="228" ht="15.75" customHeight="1" s="13"/>
+    <row r="229" ht="15.75" customHeight="1" s="13"/>
+    <row r="230" ht="15.75" customHeight="1" s="13"/>
+    <row r="231" ht="15.75" customHeight="1" s="13"/>
+    <row r="232" ht="15.75" customHeight="1" s="13"/>
+    <row r="233" ht="15.75" customHeight="1" s="13"/>
+    <row r="234" ht="15.75" customHeight="1" s="13"/>
+    <row r="235" ht="15.75" customHeight="1" s="13"/>
+    <row r="236" ht="15.75" customHeight="1" s="13"/>
+    <row r="237" ht="15.75" customHeight="1" s="13"/>
+    <row r="238" ht="15.75" customHeight="1" s="13"/>
+    <row r="239" ht="15.75" customHeight="1" s="13"/>
+    <row r="240" ht="15.75" customHeight="1" s="13"/>
+    <row r="241" ht="15.75" customHeight="1" s="13"/>
+    <row r="242" ht="15.75" customHeight="1" s="13"/>
+    <row r="243" ht="15.75" customHeight="1" s="13"/>
+    <row r="244" ht="15.75" customHeight="1" s="13"/>
+    <row r="245" ht="15.75" customHeight="1" s="13"/>
+    <row r="246" ht="15.75" customHeight="1" s="13"/>
+    <row r="247" ht="15.75" customHeight="1" s="13"/>
+    <row r="248" ht="15.75" customHeight="1" s="13"/>
+    <row r="249" ht="15.75" customHeight="1" s="13"/>
+    <row r="250" ht="15.75" customHeight="1" s="13"/>
+    <row r="251" ht="15.75" customHeight="1" s="13"/>
+    <row r="252" ht="15.75" customHeight="1" s="13"/>
+    <row r="253" ht="15.75" customHeight="1" s="13"/>
+    <row r="254" ht="15.75" customHeight="1" s="13"/>
+    <row r="255" ht="15.75" customHeight="1" s="13"/>
+    <row r="256" ht="15.75" customHeight="1" s="13"/>
+    <row r="257" ht="15.75" customHeight="1" s="13"/>
+    <row r="258" ht="15.75" customHeight="1" s="13"/>
+    <row r="259" ht="15.75" customHeight="1" s="13"/>
+    <row r="260" ht="15.75" customHeight="1" s="13"/>
+    <row r="261" ht="15.75" customHeight="1" s="13"/>
+    <row r="262" ht="15.75" customHeight="1" s="13"/>
+    <row r="263" ht="15.75" customHeight="1" s="13"/>
+    <row r="264" ht="15.75" customHeight="1" s="13"/>
+    <row r="265" ht="15.75" customHeight="1" s="13"/>
+    <row r="266" ht="15.75" customHeight="1" s="13"/>
+    <row r="267" ht="15.75" customHeight="1" s="13"/>
+    <row r="268" ht="15.75" customHeight="1" s="13"/>
+    <row r="269" ht="15.75" customHeight="1" s="13"/>
+    <row r="270" ht="15.75" customHeight="1" s="13"/>
+    <row r="271" ht="15.75" customHeight="1" s="13"/>
+    <row r="272" ht="15.75" customHeight="1" s="13"/>
+    <row r="273" ht="15.75" customHeight="1" s="13"/>
+    <row r="274" ht="15.75" customHeight="1" s="13"/>
+    <row r="275" ht="15.75" customHeight="1" s="13"/>
+    <row r="276" ht="15.75" customHeight="1" s="13"/>
+    <row r="277" ht="15.75" customHeight="1" s="13"/>
+    <row r="278" ht="15.75" customHeight="1" s="13"/>
+    <row r="279" ht="15.75" customHeight="1" s="13"/>
+    <row r="280" ht="15.75" customHeight="1" s="13"/>
+    <row r="281" ht="15.75" customHeight="1" s="13"/>
+    <row r="282" ht="15.75" customHeight="1" s="13"/>
+    <row r="283" ht="15.75" customHeight="1" s="13"/>
+    <row r="284" ht="15.75" customHeight="1" s="13"/>
+    <row r="285" ht="15.75" customHeight="1" s="13"/>
+    <row r="286" ht="15.75" customHeight="1" s="13"/>
+    <row r="287" ht="15.75" customHeight="1" s="13"/>
+    <row r="288" ht="15.75" customHeight="1" s="13"/>
+    <row r="289" ht="15.75" customHeight="1" s="13"/>
+    <row r="290" ht="15.75" customHeight="1" s="13"/>
+    <row r="291" ht="15.75" customHeight="1" s="13"/>
+    <row r="292" ht="15.75" customHeight="1" s="13"/>
+    <row r="293" ht="15.75" customHeight="1" s="13"/>
+    <row r="294" ht="15.75" customHeight="1" s="13"/>
+    <row r="295" ht="15.75" customHeight="1" s="13"/>
+    <row r="296" ht="15.75" customHeight="1" s="13"/>
+    <row r="297" ht="15.75" customHeight="1" s="13"/>
+    <row r="298" ht="15.75" customHeight="1" s="13"/>
+    <row r="299" ht="15.75" customHeight="1" s="13"/>
+    <row r="300" ht="15.75" customHeight="1" s="13"/>
+    <row r="301" ht="15.75" customHeight="1" s="13"/>
+    <row r="302" ht="15.75" customHeight="1" s="13"/>
+    <row r="303" ht="15.75" customHeight="1" s="13"/>
+    <row r="304" ht="15.75" customHeight="1" s="13"/>
+    <row r="305" ht="15.75" customHeight="1" s="13"/>
+    <row r="306" ht="15.75" customHeight="1" s="13"/>
+    <row r="307" ht="15.75" customHeight="1" s="13"/>
+    <row r="308" ht="15.75" customHeight="1" s="13"/>
+    <row r="309" ht="15.75" customHeight="1" s="13"/>
+    <row r="310" ht="15.75" customHeight="1" s="13"/>
+    <row r="311" ht="15.75" customHeight="1" s="13"/>
+    <row r="312" ht="15.75" customHeight="1" s="13"/>
+    <row r="313" ht="15.75" customHeight="1" s="13"/>
+    <row r="314" ht="15.75" customHeight="1" s="13"/>
+    <row r="315" ht="15.75" customHeight="1" s="13"/>
+    <row r="316" ht="15.75" customHeight="1" s="13"/>
+    <row r="317" ht="15.75" customHeight="1" s="13"/>
+    <row r="318" ht="15.75" customHeight="1" s="13"/>
+    <row r="319" ht="15.75" customHeight="1" s="13"/>
+    <row r="320" ht="15.75" customHeight="1" s="13"/>
+    <row r="321" ht="15.75" customHeight="1" s="13"/>
+    <row r="322" ht="15.75" customHeight="1" s="13"/>
+    <row r="323" ht="15.75" customHeight="1" s="13"/>
+    <row r="324" ht="15.75" customHeight="1" s="13"/>
+    <row r="325" ht="15.75" customHeight="1" s="13"/>
+    <row r="326" ht="15.75" customHeight="1" s="13"/>
+    <row r="327" ht="15.75" customHeight="1" s="13"/>
+    <row r="328" ht="15.75" customHeight="1" s="13"/>
+    <row r="329" ht="15.75" customHeight="1" s="13"/>
+    <row r="330" ht="15.75" customHeight="1" s="13"/>
+    <row r="331" ht="15.75" customHeight="1" s="13"/>
+    <row r="332" ht="15.75" customHeight="1" s="13"/>
+    <row r="333" ht="15.75" customHeight="1" s="13"/>
+    <row r="334" ht="15.75" customHeight="1" s="13"/>
+    <row r="335" ht="15.75" customHeight="1" s="13"/>
+    <row r="336" ht="15.75" customHeight="1" s="13"/>
+    <row r="337" ht="15.75" customHeight="1" s="13"/>
+    <row r="338" ht="15.75" customHeight="1" s="13"/>
+    <row r="339" ht="15.75" customHeight="1" s="13"/>
+    <row r="340" ht="15.75" customHeight="1" s="13"/>
+    <row r="341" ht="15.75" customHeight="1" s="13"/>
+    <row r="342" ht="15.75" customHeight="1" s="13"/>
+    <row r="343" ht="15.75" customHeight="1" s="13"/>
+    <row r="344" ht="15.75" customHeight="1" s="13"/>
+    <row r="345" ht="15.75" customHeight="1" s="13"/>
+    <row r="346" ht="15.75" customHeight="1" s="13"/>
+    <row r="347" ht="15.75" customHeight="1" s="13"/>
+    <row r="348" ht="15.75" customHeight="1" s="13"/>
+    <row r="349" ht="15.75" customHeight="1" s="13"/>
+    <row r="350" ht="15.75" customHeight="1" s="13"/>
+    <row r="351" ht="15.75" customHeight="1" s="13"/>
+    <row r="352" ht="15.75" customHeight="1" s="13"/>
+    <row r="353" ht="15.75" customHeight="1" s="13"/>
+    <row r="354" ht="15.75" customHeight="1" s="13"/>
+    <row r="355" ht="15.75" customHeight="1" s="13"/>
+    <row r="356" ht="15.75" customHeight="1" s="13"/>
+    <row r="357" ht="15.75" customHeight="1" s="13"/>
+    <row r="358" ht="15.75" customHeight="1" s="13"/>
+    <row r="359" ht="15.75" customHeight="1" s="13"/>
+    <row r="360" ht="15.75" customHeight="1" s="13"/>
+    <row r="361" ht="15.75" customHeight="1" s="13"/>
+    <row r="362" ht="15.75" customHeight="1" s="13"/>
+    <row r="363" ht="15.75" customHeight="1" s="13"/>
+    <row r="364" ht="15.75" customHeight="1" s="13"/>
+    <row r="365" ht="15.75" customHeight="1" s="13"/>
+    <row r="366" ht="15.75" customHeight="1" s="13"/>
+    <row r="367" ht="15.75" customHeight="1" s="13"/>
+    <row r="368" ht="15.75" customHeight="1" s="13"/>
+    <row r="369" ht="15.75" customHeight="1" s="13"/>
+    <row r="370" ht="15.75" customHeight="1" s="13"/>
+    <row r="371" ht="15.75" customHeight="1" s="13"/>
+    <row r="372" ht="15.75" customHeight="1" s="13"/>
+    <row r="373" ht="15.75" customHeight="1" s="13"/>
+    <row r="374" ht="15.75" customHeight="1" s="13"/>
+    <row r="375" ht="15.75" customHeight="1" s="13"/>
+    <row r="376" ht="15.75" customHeight="1" s="13"/>
+    <row r="377" ht="15.75" customHeight="1" s="13"/>
+    <row r="378" ht="15.75" customHeight="1" s="13"/>
+    <row r="379" ht="15.75" customHeight="1" s="13"/>
+    <row r="380" ht="15.75" customHeight="1" s="13"/>
+    <row r="381" ht="15.75" customHeight="1" s="13"/>
+    <row r="382" ht="15.75" customHeight="1" s="13"/>
+    <row r="383" ht="15.75" customHeight="1" s="13"/>
+    <row r="384" ht="15.75" customHeight="1" s="13"/>
+    <row r="385" ht="15.75" customHeight="1" s="13"/>
+    <row r="386" ht="15.75" customHeight="1" s="13"/>
+    <row r="387" ht="15.75" customHeight="1" s="13"/>
+    <row r="388" ht="15.75" customHeight="1" s="13"/>
+    <row r="389" ht="15.75" customHeight="1" s="13"/>
+    <row r="390" ht="15.75" customHeight="1" s="13"/>
+    <row r="391" ht="15.75" customHeight="1" s="13"/>
+    <row r="392" ht="15.75" customHeight="1" s="13"/>
+    <row r="393" ht="15.75" customHeight="1" s="13"/>
+    <row r="394" ht="15.75" customHeight="1" s="13"/>
+    <row r="395" ht="15.75" customHeight="1" s="13"/>
+    <row r="396" ht="15.75" customHeight="1" s="13"/>
+    <row r="397" ht="15.75" customHeight="1" s="13"/>
+    <row r="398" ht="15.75" customHeight="1" s="13"/>
+    <row r="399" ht="15.75" customHeight="1" s="13"/>
+    <row r="400" ht="15.75" customHeight="1" s="13"/>
+    <row r="401" ht="15.75" customHeight="1" s="13"/>
+    <row r="402" ht="15.75" customHeight="1" s="13"/>
+    <row r="403" ht="15.75" customHeight="1" s="13"/>
+    <row r="404" ht="15.75" customHeight="1" s="13"/>
+    <row r="405" ht="15.75" customHeight="1" s="13"/>
+    <row r="406" ht="15.75" customHeight="1" s="13"/>
+    <row r="407" ht="15.75" customHeight="1" s="13"/>
+    <row r="408" ht="15.75" customHeight="1" s="13"/>
+    <row r="409" ht="15.75" customHeight="1" s="13"/>
+    <row r="410" ht="15.75" customHeight="1" s="13"/>
+    <row r="411" ht="15.75" customHeight="1" s="13"/>
+    <row r="412" ht="15.75" customHeight="1" s="13"/>
+    <row r="413" ht="15.75" customHeight="1" s="13"/>
+    <row r="414" ht="15.75" customHeight="1" s="13"/>
+    <row r="415" ht="15.75" customHeight="1" s="13"/>
+    <row r="416" ht="15.75" customHeight="1" s="13"/>
+    <row r="417" ht="15.75" customHeight="1" s="13"/>
+    <row r="418" ht="15.75" customHeight="1" s="13"/>
+    <row r="419" ht="15.75" customHeight="1" s="13"/>
+    <row r="420" ht="15.75" customHeight="1" s="13"/>
+    <row r="421" ht="15.75" customHeight="1" s="13"/>
+    <row r="422" ht="15.75" customHeight="1" s="13"/>
+    <row r="423" ht="15.75" customHeight="1" s="13"/>
+    <row r="424" ht="15.75" customHeight="1" s="13"/>
+    <row r="425" ht="15.75" customHeight="1" s="13"/>
+    <row r="426" ht="15.75" customHeight="1" s="13"/>
+    <row r="427" ht="15.75" customHeight="1" s="13"/>
+    <row r="428" ht="15.75" customHeight="1" s="13"/>
+    <row r="429" ht="15.75" customHeight="1" s="13"/>
+    <row r="430" ht="15.75" customHeight="1" s="13"/>
+    <row r="431" ht="15.75" customHeight="1" s="13"/>
+    <row r="432" ht="15.75" customHeight="1" s="13"/>
+    <row r="433" ht="15.75" customHeight="1" s="13"/>
+    <row r="434" ht="15.75" customHeight="1" s="13"/>
+    <row r="435" ht="15.75" customHeight="1" s="13"/>
+    <row r="436" ht="15.75" customHeight="1" s="13"/>
+    <row r="437" ht="15.75" customHeight="1" s="13"/>
+    <row r="438" ht="15.75" customHeight="1" s="13"/>
+    <row r="439" ht="15.75" customHeight="1" s="13"/>
+    <row r="440" ht="15.75" customHeight="1" s="13"/>
+    <row r="441" ht="15.75" customHeight="1" s="13"/>
+    <row r="442" ht="15.75" customHeight="1" s="13"/>
+    <row r="443" ht="15.75" customHeight="1" s="13"/>
+    <row r="444" ht="15.75" customHeight="1" s="13"/>
+    <row r="445" ht="15.75" customHeight="1" s="13"/>
+    <row r="446" ht="15.75" customHeight="1" s="13"/>
+    <row r="447" ht="15.75" customHeight="1" s="13"/>
+    <row r="448" ht="15.75" customHeight="1" s="13"/>
+    <row r="449" ht="15.75" customHeight="1" s="13"/>
+    <row r="450" ht="15.75" customHeight="1" s="13"/>
+    <row r="451" ht="15.75" customHeight="1" s="13"/>
+    <row r="452" ht="15.75" customHeight="1" s="13"/>
+    <row r="453" ht="15.75" customHeight="1" s="13"/>
+    <row r="454" ht="15.75" customHeight="1" s="13"/>
+    <row r="455" ht="15.75" customHeight="1" s="13"/>
+    <row r="456" ht="15.75" customHeight="1" s="13"/>
+    <row r="457" ht="15.75" customHeight="1" s="13"/>
+    <row r="458" ht="15.75" customHeight="1" s="13"/>
+    <row r="459" ht="15.75" customHeight="1" s="13"/>
+    <row r="460" ht="15.75" customHeight="1" s="13"/>
+    <row r="461" ht="15.75" customHeight="1" s="13"/>
+    <row r="462" ht="15.75" customHeight="1" s="13"/>
+    <row r="463" ht="15.75" customHeight="1" s="13"/>
+    <row r="464" ht="15.75" customHeight="1" s="13"/>
+    <row r="465" ht="15.75" customHeight="1" s="13"/>
+    <row r="466" ht="15.75" customHeight="1" s="13"/>
+    <row r="467" ht="15.75" customHeight="1" s="13"/>
+    <row r="468" ht="15.75" customHeight="1" s="13"/>
+    <row r="469" ht="15.75" customHeight="1" s="13"/>
+    <row r="470" ht="15.75" customHeight="1" s="13"/>
+    <row r="471" ht="15.75" customHeight="1" s="13"/>
+    <row r="472" ht="15.75" customHeight="1" s="13"/>
+    <row r="473" ht="15.75" customHeight="1" s="13"/>
+    <row r="474" ht="15.75" customHeight="1" s="13"/>
+    <row r="475" ht="15.75" customHeight="1" s="13"/>
+    <row r="476" ht="15.75" customHeight="1" s="13"/>
+    <row r="477" ht="15.75" customHeight="1" s="13"/>
+    <row r="478" ht="15.75" customHeight="1" s="13"/>
+    <row r="479" ht="15.75" customHeight="1" s="13"/>
+    <row r="480" ht="15.75" customHeight="1" s="13"/>
+    <row r="481" ht="15.75" customHeight="1" s="13"/>
+    <row r="482" ht="15.75" customHeight="1" s="13"/>
+    <row r="483" ht="15.75" customHeight="1" s="13"/>
+    <row r="484" ht="15.75" customHeight="1" s="13"/>
+    <row r="485" ht="15.75" customHeight="1" s="13"/>
+    <row r="486" ht="15.75" customHeight="1" s="13"/>
+    <row r="487" ht="15.75" customHeight="1" s="13"/>
+    <row r="488" ht="15.75" customHeight="1" s="13"/>
+    <row r="489" ht="15.75" customHeight="1" s="13"/>
+    <row r="490" ht="15.75" customHeight="1" s="13"/>
+    <row r="491" ht="15.75" customHeight="1" s="13"/>
+    <row r="492" ht="15.75" customHeight="1" s="13"/>
+    <row r="493" ht="15.75" customHeight="1" s="13"/>
+    <row r="494" ht="15.75" customHeight="1" s="13"/>
+    <row r="495" ht="15.75" customHeight="1" s="13"/>
+    <row r="496" ht="15.75" customHeight="1" s="13"/>
+    <row r="497" ht="15.75" customHeight="1" s="13"/>
+    <row r="498" ht="15.75" customHeight="1" s="13"/>
+    <row r="499" ht="15.75" customHeight="1" s="13"/>
+    <row r="500" ht="15.75" customHeight="1" s="13"/>
+    <row r="501" ht="15.75" customHeight="1" s="13"/>
+    <row r="502" ht="15.75" customHeight="1" s="13"/>
+    <row r="503" ht="15.75" customHeight="1" s="13"/>
+    <row r="504" ht="15.75" customHeight="1" s="13"/>
+    <row r="505" ht="15.75" customHeight="1" s="13"/>
+    <row r="506" ht="15.75" customHeight="1" s="13"/>
+    <row r="507" ht="15.75" customHeight="1" s="13"/>
+    <row r="508" ht="15.75" customHeight="1" s="13"/>
+    <row r="509" ht="15.75" customHeight="1" s="13"/>
+    <row r="510" ht="15.75" customHeight="1" s="13"/>
+    <row r="511" ht="15.75" customHeight="1" s="13"/>
+    <row r="512" ht="15.75" customHeight="1" s="13"/>
+    <row r="513" ht="15.75" customHeight="1" s="13"/>
+    <row r="514" ht="15.75" customHeight="1" s="13"/>
+    <row r="515" ht="15.75" customHeight="1" s="13"/>
+    <row r="516" ht="15.75" customHeight="1" s="13"/>
+    <row r="517" ht="15.75" customHeight="1" s="13"/>
+    <row r="518" ht="15.75" customHeight="1" s="13"/>
+    <row r="519" ht="15.75" customHeight="1" s="13"/>
+    <row r="520" ht="15.75" customHeight="1" s="13"/>
+    <row r="521" ht="15.75" customHeight="1" s="13"/>
+    <row r="522" ht="15.75" customHeight="1" s="13"/>
+    <row r="523" ht="15.75" customHeight="1" s="13"/>
+    <row r="524" ht="15.75" customHeight="1" s="13"/>
+    <row r="525" ht="15.75" customHeight="1" s="13"/>
+    <row r="526" ht="15.75" customHeight="1" s="13"/>
+    <row r="527" ht="15.75" customHeight="1" s="13"/>
+    <row r="528" ht="15.75" customHeight="1" s="13"/>
+    <row r="529" ht="15.75" customHeight="1" s="13"/>
+    <row r="530" ht="15.75" customHeight="1" s="13"/>
+    <row r="531" ht="15.75" customHeight="1" s="13"/>
+    <row r="532" ht="15.75" customHeight="1" s="13"/>
+    <row r="533" ht="15.75" customHeight="1" s="13"/>
+    <row r="534" ht="15.75" customHeight="1" s="13"/>
+    <row r="535" ht="15.75" customHeight="1" s="13"/>
+    <row r="536" ht="15.75" customHeight="1" s="13"/>
+    <row r="537" ht="15.75" customHeight="1" s="13"/>
+    <row r="538" ht="15.75" customHeight="1" s="13"/>
+    <row r="539" ht="15.75" customHeight="1" s="13"/>
+    <row r="540" ht="15.75" customHeight="1" s="13"/>
+    <row r="541" ht="15.75" customHeight="1" s="13"/>
+    <row r="542" ht="15.75" customHeight="1" s="13"/>
+    <row r="543" ht="15.75" customHeight="1" s="13"/>
+    <row r="544" ht="15.75" customHeight="1" s="13"/>
+    <row r="545" ht="15.75" customHeight="1" s="13"/>
+    <row r="546" ht="15.75" customHeight="1" s="13"/>
+    <row r="547" ht="15.75" customHeight="1" s="13"/>
+    <row r="548" ht="15.75" customHeight="1" s="13"/>
+    <row r="549" ht="15.75" customHeight="1" s="13"/>
+    <row r="550" ht="15.75" customHeight="1" s="13"/>
+    <row r="551" ht="15.75" customHeight="1" s="13"/>
+    <row r="552" ht="15.75" customHeight="1" s="13"/>
+    <row r="553" ht="15.75" customHeight="1" s="13"/>
+    <row r="554" ht="15.75" customHeight="1" s="13"/>
+    <row r="555" ht="15.75" customHeight="1" s="13"/>
+    <row r="556" ht="15.75" customHeight="1" s="13"/>
+    <row r="557" ht="15.75" customHeight="1" s="13"/>
+    <row r="558" ht="15.75" customHeight="1" s="13"/>
+    <row r="559" ht="15.75" customHeight="1" s="13"/>
+    <row r="560" ht="15.75" customHeight="1" s="13"/>
+    <row r="561" ht="15.75" customHeight="1" s="13"/>
+    <row r="562" ht="15.75" customHeight="1" s="13"/>
+    <row r="563" ht="15.75" customHeight="1" s="13"/>
+    <row r="564" ht="15.75" customHeight="1" s="13"/>
+    <row r="565" ht="15.75" customHeight="1" s="13"/>
+    <row r="566" ht="15.75" customHeight="1" s="13"/>
+    <row r="567" ht="15.75" customHeight="1" s="13"/>
+    <row r="568" ht="15.75" customHeight="1" s="13"/>
+    <row r="569" ht="15.75" customHeight="1" s="13"/>
+    <row r="570" ht="15.75" customHeight="1" s="13"/>
+    <row r="571" ht="15.75" customHeight="1" s="13"/>
+    <row r="572" ht="15.75" customHeight="1" s="13"/>
+    <row r="573" ht="15.75" customHeight="1" s="13"/>
+    <row r="574" ht="15.75" customHeight="1" s="13"/>
+    <row r="575" ht="15.75" customHeight="1" s="13"/>
+    <row r="576" ht="15.75" customHeight="1" s="13"/>
+    <row r="577" ht="15.75" customHeight="1" s="13"/>
+    <row r="578" ht="15.75" customHeight="1" s="13"/>
+    <row r="579" ht="15.75" customHeight="1" s="13"/>
+    <row r="580" ht="15.75" customHeight="1" s="13"/>
+    <row r="581" ht="15.75" customHeight="1" s="13"/>
+    <row r="582" ht="15.75" customHeight="1" s="13"/>
+    <row r="583" ht="15.75" customHeight="1" s="13"/>
+    <row r="584" ht="15.75" customHeight="1" s="13"/>
+    <row r="585" ht="15.75" customHeight="1" s="13"/>
+    <row r="586" ht="15.75" customHeight="1" s="13"/>
+    <row r="587" ht="15.75" customHeight="1" s="13"/>
+    <row r="588" ht="15.75" customHeight="1" s="13"/>
+    <row r="589" ht="15.75" customHeight="1" s="13"/>
+    <row r="590" ht="15.75" customHeight="1" s="13"/>
+    <row r="591" ht="15.75" customHeight="1" s="13"/>
+    <row r="592" ht="15.75" customHeight="1" s="13"/>
+    <row r="593" ht="15.75" customHeight="1" s="13"/>
+    <row r="594" ht="15.75" customHeight="1" s="13"/>
+    <row r="595" ht="15.75" customHeight="1" s="13"/>
+    <row r="596" ht="15.75" customHeight="1" s="13"/>
+    <row r="597" ht="15.75" customHeight="1" s="13"/>
+    <row r="598" ht="15.75" customHeight="1" s="13"/>
+    <row r="599" ht="15.75" customHeight="1" s="13"/>
+    <row r="600" ht="15.75" customHeight="1" s="13"/>
+    <row r="601" ht="15.75" customHeight="1" s="13"/>
+    <row r="602" ht="15.75" customHeight="1" s="13"/>
+    <row r="603" ht="15.75" customHeight="1" s="13"/>
+    <row r="604" ht="15.75" customHeight="1" s="13"/>
+    <row r="605" ht="15.75" customHeight="1" s="13"/>
+    <row r="606" ht="15.75" customHeight="1" s="13"/>
+    <row r="607" ht="15.75" customHeight="1" s="13"/>
+    <row r="608" ht="15.75" customHeight="1" s="13"/>
+    <row r="609" ht="15.75" customHeight="1" s="13"/>
+    <row r="610" ht="15.75" customHeight="1" s="13"/>
+    <row r="611" ht="15.75" customHeight="1" s="13"/>
+    <row r="612" ht="15.75" customHeight="1" s="13"/>
+    <row r="613" ht="15.75" customHeight="1" s="13"/>
+    <row r="614" ht="15.75" customHeight="1" s="13"/>
+    <row r="615" ht="15.75" customHeight="1" s="13"/>
+    <row r="616" ht="15.75" customHeight="1" s="13"/>
+    <row r="617" ht="15.75" customHeight="1" s="13"/>
+    <row r="618" ht="15.75" customHeight="1" s="13"/>
+    <row r="619" ht="15.75" customHeight="1" s="13"/>
+    <row r="620" ht="15.75" customHeight="1" s="13"/>
+    <row r="621" ht="15.75" customHeight="1" s="13"/>
+    <row r="622" ht="15.75" customHeight="1" s="13"/>
+    <row r="623" ht="15.75" customHeight="1" s="13"/>
+    <row r="624" ht="15.75" customHeight="1" s="13"/>
+    <row r="625" ht="15.75" customHeight="1" s="13"/>
+    <row r="626" ht="15.75" customHeight="1" s="13"/>
+    <row r="627" ht="15.75" customHeight="1" s="13"/>
+    <row r="628" ht="15.75" customHeight="1" s="13"/>
+    <row r="629" ht="15.75" customHeight="1" s="13"/>
+    <row r="630" ht="15.75" customHeight="1" s="13"/>
+    <row r="631" ht="15.75" customHeight="1" s="13"/>
+    <row r="632" ht="15.75" customHeight="1" s="13"/>
+    <row r="633" ht="15.75" customHeight="1" s="13"/>
+    <row r="634" ht="15.75" customHeight="1" s="13"/>
+    <row r="635" ht="15.75" customHeight="1" s="13"/>
+    <row r="636" ht="15.75" customHeight="1" s="13"/>
+    <row r="637" ht="15.75" customHeight="1" s="13"/>
+    <row r="638" ht="15.75" customHeight="1" s="13"/>
+    <row r="639" ht="15.75" customHeight="1" s="13"/>
+    <row r="640" ht="15.75" customHeight="1" s="13"/>
+    <row r="641" ht="15.75" customHeight="1" s="13"/>
+    <row r="642" ht="15.75" customHeight="1" s="13"/>
+    <row r="643" ht="15.75" customHeight="1" s="13"/>
+    <row r="644" ht="15.75" customHeight="1" s="13"/>
+    <row r="645" ht="15.75" customHeight="1" s="13"/>
+    <row r="646" ht="15.75" customHeight="1" s="13"/>
+    <row r="647" ht="15.75" customHeight="1" s="13"/>
+    <row r="648" ht="15.75" customHeight="1" s="13"/>
+    <row r="649" ht="15.75" customHeight="1" s="13"/>
+    <row r="650" ht="15.75" customHeight="1" s="13"/>
+    <row r="651" ht="15.75" customHeight="1" s="13"/>
+    <row r="652" ht="15.75" customHeight="1" s="13"/>
+    <row r="653" ht="15.75" customHeight="1" s="13"/>
+    <row r="654" ht="15.75" customHeight="1" s="13"/>
+    <row r="655" ht="15.75" customHeight="1" s="13"/>
+    <row r="656" ht="15.75" customHeight="1" s="13"/>
+    <row r="657" ht="15.75" customHeight="1" s="13"/>
+    <row r="658" ht="15.75" customHeight="1" s="13"/>
+    <row r="659" ht="15.75" customHeight="1" s="13"/>
+    <row r="660" ht="15.75" customHeight="1" s="13"/>
+    <row r="661" ht="15.75" customHeight="1" s="13"/>
+    <row r="662" ht="15.75" customHeight="1" s="13"/>
+    <row r="663" ht="15.75" customHeight="1" s="13"/>
+    <row r="664" ht="15.75" customHeight="1" s="13"/>
+    <row r="665" ht="15.75" customHeight="1" s="13"/>
+    <row r="666" ht="15.75" customHeight="1" s="13"/>
+    <row r="667" ht="15.75" customHeight="1" s="13"/>
+    <row r="668" ht="15.75" customHeight="1" s="13"/>
+    <row r="669" ht="15.75" customHeight="1" s="13"/>
+    <row r="670" ht="15.75" customHeight="1" s="13"/>
+    <row r="671" ht="15.75" customHeight="1" s="13"/>
+    <row r="672" ht="15.75" customHeight="1" s="13"/>
+    <row r="673" ht="15.75" customHeight="1" s="13"/>
+    <row r="674" ht="15.75" customHeight="1" s="13"/>
+    <row r="675" ht="15.75" customHeight="1" s="13"/>
+    <row r="676" ht="15.75" customHeight="1" s="13"/>
+    <row r="677" ht="15.75" customHeight="1" s="13"/>
+    <row r="678" ht="15.75" customHeight="1" s="13"/>
+    <row r="679" ht="15.75" customHeight="1" s="13"/>
+    <row r="680" ht="15.75" customHeight="1" s="13"/>
+    <row r="681" ht="15.75" customHeight="1" s="13"/>
+    <row r="682" ht="15.75" customHeight="1" s="13"/>
+    <row r="683" ht="15.75" customHeight="1" s="13"/>
+    <row r="684" ht="15.75" customHeight="1" s="13"/>
+    <row r="685" ht="15.75" customHeight="1" s="13"/>
+    <row r="686" ht="15.75" customHeight="1" s="13"/>
+    <row r="687" ht="15.75" customHeight="1" s="13"/>
+    <row r="688" ht="15.75" customHeight="1" s="13"/>
+    <row r="689" ht="15.75" customHeight="1" s="13"/>
+    <row r="690" ht="15.75" customHeight="1" s="13"/>
+    <row r="691" ht="15.75" customHeight="1" s="13"/>
+    <row r="692" ht="15.75" customHeight="1" s="13"/>
+    <row r="693" ht="15.75" customHeight="1" s="13"/>
+    <row r="694" ht="15.75" customHeight="1" s="13"/>
+    <row r="695" ht="15.75" customHeight="1" s="13"/>
+    <row r="696" ht="15.75" customHeight="1" s="13"/>
+    <row r="697" ht="15.75" customHeight="1" s="13"/>
+    <row r="698" ht="15.75" customHeight="1" s="13"/>
+    <row r="699" ht="15.75" customHeight="1" s="13"/>
+    <row r="700" ht="15.75" customHeight="1" s="13"/>
+    <row r="701" ht="15.75" customHeight="1" s="13"/>
+    <row r="702" ht="15.75" customHeight="1" s="13"/>
+    <row r="703" ht="15.75" customHeight="1" s="13"/>
+    <row r="704" ht="15.75" customHeight="1" s="13"/>
+    <row r="705" ht="15.75" customHeight="1" s="13"/>
+    <row r="706" ht="15.75" customHeight="1" s="13"/>
+    <row r="707" ht="15.75" customHeight="1" s="13"/>
+    <row r="708" ht="15.75" customHeight="1" s="13"/>
+    <row r="709" ht="15.75" customHeight="1" s="13"/>
+    <row r="710" ht="15.75" customHeight="1" s="13"/>
+    <row r="711" ht="15.75" customHeight="1" s="13"/>
+    <row r="712" ht="15.75" customHeight="1" s="13"/>
+    <row r="713" ht="15.75" customHeight="1" s="13"/>
+    <row r="714" ht="15.75" customHeight="1" s="13"/>
+    <row r="715" ht="15.75" customHeight="1" s="13"/>
+    <row r="716" ht="15.75" customHeight="1" s="13"/>
+    <row r="717" ht="15.75" customHeight="1" s="13"/>
+    <row r="718" ht="15.75" customHeight="1" s="13"/>
+    <row r="719" ht="15.75" customHeight="1" s="13"/>
+    <row r="720" ht="15.75" customHeight="1" s="13"/>
+    <row r="721" ht="15.75" customHeight="1" s="13"/>
+    <row r="722" ht="15.75" customHeight="1" s="13"/>
+    <row r="723" ht="15.75" customHeight="1" s="13"/>
+    <row r="724" ht="15.75" customHeight="1" s="13"/>
+    <row r="725" ht="15.75" customHeight="1" s="13"/>
+    <row r="726" ht="15.75" customHeight="1" s="13"/>
+    <row r="727" ht="15.75" customHeight="1" s="13"/>
+    <row r="728" ht="15.75" customHeight="1" s="13"/>
+    <row r="729" ht="15.75" customHeight="1" s="13"/>
+    <row r="730" ht="15.75" customHeight="1" s="13"/>
+    <row r="731" ht="15.75" customHeight="1" s="13"/>
+    <row r="732" ht="15.75" customHeight="1" s="13"/>
+    <row r="733" ht="15.75" customHeight="1" s="13"/>
+    <row r="734" ht="15.75" customHeight="1" s="13"/>
+    <row r="735" ht="15.75" customHeight="1" s="13"/>
+    <row r="736" ht="15.75" customHeight="1" s="13"/>
+    <row r="737" ht="15.75" customHeight="1" s="13"/>
+    <row r="738" ht="15.75" customHeight="1" s="13"/>
+    <row r="739" ht="15.75" customHeight="1" s="13"/>
+    <row r="740" ht="15.75" customHeight="1" s="13"/>
+    <row r="741" ht="15.75" customHeight="1" s="13"/>
+    <row r="742" ht="15.75" customHeight="1" s="13"/>
+    <row r="743" ht="15.75" customHeight="1" s="13"/>
+    <row r="744" ht="15.75" customHeight="1" s="13"/>
+    <row r="745" ht="15.75" customHeight="1" s="13"/>
+    <row r="746" ht="15.75" customHeight="1" s="13"/>
+    <row r="747" ht="15.75" customHeight="1" s="13"/>
+    <row r="748" ht="15.75" customHeight="1" s="13"/>
+    <row r="749" ht="15.75" customHeight="1" s="13"/>
+    <row r="750" ht="15.75" customHeight="1" s="13"/>
+    <row r="751" ht="15.75" customHeight="1" s="13"/>
+    <row r="752" ht="15.75" customHeight="1" s="13"/>
+    <row r="753" ht="15.75" customHeight="1" s="13"/>
+    <row r="754" ht="15.75" customHeight="1" s="13"/>
+    <row r="755" ht="15.75" customHeight="1" s="13"/>
+    <row r="756" ht="15.75" customHeight="1" s="13"/>
+    <row r="757" ht="15.75" customHeight="1" s="13"/>
+    <row r="758" ht="15.75" customHeight="1" s="13"/>
+    <row r="759" ht="15.75" customHeight="1" s="13"/>
+    <row r="760" ht="15.75" customHeight="1" s="13"/>
+    <row r="761" ht="15.75" customHeight="1" s="13"/>
+    <row r="762" ht="15.75" customHeight="1" s="13"/>
+    <row r="763" ht="15.75" customHeight="1" s="13"/>
+    <row r="764" ht="15.75" customHeight="1" s="13"/>
+    <row r="765" ht="15.75" customHeight="1" s="13"/>
+    <row r="766" ht="15.75" customHeight="1" s="13"/>
+    <row r="767" ht="15.75" customHeight="1" s="13"/>
+    <row r="768" ht="15.75" customHeight="1" s="13"/>
+    <row r="769" ht="15.75" customHeight="1" s="13"/>
+    <row r="770" ht="15.75" customHeight="1" s="13"/>
+    <row r="771" ht="15.75" customHeight="1" s="13"/>
+    <row r="772" ht="15.75" customHeight="1" s="13"/>
+    <row r="773" ht="15.75" customHeight="1" s="13"/>
+    <row r="774" ht="15.75" customHeight="1" s="13"/>
+    <row r="775" ht="15.75" customHeight="1" s="13"/>
+    <row r="776" ht="15.75" customHeight="1" s="13"/>
+    <row r="777" ht="15.75" customHeight="1" s="13"/>
+    <row r="778" ht="15.75" customHeight="1" s="13"/>
+    <row r="779" ht="15.75" customHeight="1" s="13"/>
+    <row r="780" ht="15.75" customHeight="1" s="13"/>
+    <row r="781" ht="15.75" customHeight="1" s="13"/>
+    <row r="782" ht="15.75" customHeight="1" s="13"/>
+    <row r="783" ht="15.75" customHeight="1" s="13"/>
+    <row r="784" ht="15.75" customHeight="1" s="13"/>
+    <row r="785" ht="15.75" customHeight="1" s="13"/>
+    <row r="786" ht="15.75" customHeight="1" s="13"/>
+    <row r="787" ht="15.75" customHeight="1" s="13"/>
+    <row r="788" ht="15.75" customHeight="1" s="13"/>
+    <row r="789" ht="15.75" customHeight="1" s="13"/>
+    <row r="790" ht="15.75" customHeight="1" s="13"/>
+    <row r="791" ht="15.75" customHeight="1" s="13"/>
+    <row r="792" ht="15.75" customHeight="1" s="13"/>
+    <row r="793" ht="15.75" customHeight="1" s="13"/>
+    <row r="794" ht="15.75" customHeight="1" s="13"/>
+    <row r="795" ht="15.75" customHeight="1" s="13"/>
+    <row r="796" ht="15.75" customHeight="1" s="13"/>
+    <row r="797" ht="15.75" customHeight="1" s="13"/>
+    <row r="798" ht="15.75" customHeight="1" s="13"/>
+    <row r="799" ht="15.75" customHeight="1" s="13"/>
+    <row r="800" ht="15.75" customHeight="1" s="13"/>
+    <row r="801" ht="15.75" customHeight="1" s="13"/>
+    <row r="802" ht="15.75" customHeight="1" s="13"/>
+    <row r="803" ht="15.75" customHeight="1" s="13"/>
+    <row r="804" ht="15.75" customHeight="1" s="13"/>
+    <row r="805" ht="15.75" customHeight="1" s="13"/>
+    <row r="806" ht="15.75" customHeight="1" s="13"/>
+    <row r="807" ht="15.75" customHeight="1" s="13"/>
+    <row r="808" ht="15.75" customHeight="1" s="13"/>
+    <row r="809" ht="15.75" customHeight="1" s="13"/>
+    <row r="810" ht="15.75" customHeight="1" s="13"/>
+    <row r="811" ht="15.75" customHeight="1" s="13"/>
+    <row r="812" ht="15.75" customHeight="1" s="13"/>
+    <row r="813" ht="15.75" customHeight="1" s="13"/>
+    <row r="814" ht="15.75" customHeight="1" s="13"/>
+    <row r="815" ht="15.75" customHeight="1" s="13"/>
+    <row r="816" ht="15.75" customHeight="1" s="13"/>
+    <row r="817" ht="15.75" customHeight="1" s="13"/>
+    <row r="818" ht="15.75" customHeight="1" s="13"/>
+    <row r="819" ht="15.75" customHeight="1" s="13"/>
+    <row r="820" ht="15.75" customHeight="1" s="13"/>
+    <row r="821" ht="15.75" customHeight="1" s="13"/>
+    <row r="822" ht="15.75" customHeight="1" s="13"/>
+    <row r="823" ht="15.75" customHeight="1" s="13"/>
+    <row r="824" ht="15.75" customHeight="1" s="13"/>
+    <row r="825" ht="15.75" customHeight="1" s="13"/>
+    <row r="826" ht="15.75" customHeight="1" s="13"/>
+    <row r="827" ht="15.75" customHeight="1" s="13"/>
+    <row r="828" ht="15.75" customHeight="1" s="13"/>
+    <row r="829" ht="15.75" customHeight="1" s="13"/>
+    <row r="830" ht="15.75" customHeight="1" s="13"/>
+    <row r="831" ht="15.75" customHeight="1" s="13"/>
+    <row r="832" ht="15.75" customHeight="1" s="13"/>
+    <row r="833" ht="15.75" customHeight="1" s="13"/>
+    <row r="834" ht="15.75" customHeight="1" s="13"/>
+    <row r="835" ht="15.75" customHeight="1" s="13"/>
+    <row r="836" ht="15.75" customHeight="1" s="13"/>
+    <row r="837" ht="15.75" customHeight="1" s="13"/>
+    <row r="838" ht="15.75" customHeight="1" s="13"/>
+    <row r="839" ht="15.75" customHeight="1" s="13"/>
+    <row r="840" ht="15.75" customHeight="1" s="13"/>
+    <row r="841" ht="15.75" customHeight="1" s="13"/>
+    <row r="842" ht="15.75" customHeight="1" s="13"/>
+    <row r="843" ht="15.75" customHeight="1" s="13"/>
+    <row r="844" ht="15.75" customHeight="1" s="13"/>
+    <row r="845" ht="15.75" customHeight="1" s="13"/>
+    <row r="846" ht="15.75" customHeight="1" s="13"/>
+    <row r="847" ht="15.75" customHeight="1" s="13"/>
+    <row r="848" ht="15.75" customHeight="1" s="13"/>
+    <row r="849" ht="15.75" customHeight="1" s="13"/>
+    <row r="850" ht="15.75" customHeight="1" s="13"/>
+    <row r="851" ht="15.75" customHeight="1" s="13"/>
+    <row r="852" ht="15.75" customHeight="1" s="13"/>
+    <row r="853" ht="15.75" customHeight="1" s="13"/>
+    <row r="854" ht="15.75" customHeight="1" s="13"/>
+    <row r="855" ht="15.75" customHeight="1" s="13"/>
+    <row r="856" ht="15.75" customHeight="1" s="13"/>
+    <row r="857" ht="15.75" customHeight="1" s="13"/>
+    <row r="858" ht="15.75" customHeight="1" s="13"/>
+    <row r="859" ht="15.75" customHeight="1" s="13"/>
+    <row r="860" ht="15.75" customHeight="1" s="13"/>
+    <row r="861" ht="15.75" customHeight="1" s="13"/>
+    <row r="862" ht="15.75" customHeight="1" s="13"/>
+    <row r="863" ht="15.75" customHeight="1" s="13"/>
+    <row r="864" ht="15.75" customHeight="1" s="13"/>
+    <row r="865" ht="15.75" customHeight="1" s="13"/>
+    <row r="866" ht="15.75" customHeight="1" s="13"/>
+    <row r="867" ht="15.75" customHeight="1" s="13"/>
+    <row r="868" ht="15.75" customHeight="1" s="13"/>
+    <row r="869" ht="15.75" customHeight="1" s="13"/>
+    <row r="870" ht="15.75" customHeight="1" s="13"/>
+    <row r="871" ht="15.75" customHeight="1" s="13"/>
+    <row r="872" ht="15.75" customHeight="1" s="13"/>
+    <row r="873" ht="15.75" customHeight="1" s="13"/>
+    <row r="874" ht="15.75" customHeight="1" s="13"/>
+    <row r="875" ht="15.75" customHeight="1" s="13"/>
+    <row r="876" ht="15.75" customHeight="1" s="13"/>
+    <row r="877" ht="15.75" customHeight="1" s="13"/>
+    <row r="878" ht="15.75" customHeight="1" s="13"/>
+    <row r="879" ht="15.75" customHeight="1" s="13"/>
+    <row r="880" ht="15.75" customHeight="1" s="13"/>
+    <row r="881" ht="15.75" customHeight="1" s="13"/>
+    <row r="882" ht="15.75" customHeight="1" s="13"/>
+    <row r="883" ht="15.75" customHeight="1" s="13"/>
+    <row r="884" ht="15.75" customHeight="1" s="13"/>
+    <row r="885" ht="15.75" customHeight="1" s="13"/>
+    <row r="886" ht="15.75" customHeight="1" s="13"/>
+    <row r="887" ht="15.75" customHeight="1" s="13"/>
+    <row r="888" ht="15.75" customHeight="1" s="13"/>
+    <row r="889" ht="15.75" customHeight="1" s="13"/>
+    <row r="890" ht="15.75" customHeight="1" s="13"/>
+    <row r="891" ht="15.75" customHeight="1" s="13"/>
+    <row r="892" ht="15.75" customHeight="1" s="13"/>
+    <row r="893" ht="15.75" customHeight="1" s="13"/>
+    <row r="894" ht="15.75" customHeight="1" s="13"/>
+    <row r="895" ht="15.75" customHeight="1" s="13"/>
+    <row r="896" ht="15.75" customHeight="1" s="13"/>
+    <row r="897" ht="15.75" customHeight="1" s="13"/>
+    <row r="898" ht="15.75" customHeight="1" s="13"/>
+    <row r="899" ht="15.75" customHeight="1" s="13"/>
+    <row r="900" ht="15.75" customHeight="1" s="13"/>
+    <row r="901" ht="15.75" customHeight="1" s="13"/>
+    <row r="902" ht="15.75" customHeight="1" s="13"/>
+    <row r="903" ht="15.75" customHeight="1" s="13"/>
+    <row r="904" ht="15.75" customHeight="1" s="13"/>
+    <row r="905" ht="15.75" customHeight="1" s="13"/>
+    <row r="906" ht="15.75" customHeight="1" s="13"/>
+    <row r="907" ht="15.75" customHeight="1" s="13"/>
+    <row r="908" ht="15.75" customHeight="1" s="13"/>
+    <row r="909" ht="15.75" customHeight="1" s="13"/>
+    <row r="910" ht="15.75" customHeight="1" s="13"/>
+    <row r="911" ht="15.75" customHeight="1" s="13"/>
+    <row r="912" ht="15.75" customHeight="1" s="13"/>
+    <row r="913" ht="15.75" customHeight="1" s="13"/>
+    <row r="914" ht="15.75" customHeight="1" s="13"/>
+    <row r="915" ht="15.75" customHeight="1" s="13"/>
+    <row r="916" ht="15.75" customHeight="1" s="13"/>
+    <row r="917" ht="15.75" customHeight="1" s="13"/>
+    <row r="918" ht="15.75" customHeight="1" s="13"/>
+    <row r="919" ht="15.75" customHeight="1" s="13"/>
+    <row r="920" ht="15.75" customHeight="1" s="13"/>
+    <row r="921" ht="15.75" customHeight="1" s="13"/>
+    <row r="922" ht="15.75" customHeight="1" s="13"/>
+    <row r="923" ht="15.75" customHeight="1" s="13"/>
+    <row r="924" ht="15.75" customHeight="1" s="13"/>
+    <row r="925" ht="15.75" customHeight="1" s="13"/>
+    <row r="926" ht="15.75" customHeight="1" s="13"/>
+    <row r="927" ht="15.75" customHeight="1" s="13"/>
+    <row r="928" ht="15.75" customHeight="1" s="13"/>
+    <row r="929" ht="15.75" customHeight="1" s="13"/>
+    <row r="930" ht="15.75" customHeight="1" s="13"/>
+    <row r="931" ht="15.75" customHeight="1" s="13"/>
+    <row r="932" ht="15.75" customHeight="1" s="13"/>
+    <row r="933" ht="15.75" customHeight="1" s="13"/>
+    <row r="934" ht="15.75" customHeight="1" s="13"/>
+    <row r="935" ht="15.75" customHeight="1" s="13"/>
+    <row r="936" ht="15.75" customHeight="1" s="13"/>
+    <row r="937" ht="15.75" customHeight="1" s="13"/>
+    <row r="938" ht="15.75" customHeight="1" s="13"/>
+    <row r="939" ht="15.75" customHeight="1" s="13"/>
+    <row r="940" ht="15.75" customHeight="1" s="13"/>
+    <row r="941" ht="15.75" customHeight="1" s="13"/>
+    <row r="942" ht="15.75" customHeight="1" s="13"/>
+    <row r="943" ht="15.75" customHeight="1" s="13"/>
+    <row r="944" ht="15.75" customHeight="1" s="13"/>
+    <row r="945" ht="15.75" customHeight="1" s="13"/>
+    <row r="946" ht="15.75" customHeight="1" s="13"/>
+    <row r="947" ht="15.75" customHeight="1" s="13"/>
+    <row r="948" ht="15.75" customHeight="1" s="13"/>
+    <row r="949" ht="15.75" customHeight="1" s="13"/>
+    <row r="950" ht="15.75" customHeight="1" s="13"/>
+    <row r="951" ht="15.75" customHeight="1" s="13"/>
+    <row r="952" ht="15.75" customHeight="1" s="13"/>
+    <row r="953" ht="15.75" customHeight="1" s="13"/>
+    <row r="954" ht="15.75" customHeight="1" s="13"/>
+    <row r="955" ht="15.75" customHeight="1" s="13"/>
+    <row r="956" ht="15.75" customHeight="1" s="13"/>
+    <row r="957" ht="15.75" customHeight="1" s="13"/>
+    <row r="958" ht="15.75" customHeight="1" s="13"/>
+    <row r="959" ht="15.75" customHeight="1" s="13"/>
+    <row r="960" ht="15.75" customHeight="1" s="13"/>
+    <row r="961" ht="15.75" customHeight="1" s="13"/>
+    <row r="962" ht="15.75" customHeight="1" s="13"/>
+    <row r="963" ht="15.75" customHeight="1" s="13"/>
+    <row r="964" ht="15.75" customHeight="1" s="13"/>
+    <row r="965" ht="15.75" customHeight="1" s="13"/>
+    <row r="966" ht="15.75" customHeight="1" s="13"/>
+    <row r="967" ht="15.75" customHeight="1" s="13"/>
+    <row r="968" ht="15.75" customHeight="1" s="13"/>
+    <row r="969" ht="15.75" customHeight="1" s="13"/>
+    <row r="970" ht="15.75" customHeight="1" s="13"/>
+    <row r="971" ht="15.75" customHeight="1" s="13"/>
+    <row r="972" ht="15.75" customHeight="1" s="13"/>
+    <row r="973" ht="15.75" customHeight="1" s="13"/>
+    <row r="974" ht="15.75" customHeight="1" s="13"/>
+    <row r="975" ht="15.75" customHeight="1" s="13"/>
+    <row r="976" ht="15.75" customHeight="1" s="13"/>
+    <row r="977" ht="15.75" customHeight="1" s="13"/>
+    <row r="978" ht="15.75" customHeight="1" s="13"/>
+    <row r="979" ht="15.75" customHeight="1" s="13"/>
+    <row r="980" ht="15.75" customHeight="1" s="13"/>
+    <row r="981" ht="15.75" customHeight="1" s="13"/>
+    <row r="982" ht="15.75" customHeight="1" s="13"/>
+    <row r="983" ht="15.75" customHeight="1" s="13"/>
+    <row r="984" ht="15.75" customHeight="1" s="13"/>
+    <row r="985" ht="15.75" customHeight="1" s="13"/>
+    <row r="986" ht="15.75" customHeight="1" s="13"/>
+    <row r="987" ht="15.75" customHeight="1" s="13"/>
+    <row r="988" ht="15.75" customHeight="1" s="13"/>
+    <row r="989" ht="15.75" customHeight="1" s="13"/>
+    <row r="990" ht="15.75" customHeight="1" s="13"/>
+    <row r="991" ht="15.75" customHeight="1" s="13"/>
+    <row r="992" ht="15.75" customHeight="1" s="13"/>
+    <row r="993" ht="15.75" customHeight="1" s="13"/>
+    <row r="994" ht="15.75" customHeight="1" s="13"/>
+    <row r="995" ht="15.75" customHeight="1" s="13"/>
+    <row r="996" ht="15.75" customHeight="1" s="13"/>
+    <row r="997" ht="15.75" customHeight="1" s="13"/>
+    <row r="998" ht="15.75" customHeight="1" s="13"/>
+    <row r="999" ht="15.75" customHeight="1" s="13"/>
+    <row r="1000" ht="15.75" customHeight="1" s="13"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1200,133 +5004,1117 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col width="7.75" customWidth="1" style="13" min="1" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Unit: dimensionless (MW-peak/MW-avg)</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>summer</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>winter</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>transportation sector (NOT USED)</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>electricity sector (NOT USED)</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>residential buildings sector (NOT USED)</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>commercial buildings sector (NOT USED)</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>industry sector (and hydrogen supply)</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4" t="n">
         <v>1.49941</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4" t="n">
         <v>1.43245</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>district heat sector</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>LULUCF sector (NOT USED)</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>geoengineering sector</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1" s="13"/>
+    <row r="22" ht="15.75" customHeight="1" s="13"/>
+    <row r="23" ht="15.75" customHeight="1" s="13"/>
+    <row r="24" ht="15.75" customHeight="1" s="13"/>
+    <row r="25" ht="15.75" customHeight="1" s="13"/>
+    <row r="26" ht="15.75" customHeight="1" s="13"/>
+    <row r="27" ht="15.75" customHeight="1" s="13"/>
+    <row r="28" ht="15.75" customHeight="1" s="13"/>
+    <row r="29" ht="15.75" customHeight="1" s="13"/>
+    <row r="30" ht="15.75" customHeight="1" s="13"/>
+    <row r="31" ht="15.75" customHeight="1" s="13"/>
+    <row r="32" ht="15.75" customHeight="1" s="13"/>
+    <row r="33" ht="15.75" customHeight="1" s="13"/>
+    <row r="34" ht="15.75" customHeight="1" s="13"/>
+    <row r="35" ht="15.75" customHeight="1" s="13"/>
+    <row r="36" ht="15.75" customHeight="1" s="13"/>
+    <row r="37" ht="15.75" customHeight="1" s="13"/>
+    <row r="38" ht="15.75" customHeight="1" s="13"/>
+    <row r="39" ht="15.75" customHeight="1" s="13"/>
+    <row r="40" ht="15.75" customHeight="1" s="13"/>
+    <row r="41" ht="15.75" customHeight="1" s="13"/>
+    <row r="42" ht="15.75" customHeight="1" s="13"/>
+    <row r="43" ht="15.75" customHeight="1" s="13"/>
+    <row r="44" ht="15.75" customHeight="1" s="13"/>
+    <row r="45" ht="15.75" customHeight="1" s="13"/>
+    <row r="46" ht="15.75" customHeight="1" s="13"/>
+    <row r="47" ht="15.75" customHeight="1" s="13"/>
+    <row r="48" ht="15.75" customHeight="1" s="13"/>
+    <row r="49" ht="15.75" customHeight="1" s="13"/>
+    <row r="50" ht="15.75" customHeight="1" s="13"/>
+    <row r="51" ht="15.75" customHeight="1" s="13"/>
+    <row r="52" ht="15.75" customHeight="1" s="13"/>
+    <row r="53" ht="15.75" customHeight="1" s="13"/>
+    <row r="54" ht="15.75" customHeight="1" s="13"/>
+    <row r="55" ht="15.75" customHeight="1" s="13"/>
+    <row r="56" ht="15.75" customHeight="1" s="13"/>
+    <row r="57" ht="15.75" customHeight="1" s="13"/>
+    <row r="58" ht="15.75" customHeight="1" s="13"/>
+    <row r="59" ht="15.75" customHeight="1" s="13"/>
+    <row r="60" ht="15.75" customHeight="1" s="13"/>
+    <row r="61" ht="15.75" customHeight="1" s="13"/>
+    <row r="62" ht="15.75" customHeight="1" s="13"/>
+    <row r="63" ht="15.75" customHeight="1" s="13"/>
+    <row r="64" ht="15.75" customHeight="1" s="13"/>
+    <row r="65" ht="15.75" customHeight="1" s="13"/>
+    <row r="66" ht="15.75" customHeight="1" s="13"/>
+    <row r="67" ht="15.75" customHeight="1" s="13"/>
+    <row r="68" ht="15.75" customHeight="1" s="13"/>
+    <row r="69" ht="15.75" customHeight="1" s="13"/>
+    <row r="70" ht="15.75" customHeight="1" s="13"/>
+    <row r="71" ht="15.75" customHeight="1" s="13"/>
+    <row r="72" ht="15.75" customHeight="1" s="13"/>
+    <row r="73" ht="15.75" customHeight="1" s="13"/>
+    <row r="74" ht="15.75" customHeight="1" s="13"/>
+    <row r="75" ht="15.75" customHeight="1" s="13"/>
+    <row r="76" ht="15.75" customHeight="1" s="13"/>
+    <row r="77" ht="15.75" customHeight="1" s="13"/>
+    <row r="78" ht="15.75" customHeight="1" s="13"/>
+    <row r="79" ht="15.75" customHeight="1" s="13"/>
+    <row r="80" ht="15.75" customHeight="1" s="13"/>
+    <row r="81" ht="15.75" customHeight="1" s="13"/>
+    <row r="82" ht="15.75" customHeight="1" s="13"/>
+    <row r="83" ht="15.75" customHeight="1" s="13"/>
+    <row r="84" ht="15.75" customHeight="1" s="13"/>
+    <row r="85" ht="15.75" customHeight="1" s="13"/>
+    <row r="86" ht="15.75" customHeight="1" s="13"/>
+    <row r="87" ht="15.75" customHeight="1" s="13"/>
+    <row r="88" ht="15.75" customHeight="1" s="13"/>
+    <row r="89" ht="15.75" customHeight="1" s="13"/>
+    <row r="90" ht="15.75" customHeight="1" s="13"/>
+    <row r="91" ht="15.75" customHeight="1" s="13"/>
+    <row r="92" ht="15.75" customHeight="1" s="13"/>
+    <row r="93" ht="15.75" customHeight="1" s="13"/>
+    <row r="94" ht="15.75" customHeight="1" s="13"/>
+    <row r="95" ht="15.75" customHeight="1" s="13"/>
+    <row r="96" ht="15.75" customHeight="1" s="13"/>
+    <row r="97" ht="15.75" customHeight="1" s="13"/>
+    <row r="98" ht="15.75" customHeight="1" s="13"/>
+    <row r="99" ht="15.75" customHeight="1" s="13"/>
+    <row r="100" ht="15.75" customHeight="1" s="13"/>
+    <row r="101" ht="15.75" customHeight="1" s="13"/>
+    <row r="102" ht="15.75" customHeight="1" s="13"/>
+    <row r="103" ht="15.75" customHeight="1" s="13"/>
+    <row r="104" ht="15.75" customHeight="1" s="13"/>
+    <row r="105" ht="15.75" customHeight="1" s="13"/>
+    <row r="106" ht="15.75" customHeight="1" s="13"/>
+    <row r="107" ht="15.75" customHeight="1" s="13"/>
+    <row r="108" ht="15.75" customHeight="1" s="13"/>
+    <row r="109" ht="15.75" customHeight="1" s="13"/>
+    <row r="110" ht="15.75" customHeight="1" s="13"/>
+    <row r="111" ht="15.75" customHeight="1" s="13"/>
+    <row r="112" ht="15.75" customHeight="1" s="13"/>
+    <row r="113" ht="15.75" customHeight="1" s="13"/>
+    <row r="114" ht="15.75" customHeight="1" s="13"/>
+    <row r="115" ht="15.75" customHeight="1" s="13"/>
+    <row r="116" ht="15.75" customHeight="1" s="13"/>
+    <row r="117" ht="15.75" customHeight="1" s="13"/>
+    <row r="118" ht="15.75" customHeight="1" s="13"/>
+    <row r="119" ht="15.75" customHeight="1" s="13"/>
+    <row r="120" ht="15.75" customHeight="1" s="13"/>
+    <row r="121" ht="15.75" customHeight="1" s="13"/>
+    <row r="122" ht="15.75" customHeight="1" s="13"/>
+    <row r="123" ht="15.75" customHeight="1" s="13"/>
+    <row r="124" ht="15.75" customHeight="1" s="13"/>
+    <row r="125" ht="15.75" customHeight="1" s="13"/>
+    <row r="126" ht="15.75" customHeight="1" s="13"/>
+    <row r="127" ht="15.75" customHeight="1" s="13"/>
+    <row r="128" ht="15.75" customHeight="1" s="13"/>
+    <row r="129" ht="15.75" customHeight="1" s="13"/>
+    <row r="130" ht="15.75" customHeight="1" s="13"/>
+    <row r="131" ht="15.75" customHeight="1" s="13"/>
+    <row r="132" ht="15.75" customHeight="1" s="13"/>
+    <row r="133" ht="15.75" customHeight="1" s="13"/>
+    <row r="134" ht="15.75" customHeight="1" s="13"/>
+    <row r="135" ht="15.75" customHeight="1" s="13"/>
+    <row r="136" ht="15.75" customHeight="1" s="13"/>
+    <row r="137" ht="15.75" customHeight="1" s="13"/>
+    <row r="138" ht="15.75" customHeight="1" s="13"/>
+    <row r="139" ht="15.75" customHeight="1" s="13"/>
+    <row r="140" ht="15.75" customHeight="1" s="13"/>
+    <row r="141" ht="15.75" customHeight="1" s="13"/>
+    <row r="142" ht="15.75" customHeight="1" s="13"/>
+    <row r="143" ht="15.75" customHeight="1" s="13"/>
+    <row r="144" ht="15.75" customHeight="1" s="13"/>
+    <row r="145" ht="15.75" customHeight="1" s="13"/>
+    <row r="146" ht="15.75" customHeight="1" s="13"/>
+    <row r="147" ht="15.75" customHeight="1" s="13"/>
+    <row r="148" ht="15.75" customHeight="1" s="13"/>
+    <row r="149" ht="15.75" customHeight="1" s="13"/>
+    <row r="150" ht="15.75" customHeight="1" s="13"/>
+    <row r="151" ht="15.75" customHeight="1" s="13"/>
+    <row r="152" ht="15.75" customHeight="1" s="13"/>
+    <row r="153" ht="15.75" customHeight="1" s="13"/>
+    <row r="154" ht="15.75" customHeight="1" s="13"/>
+    <row r="155" ht="15.75" customHeight="1" s="13"/>
+    <row r="156" ht="15.75" customHeight="1" s="13"/>
+    <row r="157" ht="15.75" customHeight="1" s="13"/>
+    <row r="158" ht="15.75" customHeight="1" s="13"/>
+    <row r="159" ht="15.75" customHeight="1" s="13"/>
+    <row r="160" ht="15.75" customHeight="1" s="13"/>
+    <row r="161" ht="15.75" customHeight="1" s="13"/>
+    <row r="162" ht="15.75" customHeight="1" s="13"/>
+    <row r="163" ht="15.75" customHeight="1" s="13"/>
+    <row r="164" ht="15.75" customHeight="1" s="13"/>
+    <row r="165" ht="15.75" customHeight="1" s="13"/>
+    <row r="166" ht="15.75" customHeight="1" s="13"/>
+    <row r="167" ht="15.75" customHeight="1" s="13"/>
+    <row r="168" ht="15.75" customHeight="1" s="13"/>
+    <row r="169" ht="15.75" customHeight="1" s="13"/>
+    <row r="170" ht="15.75" customHeight="1" s="13"/>
+    <row r="171" ht="15.75" customHeight="1" s="13"/>
+    <row r="172" ht="15.75" customHeight="1" s="13"/>
+    <row r="173" ht="15.75" customHeight="1" s="13"/>
+    <row r="174" ht="15.75" customHeight="1" s="13"/>
+    <row r="175" ht="15.75" customHeight="1" s="13"/>
+    <row r="176" ht="15.75" customHeight="1" s="13"/>
+    <row r="177" ht="15.75" customHeight="1" s="13"/>
+    <row r="178" ht="15.75" customHeight="1" s="13"/>
+    <row r="179" ht="15.75" customHeight="1" s="13"/>
+    <row r="180" ht="15.75" customHeight="1" s="13"/>
+    <row r="181" ht="15.75" customHeight="1" s="13"/>
+    <row r="182" ht="15.75" customHeight="1" s="13"/>
+    <row r="183" ht="15.75" customHeight="1" s="13"/>
+    <row r="184" ht="15.75" customHeight="1" s="13"/>
+    <row r="185" ht="15.75" customHeight="1" s="13"/>
+    <row r="186" ht="15.75" customHeight="1" s="13"/>
+    <row r="187" ht="15.75" customHeight="1" s="13"/>
+    <row r="188" ht="15.75" customHeight="1" s="13"/>
+    <row r="189" ht="15.75" customHeight="1" s="13"/>
+    <row r="190" ht="15.75" customHeight="1" s="13"/>
+    <row r="191" ht="15.75" customHeight="1" s="13"/>
+    <row r="192" ht="15.75" customHeight="1" s="13"/>
+    <row r="193" ht="15.75" customHeight="1" s="13"/>
+    <row r="194" ht="15.75" customHeight="1" s="13"/>
+    <row r="195" ht="15.75" customHeight="1" s="13"/>
+    <row r="196" ht="15.75" customHeight="1" s="13"/>
+    <row r="197" ht="15.75" customHeight="1" s="13"/>
+    <row r="198" ht="15.75" customHeight="1" s="13"/>
+    <row r="199" ht="15.75" customHeight="1" s="13"/>
+    <row r="200" ht="15.75" customHeight="1" s="13"/>
+    <row r="201" ht="15.75" customHeight="1" s="13"/>
+    <row r="202" ht="15.75" customHeight="1" s="13"/>
+    <row r="203" ht="15.75" customHeight="1" s="13"/>
+    <row r="204" ht="15.75" customHeight="1" s="13"/>
+    <row r="205" ht="15.75" customHeight="1" s="13"/>
+    <row r="206" ht="15.75" customHeight="1" s="13"/>
+    <row r="207" ht="15.75" customHeight="1" s="13"/>
+    <row r="208" ht="15.75" customHeight="1" s="13"/>
+    <row r="209" ht="15.75" customHeight="1" s="13"/>
+    <row r="210" ht="15.75" customHeight="1" s="13"/>
+    <row r="211" ht="15.75" customHeight="1" s="13"/>
+    <row r="212" ht="15.75" customHeight="1" s="13"/>
+    <row r="213" ht="15.75" customHeight="1" s="13"/>
+    <row r="214" ht="15.75" customHeight="1" s="13"/>
+    <row r="215" ht="15.75" customHeight="1" s="13"/>
+    <row r="216" ht="15.75" customHeight="1" s="13"/>
+    <row r="217" ht="15.75" customHeight="1" s="13"/>
+    <row r="218" ht="15.75" customHeight="1" s="13"/>
+    <row r="219" ht="15.75" customHeight="1" s="13"/>
+    <row r="220" ht="15.75" customHeight="1" s="13"/>
+    <row r="221" ht="15.75" customHeight="1" s="13"/>
+    <row r="222" ht="15.75" customHeight="1" s="13"/>
+    <row r="223" ht="15.75" customHeight="1" s="13"/>
+    <row r="224" ht="15.75" customHeight="1" s="13"/>
+    <row r="225" ht="15.75" customHeight="1" s="13"/>
+    <row r="226" ht="15.75" customHeight="1" s="13"/>
+    <row r="227" ht="15.75" customHeight="1" s="13"/>
+    <row r="228" ht="15.75" customHeight="1" s="13"/>
+    <row r="229" ht="15.75" customHeight="1" s="13"/>
+    <row r="230" ht="15.75" customHeight="1" s="13"/>
+    <row r="231" ht="15.75" customHeight="1" s="13"/>
+    <row r="232" ht="15.75" customHeight="1" s="13"/>
+    <row r="233" ht="15.75" customHeight="1" s="13"/>
+    <row r="234" ht="15.75" customHeight="1" s="13"/>
+    <row r="235" ht="15.75" customHeight="1" s="13"/>
+    <row r="236" ht="15.75" customHeight="1" s="13"/>
+    <row r="237" ht="15.75" customHeight="1" s="13"/>
+    <row r="238" ht="15.75" customHeight="1" s="13"/>
+    <row r="239" ht="15.75" customHeight="1" s="13"/>
+    <row r="240" ht="15.75" customHeight="1" s="13"/>
+    <row r="241" ht="15.75" customHeight="1" s="13"/>
+    <row r="242" ht="15.75" customHeight="1" s="13"/>
+    <row r="243" ht="15.75" customHeight="1" s="13"/>
+    <row r="244" ht="15.75" customHeight="1" s="13"/>
+    <row r="245" ht="15.75" customHeight="1" s="13"/>
+    <row r="246" ht="15.75" customHeight="1" s="13"/>
+    <row r="247" ht="15.75" customHeight="1" s="13"/>
+    <row r="248" ht="15.75" customHeight="1" s="13"/>
+    <row r="249" ht="15.75" customHeight="1" s="13"/>
+    <row r="250" ht="15.75" customHeight="1" s="13"/>
+    <row r="251" ht="15.75" customHeight="1" s="13"/>
+    <row r="252" ht="15.75" customHeight="1" s="13"/>
+    <row r="253" ht="15.75" customHeight="1" s="13"/>
+    <row r="254" ht="15.75" customHeight="1" s="13"/>
+    <row r="255" ht="15.75" customHeight="1" s="13"/>
+    <row r="256" ht="15.75" customHeight="1" s="13"/>
+    <row r="257" ht="15.75" customHeight="1" s="13"/>
+    <row r="258" ht="15.75" customHeight="1" s="13"/>
+    <row r="259" ht="15.75" customHeight="1" s="13"/>
+    <row r="260" ht="15.75" customHeight="1" s="13"/>
+    <row r="261" ht="15.75" customHeight="1" s="13"/>
+    <row r="262" ht="15.75" customHeight="1" s="13"/>
+    <row r="263" ht="15.75" customHeight="1" s="13"/>
+    <row r="264" ht="15.75" customHeight="1" s="13"/>
+    <row r="265" ht="15.75" customHeight="1" s="13"/>
+    <row r="266" ht="15.75" customHeight="1" s="13"/>
+    <row r="267" ht="15.75" customHeight="1" s="13"/>
+    <row r="268" ht="15.75" customHeight="1" s="13"/>
+    <row r="269" ht="15.75" customHeight="1" s="13"/>
+    <row r="270" ht="15.75" customHeight="1" s="13"/>
+    <row r="271" ht="15.75" customHeight="1" s="13"/>
+    <row r="272" ht="15.75" customHeight="1" s="13"/>
+    <row r="273" ht="15.75" customHeight="1" s="13"/>
+    <row r="274" ht="15.75" customHeight="1" s="13"/>
+    <row r="275" ht="15.75" customHeight="1" s="13"/>
+    <row r="276" ht="15.75" customHeight="1" s="13"/>
+    <row r="277" ht="15.75" customHeight="1" s="13"/>
+    <row r="278" ht="15.75" customHeight="1" s="13"/>
+    <row r="279" ht="15.75" customHeight="1" s="13"/>
+    <row r="280" ht="15.75" customHeight="1" s="13"/>
+    <row r="281" ht="15.75" customHeight="1" s="13"/>
+    <row r="282" ht="15.75" customHeight="1" s="13"/>
+    <row r="283" ht="15.75" customHeight="1" s="13"/>
+    <row r="284" ht="15.75" customHeight="1" s="13"/>
+    <row r="285" ht="15.75" customHeight="1" s="13"/>
+    <row r="286" ht="15.75" customHeight="1" s="13"/>
+    <row r="287" ht="15.75" customHeight="1" s="13"/>
+    <row r="288" ht="15.75" customHeight="1" s="13"/>
+    <row r="289" ht="15.75" customHeight="1" s="13"/>
+    <row r="290" ht="15.75" customHeight="1" s="13"/>
+    <row r="291" ht="15.75" customHeight="1" s="13"/>
+    <row r="292" ht="15.75" customHeight="1" s="13"/>
+    <row r="293" ht="15.75" customHeight="1" s="13"/>
+    <row r="294" ht="15.75" customHeight="1" s="13"/>
+    <row r="295" ht="15.75" customHeight="1" s="13"/>
+    <row r="296" ht="15.75" customHeight="1" s="13"/>
+    <row r="297" ht="15.75" customHeight="1" s="13"/>
+    <row r="298" ht="15.75" customHeight="1" s="13"/>
+    <row r="299" ht="15.75" customHeight="1" s="13"/>
+    <row r="300" ht="15.75" customHeight="1" s="13"/>
+    <row r="301" ht="15.75" customHeight="1" s="13"/>
+    <row r="302" ht="15.75" customHeight="1" s="13"/>
+    <row r="303" ht="15.75" customHeight="1" s="13"/>
+    <row r="304" ht="15.75" customHeight="1" s="13"/>
+    <row r="305" ht="15.75" customHeight="1" s="13"/>
+    <row r="306" ht="15.75" customHeight="1" s="13"/>
+    <row r="307" ht="15.75" customHeight="1" s="13"/>
+    <row r="308" ht="15.75" customHeight="1" s="13"/>
+    <row r="309" ht="15.75" customHeight="1" s="13"/>
+    <row r="310" ht="15.75" customHeight="1" s="13"/>
+    <row r="311" ht="15.75" customHeight="1" s="13"/>
+    <row r="312" ht="15.75" customHeight="1" s="13"/>
+    <row r="313" ht="15.75" customHeight="1" s="13"/>
+    <row r="314" ht="15.75" customHeight="1" s="13"/>
+    <row r="315" ht="15.75" customHeight="1" s="13"/>
+    <row r="316" ht="15.75" customHeight="1" s="13"/>
+    <row r="317" ht="15.75" customHeight="1" s="13"/>
+    <row r="318" ht="15.75" customHeight="1" s="13"/>
+    <row r="319" ht="15.75" customHeight="1" s="13"/>
+    <row r="320" ht="15.75" customHeight="1" s="13"/>
+    <row r="321" ht="15.75" customHeight="1" s="13"/>
+    <row r="322" ht="15.75" customHeight="1" s="13"/>
+    <row r="323" ht="15.75" customHeight="1" s="13"/>
+    <row r="324" ht="15.75" customHeight="1" s="13"/>
+    <row r="325" ht="15.75" customHeight="1" s="13"/>
+    <row r="326" ht="15.75" customHeight="1" s="13"/>
+    <row r="327" ht="15.75" customHeight="1" s="13"/>
+    <row r="328" ht="15.75" customHeight="1" s="13"/>
+    <row r="329" ht="15.75" customHeight="1" s="13"/>
+    <row r="330" ht="15.75" customHeight="1" s="13"/>
+    <row r="331" ht="15.75" customHeight="1" s="13"/>
+    <row r="332" ht="15.75" customHeight="1" s="13"/>
+    <row r="333" ht="15.75" customHeight="1" s="13"/>
+    <row r="334" ht="15.75" customHeight="1" s="13"/>
+    <row r="335" ht="15.75" customHeight="1" s="13"/>
+    <row r="336" ht="15.75" customHeight="1" s="13"/>
+    <row r="337" ht="15.75" customHeight="1" s="13"/>
+    <row r="338" ht="15.75" customHeight="1" s="13"/>
+    <row r="339" ht="15.75" customHeight="1" s="13"/>
+    <row r="340" ht="15.75" customHeight="1" s="13"/>
+    <row r="341" ht="15.75" customHeight="1" s="13"/>
+    <row r="342" ht="15.75" customHeight="1" s="13"/>
+    <row r="343" ht="15.75" customHeight="1" s="13"/>
+    <row r="344" ht="15.75" customHeight="1" s="13"/>
+    <row r="345" ht="15.75" customHeight="1" s="13"/>
+    <row r="346" ht="15.75" customHeight="1" s="13"/>
+    <row r="347" ht="15.75" customHeight="1" s="13"/>
+    <row r="348" ht="15.75" customHeight="1" s="13"/>
+    <row r="349" ht="15.75" customHeight="1" s="13"/>
+    <row r="350" ht="15.75" customHeight="1" s="13"/>
+    <row r="351" ht="15.75" customHeight="1" s="13"/>
+    <row r="352" ht="15.75" customHeight="1" s="13"/>
+    <row r="353" ht="15.75" customHeight="1" s="13"/>
+    <row r="354" ht="15.75" customHeight="1" s="13"/>
+    <row r="355" ht="15.75" customHeight="1" s="13"/>
+    <row r="356" ht="15.75" customHeight="1" s="13"/>
+    <row r="357" ht="15.75" customHeight="1" s="13"/>
+    <row r="358" ht="15.75" customHeight="1" s="13"/>
+    <row r="359" ht="15.75" customHeight="1" s="13"/>
+    <row r="360" ht="15.75" customHeight="1" s="13"/>
+    <row r="361" ht="15.75" customHeight="1" s="13"/>
+    <row r="362" ht="15.75" customHeight="1" s="13"/>
+    <row r="363" ht="15.75" customHeight="1" s="13"/>
+    <row r="364" ht="15.75" customHeight="1" s="13"/>
+    <row r="365" ht="15.75" customHeight="1" s="13"/>
+    <row r="366" ht="15.75" customHeight="1" s="13"/>
+    <row r="367" ht="15.75" customHeight="1" s="13"/>
+    <row r="368" ht="15.75" customHeight="1" s="13"/>
+    <row r="369" ht="15.75" customHeight="1" s="13"/>
+    <row r="370" ht="15.75" customHeight="1" s="13"/>
+    <row r="371" ht="15.75" customHeight="1" s="13"/>
+    <row r="372" ht="15.75" customHeight="1" s="13"/>
+    <row r="373" ht="15.75" customHeight="1" s="13"/>
+    <row r="374" ht="15.75" customHeight="1" s="13"/>
+    <row r="375" ht="15.75" customHeight="1" s="13"/>
+    <row r="376" ht="15.75" customHeight="1" s="13"/>
+    <row r="377" ht="15.75" customHeight="1" s="13"/>
+    <row r="378" ht="15.75" customHeight="1" s="13"/>
+    <row r="379" ht="15.75" customHeight="1" s="13"/>
+    <row r="380" ht="15.75" customHeight="1" s="13"/>
+    <row r="381" ht="15.75" customHeight="1" s="13"/>
+    <row r="382" ht="15.75" customHeight="1" s="13"/>
+    <row r="383" ht="15.75" customHeight="1" s="13"/>
+    <row r="384" ht="15.75" customHeight="1" s="13"/>
+    <row r="385" ht="15.75" customHeight="1" s="13"/>
+    <row r="386" ht="15.75" customHeight="1" s="13"/>
+    <row r="387" ht="15.75" customHeight="1" s="13"/>
+    <row r="388" ht="15.75" customHeight="1" s="13"/>
+    <row r="389" ht="15.75" customHeight="1" s="13"/>
+    <row r="390" ht="15.75" customHeight="1" s="13"/>
+    <row r="391" ht="15.75" customHeight="1" s="13"/>
+    <row r="392" ht="15.75" customHeight="1" s="13"/>
+    <row r="393" ht="15.75" customHeight="1" s="13"/>
+    <row r="394" ht="15.75" customHeight="1" s="13"/>
+    <row r="395" ht="15.75" customHeight="1" s="13"/>
+    <row r="396" ht="15.75" customHeight="1" s="13"/>
+    <row r="397" ht="15.75" customHeight="1" s="13"/>
+    <row r="398" ht="15.75" customHeight="1" s="13"/>
+    <row r="399" ht="15.75" customHeight="1" s="13"/>
+    <row r="400" ht="15.75" customHeight="1" s="13"/>
+    <row r="401" ht="15.75" customHeight="1" s="13"/>
+    <row r="402" ht="15.75" customHeight="1" s="13"/>
+    <row r="403" ht="15.75" customHeight="1" s="13"/>
+    <row r="404" ht="15.75" customHeight="1" s="13"/>
+    <row r="405" ht="15.75" customHeight="1" s="13"/>
+    <row r="406" ht="15.75" customHeight="1" s="13"/>
+    <row r="407" ht="15.75" customHeight="1" s="13"/>
+    <row r="408" ht="15.75" customHeight="1" s="13"/>
+    <row r="409" ht="15.75" customHeight="1" s="13"/>
+    <row r="410" ht="15.75" customHeight="1" s="13"/>
+    <row r="411" ht="15.75" customHeight="1" s="13"/>
+    <row r="412" ht="15.75" customHeight="1" s="13"/>
+    <row r="413" ht="15.75" customHeight="1" s="13"/>
+    <row r="414" ht="15.75" customHeight="1" s="13"/>
+    <row r="415" ht="15.75" customHeight="1" s="13"/>
+    <row r="416" ht="15.75" customHeight="1" s="13"/>
+    <row r="417" ht="15.75" customHeight="1" s="13"/>
+    <row r="418" ht="15.75" customHeight="1" s="13"/>
+    <row r="419" ht="15.75" customHeight="1" s="13"/>
+    <row r="420" ht="15.75" customHeight="1" s="13"/>
+    <row r="421" ht="15.75" customHeight="1" s="13"/>
+    <row r="422" ht="15.75" customHeight="1" s="13"/>
+    <row r="423" ht="15.75" customHeight="1" s="13"/>
+    <row r="424" ht="15.75" customHeight="1" s="13"/>
+    <row r="425" ht="15.75" customHeight="1" s="13"/>
+    <row r="426" ht="15.75" customHeight="1" s="13"/>
+    <row r="427" ht="15.75" customHeight="1" s="13"/>
+    <row r="428" ht="15.75" customHeight="1" s="13"/>
+    <row r="429" ht="15.75" customHeight="1" s="13"/>
+    <row r="430" ht="15.75" customHeight="1" s="13"/>
+    <row r="431" ht="15.75" customHeight="1" s="13"/>
+    <row r="432" ht="15.75" customHeight="1" s="13"/>
+    <row r="433" ht="15.75" customHeight="1" s="13"/>
+    <row r="434" ht="15.75" customHeight="1" s="13"/>
+    <row r="435" ht="15.75" customHeight="1" s="13"/>
+    <row r="436" ht="15.75" customHeight="1" s="13"/>
+    <row r="437" ht="15.75" customHeight="1" s="13"/>
+    <row r="438" ht="15.75" customHeight="1" s="13"/>
+    <row r="439" ht="15.75" customHeight="1" s="13"/>
+    <row r="440" ht="15.75" customHeight="1" s="13"/>
+    <row r="441" ht="15.75" customHeight="1" s="13"/>
+    <row r="442" ht="15.75" customHeight="1" s="13"/>
+    <row r="443" ht="15.75" customHeight="1" s="13"/>
+    <row r="444" ht="15.75" customHeight="1" s="13"/>
+    <row r="445" ht="15.75" customHeight="1" s="13"/>
+    <row r="446" ht="15.75" customHeight="1" s="13"/>
+    <row r="447" ht="15.75" customHeight="1" s="13"/>
+    <row r="448" ht="15.75" customHeight="1" s="13"/>
+    <row r="449" ht="15.75" customHeight="1" s="13"/>
+    <row r="450" ht="15.75" customHeight="1" s="13"/>
+    <row r="451" ht="15.75" customHeight="1" s="13"/>
+    <row r="452" ht="15.75" customHeight="1" s="13"/>
+    <row r="453" ht="15.75" customHeight="1" s="13"/>
+    <row r="454" ht="15.75" customHeight="1" s="13"/>
+    <row r="455" ht="15.75" customHeight="1" s="13"/>
+    <row r="456" ht="15.75" customHeight="1" s="13"/>
+    <row r="457" ht="15.75" customHeight="1" s="13"/>
+    <row r="458" ht="15.75" customHeight="1" s="13"/>
+    <row r="459" ht="15.75" customHeight="1" s="13"/>
+    <row r="460" ht="15.75" customHeight="1" s="13"/>
+    <row r="461" ht="15.75" customHeight="1" s="13"/>
+    <row r="462" ht="15.75" customHeight="1" s="13"/>
+    <row r="463" ht="15.75" customHeight="1" s="13"/>
+    <row r="464" ht="15.75" customHeight="1" s="13"/>
+    <row r="465" ht="15.75" customHeight="1" s="13"/>
+    <row r="466" ht="15.75" customHeight="1" s="13"/>
+    <row r="467" ht="15.75" customHeight="1" s="13"/>
+    <row r="468" ht="15.75" customHeight="1" s="13"/>
+    <row r="469" ht="15.75" customHeight="1" s="13"/>
+    <row r="470" ht="15.75" customHeight="1" s="13"/>
+    <row r="471" ht="15.75" customHeight="1" s="13"/>
+    <row r="472" ht="15.75" customHeight="1" s="13"/>
+    <row r="473" ht="15.75" customHeight="1" s="13"/>
+    <row r="474" ht="15.75" customHeight="1" s="13"/>
+    <row r="475" ht="15.75" customHeight="1" s="13"/>
+    <row r="476" ht="15.75" customHeight="1" s="13"/>
+    <row r="477" ht="15.75" customHeight="1" s="13"/>
+    <row r="478" ht="15.75" customHeight="1" s="13"/>
+    <row r="479" ht="15.75" customHeight="1" s="13"/>
+    <row r="480" ht="15.75" customHeight="1" s="13"/>
+    <row r="481" ht="15.75" customHeight="1" s="13"/>
+    <row r="482" ht="15.75" customHeight="1" s="13"/>
+    <row r="483" ht="15.75" customHeight="1" s="13"/>
+    <row r="484" ht="15.75" customHeight="1" s="13"/>
+    <row r="485" ht="15.75" customHeight="1" s="13"/>
+    <row r="486" ht="15.75" customHeight="1" s="13"/>
+    <row r="487" ht="15.75" customHeight="1" s="13"/>
+    <row r="488" ht="15.75" customHeight="1" s="13"/>
+    <row r="489" ht="15.75" customHeight="1" s="13"/>
+    <row r="490" ht="15.75" customHeight="1" s="13"/>
+    <row r="491" ht="15.75" customHeight="1" s="13"/>
+    <row r="492" ht="15.75" customHeight="1" s="13"/>
+    <row r="493" ht="15.75" customHeight="1" s="13"/>
+    <row r="494" ht="15.75" customHeight="1" s="13"/>
+    <row r="495" ht="15.75" customHeight="1" s="13"/>
+    <row r="496" ht="15.75" customHeight="1" s="13"/>
+    <row r="497" ht="15.75" customHeight="1" s="13"/>
+    <row r="498" ht="15.75" customHeight="1" s="13"/>
+    <row r="499" ht="15.75" customHeight="1" s="13"/>
+    <row r="500" ht="15.75" customHeight="1" s="13"/>
+    <row r="501" ht="15.75" customHeight="1" s="13"/>
+    <row r="502" ht="15.75" customHeight="1" s="13"/>
+    <row r="503" ht="15.75" customHeight="1" s="13"/>
+    <row r="504" ht="15.75" customHeight="1" s="13"/>
+    <row r="505" ht="15.75" customHeight="1" s="13"/>
+    <row r="506" ht="15.75" customHeight="1" s="13"/>
+    <row r="507" ht="15.75" customHeight="1" s="13"/>
+    <row r="508" ht="15.75" customHeight="1" s="13"/>
+    <row r="509" ht="15.75" customHeight="1" s="13"/>
+    <row r="510" ht="15.75" customHeight="1" s="13"/>
+    <row r="511" ht="15.75" customHeight="1" s="13"/>
+    <row r="512" ht="15.75" customHeight="1" s="13"/>
+    <row r="513" ht="15.75" customHeight="1" s="13"/>
+    <row r="514" ht="15.75" customHeight="1" s="13"/>
+    <row r="515" ht="15.75" customHeight="1" s="13"/>
+    <row r="516" ht="15.75" customHeight="1" s="13"/>
+    <row r="517" ht="15.75" customHeight="1" s="13"/>
+    <row r="518" ht="15.75" customHeight="1" s="13"/>
+    <row r="519" ht="15.75" customHeight="1" s="13"/>
+    <row r="520" ht="15.75" customHeight="1" s="13"/>
+    <row r="521" ht="15.75" customHeight="1" s="13"/>
+    <row r="522" ht="15.75" customHeight="1" s="13"/>
+    <row r="523" ht="15.75" customHeight="1" s="13"/>
+    <row r="524" ht="15.75" customHeight="1" s="13"/>
+    <row r="525" ht="15.75" customHeight="1" s="13"/>
+    <row r="526" ht="15.75" customHeight="1" s="13"/>
+    <row r="527" ht="15.75" customHeight="1" s="13"/>
+    <row r="528" ht="15.75" customHeight="1" s="13"/>
+    <row r="529" ht="15.75" customHeight="1" s="13"/>
+    <row r="530" ht="15.75" customHeight="1" s="13"/>
+    <row r="531" ht="15.75" customHeight="1" s="13"/>
+    <row r="532" ht="15.75" customHeight="1" s="13"/>
+    <row r="533" ht="15.75" customHeight="1" s="13"/>
+    <row r="534" ht="15.75" customHeight="1" s="13"/>
+    <row r="535" ht="15.75" customHeight="1" s="13"/>
+    <row r="536" ht="15.75" customHeight="1" s="13"/>
+    <row r="537" ht="15.75" customHeight="1" s="13"/>
+    <row r="538" ht="15.75" customHeight="1" s="13"/>
+    <row r="539" ht="15.75" customHeight="1" s="13"/>
+    <row r="540" ht="15.75" customHeight="1" s="13"/>
+    <row r="541" ht="15.75" customHeight="1" s="13"/>
+    <row r="542" ht="15.75" customHeight="1" s="13"/>
+    <row r="543" ht="15.75" customHeight="1" s="13"/>
+    <row r="544" ht="15.75" customHeight="1" s="13"/>
+    <row r="545" ht="15.75" customHeight="1" s="13"/>
+    <row r="546" ht="15.75" customHeight="1" s="13"/>
+    <row r="547" ht="15.75" customHeight="1" s="13"/>
+    <row r="548" ht="15.75" customHeight="1" s="13"/>
+    <row r="549" ht="15.75" customHeight="1" s="13"/>
+    <row r="550" ht="15.75" customHeight="1" s="13"/>
+    <row r="551" ht="15.75" customHeight="1" s="13"/>
+    <row r="552" ht="15.75" customHeight="1" s="13"/>
+    <row r="553" ht="15.75" customHeight="1" s="13"/>
+    <row r="554" ht="15.75" customHeight="1" s="13"/>
+    <row r="555" ht="15.75" customHeight="1" s="13"/>
+    <row r="556" ht="15.75" customHeight="1" s="13"/>
+    <row r="557" ht="15.75" customHeight="1" s="13"/>
+    <row r="558" ht="15.75" customHeight="1" s="13"/>
+    <row r="559" ht="15.75" customHeight="1" s="13"/>
+    <row r="560" ht="15.75" customHeight="1" s="13"/>
+    <row r="561" ht="15.75" customHeight="1" s="13"/>
+    <row r="562" ht="15.75" customHeight="1" s="13"/>
+    <row r="563" ht="15.75" customHeight="1" s="13"/>
+    <row r="564" ht="15.75" customHeight="1" s="13"/>
+    <row r="565" ht="15.75" customHeight="1" s="13"/>
+    <row r="566" ht="15.75" customHeight="1" s="13"/>
+    <row r="567" ht="15.75" customHeight="1" s="13"/>
+    <row r="568" ht="15.75" customHeight="1" s="13"/>
+    <row r="569" ht="15.75" customHeight="1" s="13"/>
+    <row r="570" ht="15.75" customHeight="1" s="13"/>
+    <row r="571" ht="15.75" customHeight="1" s="13"/>
+    <row r="572" ht="15.75" customHeight="1" s="13"/>
+    <row r="573" ht="15.75" customHeight="1" s="13"/>
+    <row r="574" ht="15.75" customHeight="1" s="13"/>
+    <row r="575" ht="15.75" customHeight="1" s="13"/>
+    <row r="576" ht="15.75" customHeight="1" s="13"/>
+    <row r="577" ht="15.75" customHeight="1" s="13"/>
+    <row r="578" ht="15.75" customHeight="1" s="13"/>
+    <row r="579" ht="15.75" customHeight="1" s="13"/>
+    <row r="580" ht="15.75" customHeight="1" s="13"/>
+    <row r="581" ht="15.75" customHeight="1" s="13"/>
+    <row r="582" ht="15.75" customHeight="1" s="13"/>
+    <row r="583" ht="15.75" customHeight="1" s="13"/>
+    <row r="584" ht="15.75" customHeight="1" s="13"/>
+    <row r="585" ht="15.75" customHeight="1" s="13"/>
+    <row r="586" ht="15.75" customHeight="1" s="13"/>
+    <row r="587" ht="15.75" customHeight="1" s="13"/>
+    <row r="588" ht="15.75" customHeight="1" s="13"/>
+    <row r="589" ht="15.75" customHeight="1" s="13"/>
+    <row r="590" ht="15.75" customHeight="1" s="13"/>
+    <row r="591" ht="15.75" customHeight="1" s="13"/>
+    <row r="592" ht="15.75" customHeight="1" s="13"/>
+    <row r="593" ht="15.75" customHeight="1" s="13"/>
+    <row r="594" ht="15.75" customHeight="1" s="13"/>
+    <row r="595" ht="15.75" customHeight="1" s="13"/>
+    <row r="596" ht="15.75" customHeight="1" s="13"/>
+    <row r="597" ht="15.75" customHeight="1" s="13"/>
+    <row r="598" ht="15.75" customHeight="1" s="13"/>
+    <row r="599" ht="15.75" customHeight="1" s="13"/>
+    <row r="600" ht="15.75" customHeight="1" s="13"/>
+    <row r="601" ht="15.75" customHeight="1" s="13"/>
+    <row r="602" ht="15.75" customHeight="1" s="13"/>
+    <row r="603" ht="15.75" customHeight="1" s="13"/>
+    <row r="604" ht="15.75" customHeight="1" s="13"/>
+    <row r="605" ht="15.75" customHeight="1" s="13"/>
+    <row r="606" ht="15.75" customHeight="1" s="13"/>
+    <row r="607" ht="15.75" customHeight="1" s="13"/>
+    <row r="608" ht="15.75" customHeight="1" s="13"/>
+    <row r="609" ht="15.75" customHeight="1" s="13"/>
+    <row r="610" ht="15.75" customHeight="1" s="13"/>
+    <row r="611" ht="15.75" customHeight="1" s="13"/>
+    <row r="612" ht="15.75" customHeight="1" s="13"/>
+    <row r="613" ht="15.75" customHeight="1" s="13"/>
+    <row r="614" ht="15.75" customHeight="1" s="13"/>
+    <row r="615" ht="15.75" customHeight="1" s="13"/>
+    <row r="616" ht="15.75" customHeight="1" s="13"/>
+    <row r="617" ht="15.75" customHeight="1" s="13"/>
+    <row r="618" ht="15.75" customHeight="1" s="13"/>
+    <row r="619" ht="15.75" customHeight="1" s="13"/>
+    <row r="620" ht="15.75" customHeight="1" s="13"/>
+    <row r="621" ht="15.75" customHeight="1" s="13"/>
+    <row r="622" ht="15.75" customHeight="1" s="13"/>
+    <row r="623" ht="15.75" customHeight="1" s="13"/>
+    <row r="624" ht="15.75" customHeight="1" s="13"/>
+    <row r="625" ht="15.75" customHeight="1" s="13"/>
+    <row r="626" ht="15.75" customHeight="1" s="13"/>
+    <row r="627" ht="15.75" customHeight="1" s="13"/>
+    <row r="628" ht="15.75" customHeight="1" s="13"/>
+    <row r="629" ht="15.75" customHeight="1" s="13"/>
+    <row r="630" ht="15.75" customHeight="1" s="13"/>
+    <row r="631" ht="15.75" customHeight="1" s="13"/>
+    <row r="632" ht="15.75" customHeight="1" s="13"/>
+    <row r="633" ht="15.75" customHeight="1" s="13"/>
+    <row r="634" ht="15.75" customHeight="1" s="13"/>
+    <row r="635" ht="15.75" customHeight="1" s="13"/>
+    <row r="636" ht="15.75" customHeight="1" s="13"/>
+    <row r="637" ht="15.75" customHeight="1" s="13"/>
+    <row r="638" ht="15.75" customHeight="1" s="13"/>
+    <row r="639" ht="15.75" customHeight="1" s="13"/>
+    <row r="640" ht="15.75" customHeight="1" s="13"/>
+    <row r="641" ht="15.75" customHeight="1" s="13"/>
+    <row r="642" ht="15.75" customHeight="1" s="13"/>
+    <row r="643" ht="15.75" customHeight="1" s="13"/>
+    <row r="644" ht="15.75" customHeight="1" s="13"/>
+    <row r="645" ht="15.75" customHeight="1" s="13"/>
+    <row r="646" ht="15.75" customHeight="1" s="13"/>
+    <row r="647" ht="15.75" customHeight="1" s="13"/>
+    <row r="648" ht="15.75" customHeight="1" s="13"/>
+    <row r="649" ht="15.75" customHeight="1" s="13"/>
+    <row r="650" ht="15.75" customHeight="1" s="13"/>
+    <row r="651" ht="15.75" customHeight="1" s="13"/>
+    <row r="652" ht="15.75" customHeight="1" s="13"/>
+    <row r="653" ht="15.75" customHeight="1" s="13"/>
+    <row r="654" ht="15.75" customHeight="1" s="13"/>
+    <row r="655" ht="15.75" customHeight="1" s="13"/>
+    <row r="656" ht="15.75" customHeight="1" s="13"/>
+    <row r="657" ht="15.75" customHeight="1" s="13"/>
+    <row r="658" ht="15.75" customHeight="1" s="13"/>
+    <row r="659" ht="15.75" customHeight="1" s="13"/>
+    <row r="660" ht="15.75" customHeight="1" s="13"/>
+    <row r="661" ht="15.75" customHeight="1" s="13"/>
+    <row r="662" ht="15.75" customHeight="1" s="13"/>
+    <row r="663" ht="15.75" customHeight="1" s="13"/>
+    <row r="664" ht="15.75" customHeight="1" s="13"/>
+    <row r="665" ht="15.75" customHeight="1" s="13"/>
+    <row r="666" ht="15.75" customHeight="1" s="13"/>
+    <row r="667" ht="15.75" customHeight="1" s="13"/>
+    <row r="668" ht="15.75" customHeight="1" s="13"/>
+    <row r="669" ht="15.75" customHeight="1" s="13"/>
+    <row r="670" ht="15.75" customHeight="1" s="13"/>
+    <row r="671" ht="15.75" customHeight="1" s="13"/>
+    <row r="672" ht="15.75" customHeight="1" s="13"/>
+    <row r="673" ht="15.75" customHeight="1" s="13"/>
+    <row r="674" ht="15.75" customHeight="1" s="13"/>
+    <row r="675" ht="15.75" customHeight="1" s="13"/>
+    <row r="676" ht="15.75" customHeight="1" s="13"/>
+    <row r="677" ht="15.75" customHeight="1" s="13"/>
+    <row r="678" ht="15.75" customHeight="1" s="13"/>
+    <row r="679" ht="15.75" customHeight="1" s="13"/>
+    <row r="680" ht="15.75" customHeight="1" s="13"/>
+    <row r="681" ht="15.75" customHeight="1" s="13"/>
+    <row r="682" ht="15.75" customHeight="1" s="13"/>
+    <row r="683" ht="15.75" customHeight="1" s="13"/>
+    <row r="684" ht="15.75" customHeight="1" s="13"/>
+    <row r="685" ht="15.75" customHeight="1" s="13"/>
+    <row r="686" ht="15.75" customHeight="1" s="13"/>
+    <row r="687" ht="15.75" customHeight="1" s="13"/>
+    <row r="688" ht="15.75" customHeight="1" s="13"/>
+    <row r="689" ht="15.75" customHeight="1" s="13"/>
+    <row r="690" ht="15.75" customHeight="1" s="13"/>
+    <row r="691" ht="15.75" customHeight="1" s="13"/>
+    <row r="692" ht="15.75" customHeight="1" s="13"/>
+    <row r="693" ht="15.75" customHeight="1" s="13"/>
+    <row r="694" ht="15.75" customHeight="1" s="13"/>
+    <row r="695" ht="15.75" customHeight="1" s="13"/>
+    <row r="696" ht="15.75" customHeight="1" s="13"/>
+    <row r="697" ht="15.75" customHeight="1" s="13"/>
+    <row r="698" ht="15.75" customHeight="1" s="13"/>
+    <row r="699" ht="15.75" customHeight="1" s="13"/>
+    <row r="700" ht="15.75" customHeight="1" s="13"/>
+    <row r="701" ht="15.75" customHeight="1" s="13"/>
+    <row r="702" ht="15.75" customHeight="1" s="13"/>
+    <row r="703" ht="15.75" customHeight="1" s="13"/>
+    <row r="704" ht="15.75" customHeight="1" s="13"/>
+    <row r="705" ht="15.75" customHeight="1" s="13"/>
+    <row r="706" ht="15.75" customHeight="1" s="13"/>
+    <row r="707" ht="15.75" customHeight="1" s="13"/>
+    <row r="708" ht="15.75" customHeight="1" s="13"/>
+    <row r="709" ht="15.75" customHeight="1" s="13"/>
+    <row r="710" ht="15.75" customHeight="1" s="13"/>
+    <row r="711" ht="15.75" customHeight="1" s="13"/>
+    <row r="712" ht="15.75" customHeight="1" s="13"/>
+    <row r="713" ht="15.75" customHeight="1" s="13"/>
+    <row r="714" ht="15.75" customHeight="1" s="13"/>
+    <row r="715" ht="15.75" customHeight="1" s="13"/>
+    <row r="716" ht="15.75" customHeight="1" s="13"/>
+    <row r="717" ht="15.75" customHeight="1" s="13"/>
+    <row r="718" ht="15.75" customHeight="1" s="13"/>
+    <row r="719" ht="15.75" customHeight="1" s="13"/>
+    <row r="720" ht="15.75" customHeight="1" s="13"/>
+    <row r="721" ht="15.75" customHeight="1" s="13"/>
+    <row r="722" ht="15.75" customHeight="1" s="13"/>
+    <row r="723" ht="15.75" customHeight="1" s="13"/>
+    <row r="724" ht="15.75" customHeight="1" s="13"/>
+    <row r="725" ht="15.75" customHeight="1" s="13"/>
+    <row r="726" ht="15.75" customHeight="1" s="13"/>
+    <row r="727" ht="15.75" customHeight="1" s="13"/>
+    <row r="728" ht="15.75" customHeight="1" s="13"/>
+    <row r="729" ht="15.75" customHeight="1" s="13"/>
+    <row r="730" ht="15.75" customHeight="1" s="13"/>
+    <row r="731" ht="15.75" customHeight="1" s="13"/>
+    <row r="732" ht="15.75" customHeight="1" s="13"/>
+    <row r="733" ht="15.75" customHeight="1" s="13"/>
+    <row r="734" ht="15.75" customHeight="1" s="13"/>
+    <row r="735" ht="15.75" customHeight="1" s="13"/>
+    <row r="736" ht="15.75" customHeight="1" s="13"/>
+    <row r="737" ht="15.75" customHeight="1" s="13"/>
+    <row r="738" ht="15.75" customHeight="1" s="13"/>
+    <row r="739" ht="15.75" customHeight="1" s="13"/>
+    <row r="740" ht="15.75" customHeight="1" s="13"/>
+    <row r="741" ht="15.75" customHeight="1" s="13"/>
+    <row r="742" ht="15.75" customHeight="1" s="13"/>
+    <row r="743" ht="15.75" customHeight="1" s="13"/>
+    <row r="744" ht="15.75" customHeight="1" s="13"/>
+    <row r="745" ht="15.75" customHeight="1" s="13"/>
+    <row r="746" ht="15.75" customHeight="1" s="13"/>
+    <row r="747" ht="15.75" customHeight="1" s="13"/>
+    <row r="748" ht="15.75" customHeight="1" s="13"/>
+    <row r="749" ht="15.75" customHeight="1" s="13"/>
+    <row r="750" ht="15.75" customHeight="1" s="13"/>
+    <row r="751" ht="15.75" customHeight="1" s="13"/>
+    <row r="752" ht="15.75" customHeight="1" s="13"/>
+    <row r="753" ht="15.75" customHeight="1" s="13"/>
+    <row r="754" ht="15.75" customHeight="1" s="13"/>
+    <row r="755" ht="15.75" customHeight="1" s="13"/>
+    <row r="756" ht="15.75" customHeight="1" s="13"/>
+    <row r="757" ht="15.75" customHeight="1" s="13"/>
+    <row r="758" ht="15.75" customHeight="1" s="13"/>
+    <row r="759" ht="15.75" customHeight="1" s="13"/>
+    <row r="760" ht="15.75" customHeight="1" s="13"/>
+    <row r="761" ht="15.75" customHeight="1" s="13"/>
+    <row r="762" ht="15.75" customHeight="1" s="13"/>
+    <row r="763" ht="15.75" customHeight="1" s="13"/>
+    <row r="764" ht="15.75" customHeight="1" s="13"/>
+    <row r="765" ht="15.75" customHeight="1" s="13"/>
+    <row r="766" ht="15.75" customHeight="1" s="13"/>
+    <row r="767" ht="15.75" customHeight="1" s="13"/>
+    <row r="768" ht="15.75" customHeight="1" s="13"/>
+    <row r="769" ht="15.75" customHeight="1" s="13"/>
+    <row r="770" ht="15.75" customHeight="1" s="13"/>
+    <row r="771" ht="15.75" customHeight="1" s="13"/>
+    <row r="772" ht="15.75" customHeight="1" s="13"/>
+    <row r="773" ht="15.75" customHeight="1" s="13"/>
+    <row r="774" ht="15.75" customHeight="1" s="13"/>
+    <row r="775" ht="15.75" customHeight="1" s="13"/>
+    <row r="776" ht="15.75" customHeight="1" s="13"/>
+    <row r="777" ht="15.75" customHeight="1" s="13"/>
+    <row r="778" ht="15.75" customHeight="1" s="13"/>
+    <row r="779" ht="15.75" customHeight="1" s="13"/>
+    <row r="780" ht="15.75" customHeight="1" s="13"/>
+    <row r="781" ht="15.75" customHeight="1" s="13"/>
+    <row r="782" ht="15.75" customHeight="1" s="13"/>
+    <row r="783" ht="15.75" customHeight="1" s="13"/>
+    <row r="784" ht="15.75" customHeight="1" s="13"/>
+    <row r="785" ht="15.75" customHeight="1" s="13"/>
+    <row r="786" ht="15.75" customHeight="1" s="13"/>
+    <row r="787" ht="15.75" customHeight="1" s="13"/>
+    <row r="788" ht="15.75" customHeight="1" s="13"/>
+    <row r="789" ht="15.75" customHeight="1" s="13"/>
+    <row r="790" ht="15.75" customHeight="1" s="13"/>
+    <row r="791" ht="15.75" customHeight="1" s="13"/>
+    <row r="792" ht="15.75" customHeight="1" s="13"/>
+    <row r="793" ht="15.75" customHeight="1" s="13"/>
+    <row r="794" ht="15.75" customHeight="1" s="13"/>
+    <row r="795" ht="15.75" customHeight="1" s="13"/>
+    <row r="796" ht="15.75" customHeight="1" s="13"/>
+    <row r="797" ht="15.75" customHeight="1" s="13"/>
+    <row r="798" ht="15.75" customHeight="1" s="13"/>
+    <row r="799" ht="15.75" customHeight="1" s="13"/>
+    <row r="800" ht="15.75" customHeight="1" s="13"/>
+    <row r="801" ht="15.75" customHeight="1" s="13"/>
+    <row r="802" ht="15.75" customHeight="1" s="13"/>
+    <row r="803" ht="15.75" customHeight="1" s="13"/>
+    <row r="804" ht="15.75" customHeight="1" s="13"/>
+    <row r="805" ht="15.75" customHeight="1" s="13"/>
+    <row r="806" ht="15.75" customHeight="1" s="13"/>
+    <row r="807" ht="15.75" customHeight="1" s="13"/>
+    <row r="808" ht="15.75" customHeight="1" s="13"/>
+    <row r="809" ht="15.75" customHeight="1" s="13"/>
+    <row r="810" ht="15.75" customHeight="1" s="13"/>
+    <row r="811" ht="15.75" customHeight="1" s="13"/>
+    <row r="812" ht="15.75" customHeight="1" s="13"/>
+    <row r="813" ht="15.75" customHeight="1" s="13"/>
+    <row r="814" ht="15.75" customHeight="1" s="13"/>
+    <row r="815" ht="15.75" customHeight="1" s="13"/>
+    <row r="816" ht="15.75" customHeight="1" s="13"/>
+    <row r="817" ht="15.75" customHeight="1" s="13"/>
+    <row r="818" ht="15.75" customHeight="1" s="13"/>
+    <row r="819" ht="15.75" customHeight="1" s="13"/>
+    <row r="820" ht="15.75" customHeight="1" s="13"/>
+    <row r="821" ht="15.75" customHeight="1" s="13"/>
+    <row r="822" ht="15.75" customHeight="1" s="13"/>
+    <row r="823" ht="15.75" customHeight="1" s="13"/>
+    <row r="824" ht="15.75" customHeight="1" s="13"/>
+    <row r="825" ht="15.75" customHeight="1" s="13"/>
+    <row r="826" ht="15.75" customHeight="1" s="13"/>
+    <row r="827" ht="15.75" customHeight="1" s="13"/>
+    <row r="828" ht="15.75" customHeight="1" s="13"/>
+    <row r="829" ht="15.75" customHeight="1" s="13"/>
+    <row r="830" ht="15.75" customHeight="1" s="13"/>
+    <row r="831" ht="15.75" customHeight="1" s="13"/>
+    <row r="832" ht="15.75" customHeight="1" s="13"/>
+    <row r="833" ht="15.75" customHeight="1" s="13"/>
+    <row r="834" ht="15.75" customHeight="1" s="13"/>
+    <row r="835" ht="15.75" customHeight="1" s="13"/>
+    <row r="836" ht="15.75" customHeight="1" s="13"/>
+    <row r="837" ht="15.75" customHeight="1" s="13"/>
+    <row r="838" ht="15.75" customHeight="1" s="13"/>
+    <row r="839" ht="15.75" customHeight="1" s="13"/>
+    <row r="840" ht="15.75" customHeight="1" s="13"/>
+    <row r="841" ht="15.75" customHeight="1" s="13"/>
+    <row r="842" ht="15.75" customHeight="1" s="13"/>
+    <row r="843" ht="15.75" customHeight="1" s="13"/>
+    <row r="844" ht="15.75" customHeight="1" s="13"/>
+    <row r="845" ht="15.75" customHeight="1" s="13"/>
+    <row r="846" ht="15.75" customHeight="1" s="13"/>
+    <row r="847" ht="15.75" customHeight="1" s="13"/>
+    <row r="848" ht="15.75" customHeight="1" s="13"/>
+    <row r="849" ht="15.75" customHeight="1" s="13"/>
+    <row r="850" ht="15.75" customHeight="1" s="13"/>
+    <row r="851" ht="15.75" customHeight="1" s="13"/>
+    <row r="852" ht="15.75" customHeight="1" s="13"/>
+    <row r="853" ht="15.75" customHeight="1" s="13"/>
+    <row r="854" ht="15.75" customHeight="1" s="13"/>
+    <row r="855" ht="15.75" customHeight="1" s="13"/>
+    <row r="856" ht="15.75" customHeight="1" s="13"/>
+    <row r="857" ht="15.75" customHeight="1" s="13"/>
+    <row r="858" ht="15.75" customHeight="1" s="13"/>
+    <row r="859" ht="15.75" customHeight="1" s="13"/>
+    <row r="860" ht="15.75" customHeight="1" s="13"/>
+    <row r="861" ht="15.75" customHeight="1" s="13"/>
+    <row r="862" ht="15.75" customHeight="1" s="13"/>
+    <row r="863" ht="15.75" customHeight="1" s="13"/>
+    <row r="864" ht="15.75" customHeight="1" s="13"/>
+    <row r="865" ht="15.75" customHeight="1" s="13"/>
+    <row r="866" ht="15.75" customHeight="1" s="13"/>
+    <row r="867" ht="15.75" customHeight="1" s="13"/>
+    <row r="868" ht="15.75" customHeight="1" s="13"/>
+    <row r="869" ht="15.75" customHeight="1" s="13"/>
+    <row r="870" ht="15.75" customHeight="1" s="13"/>
+    <row r="871" ht="15.75" customHeight="1" s="13"/>
+    <row r="872" ht="15.75" customHeight="1" s="13"/>
+    <row r="873" ht="15.75" customHeight="1" s="13"/>
+    <row r="874" ht="15.75" customHeight="1" s="13"/>
+    <row r="875" ht="15.75" customHeight="1" s="13"/>
+    <row r="876" ht="15.75" customHeight="1" s="13"/>
+    <row r="877" ht="15.75" customHeight="1" s="13"/>
+    <row r="878" ht="15.75" customHeight="1" s="13"/>
+    <row r="879" ht="15.75" customHeight="1" s="13"/>
+    <row r="880" ht="15.75" customHeight="1" s="13"/>
+    <row r="881" ht="15.75" customHeight="1" s="13"/>
+    <row r="882" ht="15.75" customHeight="1" s="13"/>
+    <row r="883" ht="15.75" customHeight="1" s="13"/>
+    <row r="884" ht="15.75" customHeight="1" s="13"/>
+    <row r="885" ht="15.75" customHeight="1" s="13"/>
+    <row r="886" ht="15.75" customHeight="1" s="13"/>
+    <row r="887" ht="15.75" customHeight="1" s="13"/>
+    <row r="888" ht="15.75" customHeight="1" s="13"/>
+    <row r="889" ht="15.75" customHeight="1" s="13"/>
+    <row r="890" ht="15.75" customHeight="1" s="13"/>
+    <row r="891" ht="15.75" customHeight="1" s="13"/>
+    <row r="892" ht="15.75" customHeight="1" s="13"/>
+    <row r="893" ht="15.75" customHeight="1" s="13"/>
+    <row r="894" ht="15.75" customHeight="1" s="13"/>
+    <row r="895" ht="15.75" customHeight="1" s="13"/>
+    <row r="896" ht="15.75" customHeight="1" s="13"/>
+    <row r="897" ht="15.75" customHeight="1" s="13"/>
+    <row r="898" ht="15.75" customHeight="1" s="13"/>
+    <row r="899" ht="15.75" customHeight="1" s="13"/>
+    <row r="900" ht="15.75" customHeight="1" s="13"/>
+    <row r="901" ht="15.75" customHeight="1" s="13"/>
+    <row r="902" ht="15.75" customHeight="1" s="13"/>
+    <row r="903" ht="15.75" customHeight="1" s="13"/>
+    <row r="904" ht="15.75" customHeight="1" s="13"/>
+    <row r="905" ht="15.75" customHeight="1" s="13"/>
+    <row r="906" ht="15.75" customHeight="1" s="13"/>
+    <row r="907" ht="15.75" customHeight="1" s="13"/>
+    <row r="908" ht="15.75" customHeight="1" s="13"/>
+    <row r="909" ht="15.75" customHeight="1" s="13"/>
+    <row r="910" ht="15.75" customHeight="1" s="13"/>
+    <row r="911" ht="15.75" customHeight="1" s="13"/>
+    <row r="912" ht="15.75" customHeight="1" s="13"/>
+    <row r="913" ht="15.75" customHeight="1" s="13"/>
+    <row r="914" ht="15.75" customHeight="1" s="13"/>
+    <row r="915" ht="15.75" customHeight="1" s="13"/>
+    <row r="916" ht="15.75" customHeight="1" s="13"/>
+    <row r="917" ht="15.75" customHeight="1" s="13"/>
+    <row r="918" ht="15.75" customHeight="1" s="13"/>
+    <row r="919" ht="15.75" customHeight="1" s="13"/>
+    <row r="920" ht="15.75" customHeight="1" s="13"/>
+    <row r="921" ht="15.75" customHeight="1" s="13"/>
+    <row r="922" ht="15.75" customHeight="1" s="13"/>
+    <row r="923" ht="15.75" customHeight="1" s="13"/>
+    <row r="924" ht="15.75" customHeight="1" s="13"/>
+    <row r="925" ht="15.75" customHeight="1" s="13"/>
+    <row r="926" ht="15.75" customHeight="1" s="13"/>
+    <row r="927" ht="15.75" customHeight="1" s="13"/>
+    <row r="928" ht="15.75" customHeight="1" s="13"/>
+    <row r="929" ht="15.75" customHeight="1" s="13"/>
+    <row r="930" ht="15.75" customHeight="1" s="13"/>
+    <row r="931" ht="15.75" customHeight="1" s="13"/>
+    <row r="932" ht="15.75" customHeight="1" s="13"/>
+    <row r="933" ht="15.75" customHeight="1" s="13"/>
+    <row r="934" ht="15.75" customHeight="1" s="13"/>
+    <row r="935" ht="15.75" customHeight="1" s="13"/>
+    <row r="936" ht="15.75" customHeight="1" s="13"/>
+    <row r="937" ht="15.75" customHeight="1" s="13"/>
+    <row r="938" ht="15.75" customHeight="1" s="13"/>
+    <row r="939" ht="15.75" customHeight="1" s="13"/>
+    <row r="940" ht="15.75" customHeight="1" s="13"/>
+    <row r="941" ht="15.75" customHeight="1" s="13"/>
+    <row r="942" ht="15.75" customHeight="1" s="13"/>
+    <row r="943" ht="15.75" customHeight="1" s="13"/>
+    <row r="944" ht="15.75" customHeight="1" s="13"/>
+    <row r="945" ht="15.75" customHeight="1" s="13"/>
+    <row r="946" ht="15.75" customHeight="1" s="13"/>
+    <row r="947" ht="15.75" customHeight="1" s="13"/>
+    <row r="948" ht="15.75" customHeight="1" s="13"/>
+    <row r="949" ht="15.75" customHeight="1" s="13"/>
+    <row r="950" ht="15.75" customHeight="1" s="13"/>
+    <row r="951" ht="15.75" customHeight="1" s="13"/>
+    <row r="952" ht="15.75" customHeight="1" s="13"/>
+    <row r="953" ht="15.75" customHeight="1" s="13"/>
+    <row r="954" ht="15.75" customHeight="1" s="13"/>
+    <row r="955" ht="15.75" customHeight="1" s="13"/>
+    <row r="956" ht="15.75" customHeight="1" s="13"/>
+    <row r="957" ht="15.75" customHeight="1" s="13"/>
+    <row r="958" ht="15.75" customHeight="1" s="13"/>
+    <row r="959" ht="15.75" customHeight="1" s="13"/>
+    <row r="960" ht="15.75" customHeight="1" s="13"/>
+    <row r="961" ht="15.75" customHeight="1" s="13"/>
+    <row r="962" ht="15.75" customHeight="1" s="13"/>
+    <row r="963" ht="15.75" customHeight="1" s="13"/>
+    <row r="964" ht="15.75" customHeight="1" s="13"/>
+    <row r="965" ht="15.75" customHeight="1" s="13"/>
+    <row r="966" ht="15.75" customHeight="1" s="13"/>
+    <row r="967" ht="15.75" customHeight="1" s="13"/>
+    <row r="968" ht="15.75" customHeight="1" s="13"/>
+    <row r="969" ht="15.75" customHeight="1" s="13"/>
+    <row r="970" ht="15.75" customHeight="1" s="13"/>
+    <row r="971" ht="15.75" customHeight="1" s="13"/>
+    <row r="972" ht="15.75" customHeight="1" s="13"/>
+    <row r="973" ht="15.75" customHeight="1" s="13"/>
+    <row r="974" ht="15.75" customHeight="1" s="13"/>
+    <row r="975" ht="15.75" customHeight="1" s="13"/>
+    <row r="976" ht="15.75" customHeight="1" s="13"/>
+    <row r="977" ht="15.75" customHeight="1" s="13"/>
+    <row r="978" ht="15.75" customHeight="1" s="13"/>
+    <row r="979" ht="15.75" customHeight="1" s="13"/>
+    <row r="980" ht="15.75" customHeight="1" s="13"/>
+    <row r="981" ht="15.75" customHeight="1" s="13"/>
+    <row r="982" ht="15.75" customHeight="1" s="13"/>
+    <row r="983" ht="15.75" customHeight="1" s="13"/>
+    <row r="984" ht="15.75" customHeight="1" s="13"/>
+    <row r="985" ht="15.75" customHeight="1" s="13"/>
+    <row r="986" ht="15.75" customHeight="1" s="13"/>
+    <row r="987" ht="15.75" customHeight="1" s="13"/>
+    <row r="988" ht="15.75" customHeight="1" s="13"/>
+    <row r="989" ht="15.75" customHeight="1" s="13"/>
+    <row r="990" ht="15.75" customHeight="1" s="13"/>
+    <row r="991" ht="15.75" customHeight="1" s="13"/>
+    <row r="992" ht="15.75" customHeight="1" s="13"/>
+    <row r="993" ht="15.75" customHeight="1" s="13"/>
+    <row r="994" ht="15.75" customHeight="1" s="13"/>
+    <row r="995" ht="15.75" customHeight="1" s="13"/>
+    <row r="996" ht="15.75" customHeight="1" s="13"/>
+    <row r="997" ht="15.75" customHeight="1" s="13"/>
+    <row r="998" ht="15.75" customHeight="1" s="13"/>
+    <row r="999" ht="15.75" customHeight="1" s="13"/>
+    <row r="1000" ht="15.75" customHeight="1" s="13"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/InputData/elec/ELF/Equipment Load Factors.xlsx
+++ b/InputData/elec/ELF/Equipment Load Factors.xlsx
@@ -1686,14 +1686,14 @@
         </is>
       </c>
       <c r="B2" s="12" t="n">
-        <v>2.01923</v>
+        <v>1.36302</v>
       </c>
       <c r="C2" s="12">
         <f>B2</f>
         <v/>
       </c>
       <c r="D2" s="12" t="n">
-        <v>1.06257</v>
+        <v>1.16033</v>
       </c>
     </row>
     <row r="3">
@@ -1735,14 +1735,14 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>1.80236</v>
+        <v>1.91535</v>
       </c>
       <c r="C5" s="12">
         <f>B5</f>
         <v/>
       </c>
       <c r="D5" s="12" t="n">
-        <v>1.32205</v>
+        <v>1.45616</v>
       </c>
     </row>
     <row r="6">
@@ -1776,7 +1776,7 @@
         <v/>
       </c>
       <c r="D7" s="12" t="n">
-        <v>1.32205</v>
+        <v>1.45616</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>
@@ -2832,14 +2832,14 @@
         </is>
       </c>
       <c r="B3" s="12" t="n">
-        <v>22.74236</v>
+        <v>7.66676</v>
       </c>
       <c r="C3" s="12">
         <f>B3</f>
         <v/>
       </c>
       <c r="D3" s="12" t="n">
-        <v>5.753</v>
+        <v>6.54006</v>
       </c>
     </row>
     <row r="4">
@@ -2865,14 +2865,14 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>1.74126</v>
+        <v>1.85042</v>
       </c>
       <c r="C5" s="12">
         <f>B5</f>
         <v/>
       </c>
       <c r="D5" s="12" t="n">
-        <v>1.82225</v>
+        <v>2.00709</v>
       </c>
     </row>
     <row r="6">
@@ -2906,7 +2906,7 @@
         <v/>
       </c>
       <c r="D7" s="12" t="n">
-        <v>1.82225</v>
+        <v>2.00709</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.16151</v>
+        <v>1.16038</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.22451</v>
+        <v>1.22331</v>
       </c>
     </row>
     <row r="5">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.16151</v>
+        <v>1.16038</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.22451</v>
+        <v>1.22331</v>
       </c>
     </row>
     <row r="6">
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.16151</v>
+        <v>1.16038</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.22451</v>
+        <v>1.22331</v>
       </c>
     </row>
     <row r="7">
@@ -4002,10 +4002,10 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.16151</v>
+        <v>1.16038</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.22451</v>
+        <v>1.22331</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>

--- a/InputData/elec/ELF/Equipment Load Factors.xlsx
+++ b/InputData/elec/ELF/Equipment Load Factors.xlsx
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B2" s="12" t="n">
-        <v>1.36302</v>
+        <v>2.01923</v>
       </c>
       <c r="C2" s="12">
         <f>B2</f>
@@ -1735,14 +1735,14 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>1.91535</v>
+        <v>2.02618</v>
       </c>
       <c r="C5" s="12">
         <f>B5</f>
         <v/>
       </c>
       <c r="D5" s="12" t="n">
-        <v>1.45616</v>
+        <v>1.49548</v>
       </c>
     </row>
     <row r="6">
@@ -1776,7 +1776,7 @@
         <v/>
       </c>
       <c r="D7" s="12" t="n">
-        <v>1.45616</v>
+        <v>1.49548</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>
@@ -2832,14 +2832,14 @@
         </is>
       </c>
       <c r="B3" s="12" t="n">
-        <v>7.66676</v>
+        <v>5.73381</v>
       </c>
       <c r="C3" s="12">
         <f>B3</f>
         <v/>
       </c>
       <c r="D3" s="12" t="n">
-        <v>6.54006</v>
+        <v>3.43451</v>
       </c>
     </row>
     <row r="4">
@@ -2865,14 +2865,14 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>1.85042</v>
+        <v>2.09654</v>
       </c>
       <c r="C5" s="12">
         <f>B5</f>
         <v/>
       </c>
       <c r="D5" s="12" t="n">
-        <v>2.00709</v>
+        <v>2.0613</v>
       </c>
     </row>
     <row r="6">
@@ -2906,7 +2906,7 @@
         <v/>
       </c>
       <c r="D7" s="12" t="n">
-        <v>2.00709</v>
+        <v>2.0613</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>

--- a/InputData/elec/ELF/Equipment Load Factors.xlsx
+++ b/InputData/elec/ELF/Equipment Load Factors.xlsx
@@ -129,6 +129,74 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2832,7 +2900,7 @@
         </is>
       </c>
       <c r="B3" s="12" t="n">
-        <v>5.73381</v>
+        <v>7.66676</v>
       </c>
       <c r="C3" s="12">
         <f>B3</f>

--- a/InputData/elec/ELF/Equipment Load Factors.xlsx
+++ b/InputData/elec/ELF/Equipment Load Factors.xlsx
@@ -129,74 +129,6 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
